--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="NewCust" sheetId="2" r:id="rId2"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId3"/>
+    <sheet name="DeleteCust" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>testcaseID</t>
   </si>
@@ -75,10 +78,346 @@
     <t>message</t>
   </si>
   <si>
-    <t>Logged in successfully</t>
-  </si>
-  <si>
-    <t>Invalid user or password</t>
+    <t>User or Password is not valid</t>
+  </si>
+  <si>
+    <t>Pass - User or Password is not valid</t>
+  </si>
+  <si>
+    <t>Guru99 Bank Manager HomePage</t>
+  </si>
+  <si>
+    <t>Blank user</t>
+  </si>
+  <si>
+    <t>Blank password</t>
+  </si>
+  <si>
+    <t>Blank user credential</t>
+  </si>
+  <si>
+    <t>NytyygfF</t>
+  </si>
+  <si>
+    <t>mngr564377</t>
+  </si>
+  <si>
+    <t>Pass - Guru99 Bank Manager HomePage</t>
+  </si>
+  <si>
+    <t>User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Password must not be blank</t>
+  </si>
+  <si>
+    <t>User-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Password must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t>custName</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>mobNo</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>custid</t>
+  </si>
+  <si>
+    <t>Valid customer creation</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>19 5th main KT layout</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>87 9th cross TM road</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>jim@test.com</t>
+  </si>
+  <si>
+    <t>54 7th main DR road</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>keith@test.com</t>
+  </si>
+  <si>
+    <t>Blank customer name</t>
+  </si>
+  <si>
+    <t>Numbers in customer name</t>
+  </si>
+  <si>
+    <t>Special characters in customer name</t>
+  </si>
+  <si>
+    <t>Customer name exceeding 25 characters</t>
+  </si>
+  <si>
+    <t>Blank gender</t>
+  </si>
+  <si>
+    <t>Blank DOB</t>
+  </si>
+  <si>
+    <t>Future DOB</t>
+  </si>
+  <si>
+    <t>Blank address</t>
+  </si>
+  <si>
+    <t>Numbers in address</t>
+  </si>
+  <si>
+    <t>Special characters in address</t>
+  </si>
+  <si>
+    <t>Address exceeding 50 characters</t>
+  </si>
+  <si>
+    <t>Blank city</t>
+  </si>
+  <si>
+    <t>Numbers in city</t>
+  </si>
+  <si>
+    <t>Special characters in city</t>
+  </si>
+  <si>
+    <t>City exceeding 25 characters</t>
+  </si>
+  <si>
+    <t>Numbers in state</t>
+  </si>
+  <si>
+    <t>Blank state</t>
+  </si>
+  <si>
+    <t>Special characters in state</t>
+  </si>
+  <si>
+    <t>State exceeding 25 characters</t>
+  </si>
+  <si>
+    <t>Blank pin</t>
+  </si>
+  <si>
+    <t>Characters in pin</t>
+  </si>
+  <si>
+    <t>Special characters in pin</t>
+  </si>
+  <si>
+    <t>Pin exceeding 6 digits</t>
+  </si>
+  <si>
+    <t>Pin less than 6 digits</t>
+  </si>
+  <si>
+    <t>Blank mobile number</t>
+  </si>
+  <si>
+    <t>Characters in mobile number</t>
+  </si>
+  <si>
+    <t>Special characters in mobile number</t>
+  </si>
+  <si>
+    <t>Mobile number exc eeding 15 digits</t>
+  </si>
+  <si>
+    <t>Mobile number less than 5 digits</t>
+  </si>
+  <si>
+    <t>Blank email id</t>
+  </si>
+  <si>
+    <t>Invalid email id with out @</t>
+  </si>
+  <si>
+    <t>Invalid email id without domain name</t>
+  </si>
+  <si>
+    <t>Invalid email id</t>
+  </si>
+  <si>
+    <t>Only spaces in customer name</t>
+  </si>
+  <si>
+    <t>Only spaces in address</t>
+  </si>
+  <si>
+    <t>Only spaces in city</t>
+  </si>
+  <si>
+    <t>Only spaces in state</t>
+  </si>
+  <si>
+    <t>Only spaces in pin</t>
+  </si>
+  <si>
+    <t>Only spaces in mobile number</t>
+  </si>
+  <si>
+    <t>Only spaces in email id</t>
+  </si>
+  <si>
+    <t>Only spaces in password</t>
+  </si>
+  <si>
+    <t>Email id exceeding 10 characters</t>
+  </si>
+  <si>
+    <t>Password exceeding 10 characters</t>
+  </si>
+  <si>
+    <t>Password with numbers,characters and special characters</t>
+  </si>
+  <si>
+    <t>All fields blank</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>ji@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>10 GJ road</t>
+  </si>
+  <si>
+    <t>98 WD layout</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>67 LN road</t>
+  </si>
+  <si>
+    <t>$&amp;^*(</t>
+  </si>
+  <si>
+    <t>90 MB road</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>SaaaaaaannnnnnnnvvvvviiiiS</t>
+  </si>
+  <si>
+    <t>75 8th main KJ road</t>
+  </si>
+  <si>
+    <t>sanvi@test.com</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>65 19t main TR layout</t>
+  </si>
+  <si>
+    <t>Mandya</t>
+  </si>
+  <si>
+    <t>mohan@test.com</t>
+  </si>
+  <si>
+    <t>Drona</t>
+  </si>
+  <si>
+    <t>78 NCD layout</t>
+  </si>
+  <si>
+    <t>Bijapur</t>
+  </si>
+  <si>
+    <t>drona@test.com</t>
+  </si>
+  <si>
+    <t>Keya</t>
+  </si>
+  <si>
+    <t>98 6th main DVG road</t>
+  </si>
+  <si>
+    <t>keya@test.com</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Customer Created successfully!</t>
+  </si>
+  <si>
+    <t>Joshna</t>
+  </si>
+  <si>
+    <t>josh@test.com</t>
   </si>
 </sst>
 </file>
@@ -102,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +454,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,16 +513,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,18 +918,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,9 +973,11 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -505,9 +996,11 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -526,9 +1019,11 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -547,15 +1042,1434 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
+    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="11">
+        <v>29969</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1">
+        <v>566721</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11">
+        <v>30715</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1">
+        <v>789067</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7778907689</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="11">
+        <v>28921</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1">
+        <v>890789</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7771237890</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11">
+        <v>31855</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="1">
+        <v>237876</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9991237890</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="11">
+        <v>31481</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="1">
+        <v>667897</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5556789087</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12334</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11">
+        <v>30477</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="1">
+        <v>788767</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5554567897</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11">
+        <v>28690</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1">
+        <v>897654</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4448960786</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="11">
+        <v>29938</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="1">
+        <v>765897</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4447895432</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11">
+        <v>32527</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <v>789123</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7779081234</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>678234</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7776892313</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="11">
+        <v>235197</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1">
+        <v>786889</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7771236789</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="NewCust" sheetId="2" r:id="rId2"/>
-    <sheet name="EditCust" sheetId="3" r:id="rId3"/>
-    <sheet name="DeleteCust" sheetId="4" r:id="rId4"/>
+    <sheet name="Login" r:id="rId1" sheetId="1"/>
+    <sheet name="NewCust" r:id="rId2" sheetId="2"/>
+    <sheet name="EditCust" r:id="rId3" sheetId="3"/>
+    <sheet name="DeleteCust" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
   <si>
     <t>testcaseID</t>
   </si>
@@ -424,6 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,8 +490,28 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -618,32 +639,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -660,10 +751,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -698,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -733,7 +824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -827,21 +918,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -858,7 +949,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -910,15 +1001,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -926,11 +1017,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,7 +1066,7 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1111,18 +1202,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
-    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId2" ref="C3:C5"/>
+    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId3" ref="C6:C8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -1130,9 +1221,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2433,43 +2524,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink r:id="rId2" ref="K3"/>
+    <hyperlink r:id="rId3" ref="K4"/>
+    <hyperlink r:id="rId4" ref="K5"/>
+    <hyperlink r:id="rId5" ref="K6"/>
+    <hyperlink r:id="rId6" ref="K7"/>
+    <hyperlink r:id="rId7" ref="K8"/>
+    <hyperlink r:id="rId8" ref="K9"/>
+    <hyperlink r:id="rId9" ref="K10"/>
+    <hyperlink r:id="rId10" ref="K11"/>
+    <hyperlink r:id="rId11" ref="K12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId12"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" r:id="rId1" sheetId="1"/>
-    <sheet name="NewCust" r:id="rId2" sheetId="2"/>
-    <sheet name="EditCust" r:id="rId3" sheetId="3"/>
-    <sheet name="DeleteCust" r:id="rId4" sheetId="4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="NewCust" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
+    <sheet name="DeleteCust" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NewCust!$H$1:$H$50</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="302">
   <si>
     <t>testcaseID</t>
   </si>
@@ -192,9 +197,6 @@
     <t>Mangalore</t>
   </si>
   <si>
-    <t>keith@test.com</t>
-  </si>
-  <si>
     <t>Blank customer name</t>
   </si>
   <si>
@@ -219,9 +221,6 @@
     <t>Blank address</t>
   </si>
   <si>
-    <t>Numbers in address</t>
-  </si>
-  <si>
     <t>Special characters in address</t>
   </si>
   <si>
@@ -384,9 +383,6 @@
     <t>Mandya</t>
   </si>
   <si>
-    <t>mohan@test.com</t>
-  </si>
-  <si>
     <t>Drona</t>
   </si>
   <si>
@@ -396,9 +392,6 @@
     <t>Bijapur</t>
   </si>
   <si>
-    <t>drona@test.com</t>
-  </si>
-  <si>
     <t>Keya</t>
   </si>
   <si>
@@ -411,20 +404,543 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Customer Created successfully!</t>
-  </si>
-  <si>
     <t>Joshna</t>
   </si>
   <si>
-    <t>josh@test.com</t>
+    <t>Customer Registered Successfully!!!</t>
+  </si>
+  <si>
+    <t>Customer name must not be blank</t>
+  </si>
+  <si>
+    <t>First character can not have space</t>
+  </si>
+  <si>
+    <t>Numbers are not allowed</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Sujith</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Address Field must not be blank</t>
+  </si>
+  <si>
+    <t>Only numbers in address</t>
+  </si>
+  <si>
+    <t>City Field must not be blank</t>
+  </si>
+  <si>
+    <t>State must not be blank</t>
+  </si>
+  <si>
+    <t>PIN Code must not be blank</t>
+  </si>
+  <si>
+    <t>Characters are not allowed</t>
+  </si>
+  <si>
+    <t>PIN Code must have 6 Digits</t>
+  </si>
+  <si>
+    <t>Mobile no must not be blank</t>
+  </si>
+  <si>
+    <t>Email-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Email-ID is not valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer name must not be blankDate Field must not be blankAddress Field must not be blank
+City Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank
+</t>
+  </si>
+  <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>656 8th main DU road</t>
+  </si>
+  <si>
+    <t>Spana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>Cuttak</t>
+  </si>
+  <si>
+    <t>Orissa</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>bala@test.com</t>
+  </si>
+  <si>
+    <t>Neelam</t>
+  </si>
+  <si>
+    <t>##%^$,</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>67 Green House 5A cross 7D main road Near HG towers Ambedakar nagar</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Meher</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Ketan</t>
+  </si>
+  <si>
+    <t>Vineet</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Chandan</t>
+  </si>
+  <si>
+    <t>Pari</t>
+  </si>
+  <si>
+    <t>Amar</t>
+  </si>
+  <si>
+    <t>Varun</t>
+  </si>
+  <si>
+    <t>Zaheer</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>Anu</t>
+  </si>
+  <si>
+    <t>Sanya</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Rekha</t>
+  </si>
+  <si>
+    <t>Kiara</t>
+  </si>
+  <si>
+    <t>Hansika</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Laila</t>
+  </si>
+  <si>
+    <t>Binny</t>
+  </si>
+  <si>
+    <t>Ronika</t>
+  </si>
+  <si>
+    <t>Roohi</t>
+  </si>
+  <si>
+    <t>Veeru</t>
+  </si>
+  <si>
+    <t>Darshan</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Anoop</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Prerana</t>
+  </si>
+  <si>
+    <t>P@ssw0r3$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>Password1234</t>
+  </si>
+  <si>
+    <t>vin@test.com</t>
+  </si>
+  <si>
+    <t>raj@test.com</t>
+  </si>
+  <si>
+    <t>ket@test.com</t>
+  </si>
+  <si>
+    <t>joy@test.com</t>
+  </si>
+  <si>
+    <t>don@test.com</t>
+  </si>
+  <si>
+    <t>cha@test.com</t>
+  </si>
+  <si>
+    <t>par@test.com</t>
+  </si>
+  <si>
+    <t>ama@test.com</t>
+  </si>
+  <si>
+    <t>var@test.com</t>
+  </si>
+  <si>
+    <t>zah@test.com</t>
+  </si>
+  <si>
+    <t>vir@test.com</t>
+  </si>
+  <si>
+    <t>anu@test.com</t>
+  </si>
+  <si>
+    <t>san@test.com</t>
+  </si>
+  <si>
+    <t>pam@test.com</t>
+  </si>
+  <si>
+    <t>rek@test.com</t>
+  </si>
+  <si>
+    <t>kia@test.com</t>
+  </si>
+  <si>
+    <t>han@test.com</t>
+  </si>
+  <si>
+    <t>kir@test.com</t>
+  </si>
+  <si>
+    <t>neh@test.com</t>
+  </si>
+  <si>
+    <t>lai@test.com</t>
+  </si>
+  <si>
+    <t>bin@test.com</t>
+  </si>
+  <si>
+    <t>ron@test.com</t>
+  </si>
+  <si>
+    <t>roo@test.com</t>
+  </si>
+  <si>
+    <t>vee@test.com</t>
+  </si>
+  <si>
+    <t>dar@test.com</t>
+  </si>
+  <si>
+    <t>ali@test.com</t>
+  </si>
+  <si>
+    <t>ano@test.com</t>
+  </si>
+  <si>
+    <t>tim@test.com</t>
+  </si>
+  <si>
+    <t>pre@test.com</t>
+  </si>
+  <si>
+    <t>jos@test.com</t>
+  </si>
+  <si>
+    <t>kei@test.com</t>
+  </si>
+  <si>
+    <t>moh@test.com</t>
+  </si>
+  <si>
+    <t>dro@test.com</t>
+  </si>
+  <si>
+    <t>suj@test.com</t>
+  </si>
+  <si>
+    <t>sap@test.com</t>
+  </si>
+  <si>
+    <t>nee@test.com</t>
+  </si>
+  <si>
+    <t>son@test.com</t>
+  </si>
+  <si>
+    <t>meh@test.com</t>
+  </si>
+  <si>
+    <t>34 8th main road KT road</t>
+  </si>
+  <si>
+    <t>Calicut</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Nellore</t>
+  </si>
+  <si>
+    <t>Srinagar</t>
+  </si>
+  <si>
+    <t>Jammu Kashmir</t>
+  </si>
+  <si>
+    <t>Shimoga</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Gujrat</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Gaya</t>
+  </si>
+  <si>
+    <t>Tenali</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Gulbarga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>$$*&amp;^%</t>
+  </si>
+  <si>
+    <t>MaduraiMaduraiIndiaTamilNadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>%^%$*())</t>
+  </si>
+  <si>
+    <t>IndiaGujratgujgujgujgujIndia</t>
+  </si>
+  <si>
+    <t>om@test.com</t>
+  </si>
+  <si>
+    <t>#&amp;**&amp;^</t>
+  </si>
+  <si>
+    <t>rrte</t>
+  </si>
+  <si>
+    <t>54 9th cross VD road</t>
+  </si>
+  <si>
+    <t>87 6th main BNM layout</t>
+  </si>
+  <si>
+    <t>76 Kalyan nagar</t>
+  </si>
+  <si>
+    <t>76 HT road</t>
+  </si>
+  <si>
+    <t>54 VR road</t>
+  </si>
+  <si>
+    <t>89 7th cross ABN layout</t>
+  </si>
+  <si>
+    <t>898 8th main BT road</t>
+  </si>
+  <si>
+    <t>87 VC road</t>
+  </si>
+  <si>
+    <t>76 SD road</t>
+  </si>
+  <si>
+    <t>43 SH layout</t>
+  </si>
+  <si>
+    <t>98 5th main PT road</t>
+  </si>
+  <si>
+    <t>65 NCD layout</t>
+  </si>
+  <si>
+    <t>88 NC road</t>
+  </si>
+  <si>
+    <t>99 KDC layout</t>
+  </si>
+  <si>
+    <t>657 NT road</t>
+  </si>
+  <si>
+    <t>54 18t main KD road</t>
+  </si>
+  <si>
+    <t>56 PD road</t>
+  </si>
+  <si>
+    <t>77 TD road</t>
+  </si>
+  <si>
+    <t>789 SD road</t>
+  </si>
+  <si>
+    <t>23 RD road</t>
+  </si>
+  <si>
+    <t>776 DC road</t>
+  </si>
+  <si>
+    <t>82 10th main GD road</t>
+  </si>
+  <si>
+    <t>81 11th cross ND road</t>
+  </si>
+  <si>
+    <t>73 PD road</t>
+  </si>
+  <si>
+    <t>912 SC layout</t>
+  </si>
+  <si>
+    <t>32 AT road</t>
+  </si>
+  <si>
+    <t>88 VC road</t>
+  </si>
+  <si>
+    <t>55 MNB layout</t>
+  </si>
+  <si>
+    <t>45 PRT layout</t>
+  </si>
+  <si>
+    <t>65 12th main BDS layout</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>Pass - Customer Registered Successfully!!!</t>
+  </si>
+  <si>
+    <t>22144</t>
+  </si>
+  <si>
+    <t>25093</t>
+  </si>
+  <si>
+    <t>10525</t>
+  </si>
+  <si>
+    <t>Pass - Customer name must not be blank</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass - First character can not have space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +958,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,12 +1002,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
@@ -501,17 +1017,27 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -626,6 +1152,17 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -640,35 +1177,49 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -677,9 +1228,13 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -688,53 +1243,48 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -751,10 +1301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -789,7 +1339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -824,7 +1374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -918,21 +1468,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -949,7 +1499,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1001,15 +1551,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -1017,11 +1567,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1616,7 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1202,28 +1752,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId2" ref="C3:C5"/>
-    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId3" ref="C6:C8"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
+    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1239,7 +1793,7 @@
       <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1281,7 +1835,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>47</v>
@@ -1305,16 +1859,20 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1351,13 +1909,17 @@
         <v>53</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1391,23 +1953,27 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -1417,13 +1983,13 @@
         <v>31855</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
         <v>237876</v>
@@ -1432,24 +1998,30 @@
         <v>9991237890</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>47</v>
@@ -1458,13 +2030,13 @@
         <v>31481</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1">
         <v>667897</v>
@@ -1473,21 +2045,27 @@
         <v>5556789087</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>12334</v>
@@ -1499,13 +2077,13 @@
         <v>30477</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I7" s="1">
         <v>788767</v>
@@ -1514,12 +2092,14 @@
         <v>5554567897</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -1528,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -1540,13 +2120,13 @@
         <v>28690</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="I8" s="1">
         <v>897654</v>
@@ -1555,12 +2135,14 @@
         <v>4448960786</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -1569,10 +2151,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -1581,13 +2163,13 @@
         <v>29938</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1">
         <v>765897</v>
@@ -1596,12 +2178,14 @@
         <v>4447895432</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -1610,20 +2194,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="11">
         <v>32527</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>50</v>
@@ -1635,12 +2219,14 @@
         <v>7779081234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -1649,20 +2235,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>50</v>
@@ -1674,12 +2260,14 @@
         <v>7776892313</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
@@ -1688,10 +2276,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>47</v>
@@ -1700,7 +2288,7 @@
         <v>235197</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>49</v>
@@ -1715,12 +2303,14 @@
         <v>7771236789</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -1729,19 +2319,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11">
+        <v>31397</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="1">
+        <v>678543</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2227657890</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -1750,19 +2360,41 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11">
+        <v>28071</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="1">
+        <v>657545</v>
+      </c>
+      <c r="J14" s="1">
+        <v>90167189172</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -1771,19 +2403,41 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="11">
+        <v>32980</v>
+      </c>
+      <c r="F15" s="1">
+        <v>122</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="1">
+        <v>567987</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8786357718</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
@@ -1792,19 +2446,41 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="11">
+        <v>33314</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="1">
+        <v>657876</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4417678901</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -1813,19 +2489,41 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="11">
+        <v>35964</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="1">
+        <v>657987</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4417657812</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -1834,19 +2532,38 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="11">
+        <v>34169</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <v>786545</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9997863271</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -1855,19 +2572,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="11">
+        <v>33667</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="1">
+        <v>879656</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6557891271</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -1876,19 +2615,41 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="11">
+        <v>32238</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20">
+        <v>56687</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1">
+        <v>667434</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7779874561</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
@@ -1897,19 +2658,41 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="11">
+        <v>33773</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1">
+        <v>467543</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7779084515</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
@@ -1918,19 +2701,41 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="11">
+        <v>33437</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="1">
+        <v>786433</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5557789012</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
@@ -1939,19 +2744,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="11">
+        <v>35859</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="I23" s="1">
+        <v>764367</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1018237829</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
@@ -1960,19 +2785,41 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="11">
+        <v>34158</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="1">
+        <v>775645</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1015677890</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
@@ -1981,19 +2828,41 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="11">
+        <v>34432</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="1">
+        <v>13345</v>
+      </c>
+      <c r="I25" s="1">
+        <v>665745</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1012237893</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
@@ -2002,19 +2871,41 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="11">
+        <v>35163</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="1">
+        <v>765435</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1016738377</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
@@ -2023,19 +2914,41 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="11">
+        <v>32971</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="1">
+        <v>767546</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1239872361</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
@@ -2044,19 +2957,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="11">
+        <v>32975</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="J28" s="1">
+        <v>4417728910</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
@@ -2065,19 +2998,41 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="11">
+        <v>33733</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5657811232</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
@@ -2086,19 +3041,41 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="11">
+        <v>34095</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6628725671</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
@@ -2107,19 +3084,41 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="11">
+        <v>34888</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5529874561</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
@@ -2128,19 +3127,41 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="11">
+        <v>36025</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5654325</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5658901234</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
@@ -2149,19 +3170,41 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="11">
+        <v>34128</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5664</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9328982123</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
@@ -2170,19 +3213,39 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="11">
+        <v>34523</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1">
+        <v>346765</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="K34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
@@ -2191,19 +3254,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="11">
+        <v>35162</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="1">
+        <v>457865</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
@@ -2212,19 +3297,41 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="11">
+        <v>35977</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="1">
+        <v>778654</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
@@ -2233,19 +3340,41 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="11">
+        <v>34351</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="1">
+        <v>326787</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5527658765</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
@@ -2254,19 +3383,41 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="11">
+        <v>35527</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" s="1">
+        <v>456367</v>
+      </c>
+      <c r="J38" s="1">
+        <v>8806785435</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
@@ -2275,19 +3426,41 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="11">
+        <v>34127</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="1">
+        <v>235789</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2227658912</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
@@ -2296,19 +3469,41 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="11">
+        <v>34523</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="1">
+        <v>323678</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2225678901</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
@@ -2317,19 +3512,41 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="11">
+        <v>35965</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="1">
+        <v>234878</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4415427819</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
@@ -2338,19 +3555,41 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="11">
+        <v>34432</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="1">
+        <v>879453</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4412568916</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
@@ -2359,19 +3598,41 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="11">
+        <v>32966</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="1">
+        <v>345788</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5557826541</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
@@ -2380,19 +3641,41 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="11">
+        <v>33333</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="1">
+        <v>653652</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5554237891</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
@@ -2401,19 +3684,41 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="11">
+        <v>33376</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="1">
+        <v>456456</v>
+      </c>
+      <c r="J45" s="1">
+        <v>90165328917</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
@@ -2424,17 +3729,37 @@
       <c r="B46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="11">
+        <v>35167</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I46" s="1">
+        <v>345235</v>
+      </c>
+      <c r="J46" s="1">
+        <v>8783426621</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
@@ -2443,19 +3768,41 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="11">
+        <v>34096</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="1">
+        <v>765787</v>
+      </c>
+      <c r="J47" s="1">
+        <v>7776528901</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
@@ -2464,19 +3811,41 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="11">
+        <v>33708</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="1">
+        <v>897654</v>
+      </c>
+      <c r="J48" s="1">
+        <v>9992346781</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
@@ -2485,19 +3854,41 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="11">
+        <v>31173</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" s="1">
+        <v>676588</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2226189271</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
@@ -2506,61 +3897,149 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="11"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1">
+        <v>1014367829</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J51" s="14"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="K6"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="K8"/>
-    <hyperlink r:id="rId8" ref="K9"/>
-    <hyperlink r:id="rId9" ref="K10"/>
-    <hyperlink r:id="rId10" ref="K11"/>
-    <hyperlink r:id="rId11" ref="K12"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="L47" r:id="rId18"/>
+    <hyperlink ref="K19" r:id="rId19"/>
+    <hyperlink ref="K20" r:id="rId20"/>
+    <hyperlink ref="K21" r:id="rId21"/>
+    <hyperlink ref="K22" r:id="rId22"/>
+    <hyperlink ref="K23" r:id="rId23"/>
+    <hyperlink ref="K24" r:id="rId24"/>
+    <hyperlink ref="K25" r:id="rId25"/>
+    <hyperlink ref="K26" r:id="rId26"/>
+    <hyperlink ref="K27" r:id="rId27"/>
+    <hyperlink ref="K28" r:id="rId28"/>
+    <hyperlink ref="K29" r:id="rId29"/>
+    <hyperlink ref="K30" r:id="rId30"/>
+    <hyperlink ref="K31" r:id="rId31"/>
+    <hyperlink ref="K32" r:id="rId32"/>
+    <hyperlink ref="K33" r:id="rId33"/>
+    <hyperlink ref="K34" r:id="rId34"/>
+    <hyperlink ref="K35" r:id="rId35"/>
+    <hyperlink ref="K36" r:id="rId36"/>
+    <hyperlink ref="K37" r:id="rId37"/>
+    <hyperlink ref="K38" r:id="rId38"/>
+    <hyperlink ref="K39" r:id="rId39"/>
+    <hyperlink ref="K40" r:id="rId40"/>
+    <hyperlink ref="K41" r:id="rId41"/>
+    <hyperlink ref="K42" r:id="rId42"/>
+    <hyperlink ref="K43" r:id="rId43"/>
+    <hyperlink ref="K44" r:id="rId44"/>
+    <hyperlink ref="K45" r:id="rId45"/>
+    <hyperlink ref="K46" r:id="rId46"/>
+    <hyperlink ref="K47" r:id="rId47"/>
+    <hyperlink ref="K48" r:id="rId48"/>
+    <hyperlink ref="K49" r:id="rId49"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H8:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>LEN(H9)</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="NewCust" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
-    <sheet name="DeleteCust" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId3"/>
+    <sheet name="DeleteCust" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NewCust!$H$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NewCust!$H$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="312">
   <si>
     <t>testcaseID</t>
   </si>
@@ -188,9 +187,6 @@
     <t>Mysore</t>
   </si>
   <si>
-    <t>jim@test.com</t>
-  </si>
-  <si>
     <t>54 7th main DR road</t>
   </si>
   <si>
@@ -317,9 +313,6 @@
     <t>Only spaces in password</t>
   </si>
   <si>
-    <t>Email id exceeding 10 characters</t>
-  </si>
-  <si>
     <t>Password exceeding 10 characters</t>
   </si>
   <si>
@@ -464,11 +457,6 @@
     <t>Email-ID is not valid</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer name must not be blankDate Field must not be blankAddress Field must not be blank
-City Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank
-</t>
-  </si>
-  <si>
     <t>Om</t>
   </si>
   <si>
@@ -655,9 +643,6 @@
     <t>anu@test.com</t>
   </si>
   <si>
-    <t>san@test.com</t>
-  </si>
-  <si>
     <t>pam@test.com</t>
   </si>
   <si>
@@ -670,33 +655,12 @@
     <t>han@test.com</t>
   </si>
   <si>
-    <t>kir@test.com</t>
-  </si>
-  <si>
     <t>neh@test.com</t>
   </si>
   <si>
     <t>lai@test.com</t>
   </si>
   <si>
-    <t>bin@test.com</t>
-  </si>
-  <si>
-    <t>ron@test.com</t>
-  </si>
-  <si>
-    <t>roo@test.com</t>
-  </si>
-  <si>
-    <t>vee@test.com</t>
-  </si>
-  <si>
-    <t>dar@test.com</t>
-  </si>
-  <si>
-    <t>ali@test.com</t>
-  </si>
-  <si>
     <t>ano@test.com</t>
   </si>
   <si>
@@ -709,9 +673,6 @@
     <t>jos@test.com</t>
   </si>
   <si>
-    <t>kei@test.com</t>
-  </si>
-  <si>
     <t>moh@test.com</t>
   </si>
   <si>
@@ -742,9 +703,6 @@
     <t>Madhya Pradesh</t>
   </si>
   <si>
-    <t>Madurai</t>
-  </si>
-  <si>
     <t>Salem</t>
   </si>
   <si>
@@ -916,32 +874,101 @@
     <t>abcdef</t>
   </si>
   <si>
+    <t>jim1@test.com</t>
+  </si>
+  <si>
+    <t>keit@test.com</t>
+  </si>
+  <si>
     <t>Pass - Customer Registered Successfully!!!</t>
   </si>
   <si>
-    <t>22144</t>
-  </si>
-  <si>
-    <t>25093</t>
-  </si>
-  <si>
-    <t>10525</t>
-  </si>
-  <si>
-    <t>Pass - Customer name must not be blank</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Pass - First character can not have space</t>
+    <t>Existing email id</t>
+  </si>
+  <si>
+    <t>Jilka</t>
+  </si>
+  <si>
+    <t>544 8th main GKV road</t>
+  </si>
+  <si>
+    <t>sanya@test.com</t>
+  </si>
+  <si>
+    <t>Email Address Already Exist !!</t>
+  </si>
+  <si>
+    <t>Customer name must not be blankDate Field must not be blankAddress Field must not be blankCity Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t>rootest.com</t>
+  </si>
+  <si>
+    <t>vee@test</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>^&amp;*%%&amp;*</t>
+  </si>
+  <si>
+    <t>kiran@test.com</t>
+  </si>
+  <si>
+    <t>Email id exceeding 30 characters</t>
+  </si>
+  <si>
+    <t>ali12345678901234562@test.com11</t>
+  </si>
+  <si>
+    <t>Do you really want to delete this Customer?</t>
+  </si>
+  <si>
+    <t>Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Customer does not exist!!</t>
+  </si>
+  <si>
+    <t>Existing customer id</t>
+  </si>
+  <si>
+    <t>Pass - Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Fail - Customer does not exist!!</t>
+  </si>
+  <si>
+    <t>Customer ID is required</t>
+  </si>
+  <si>
+    <t>Blank customer id</t>
+  </si>
+  <si>
+    <t>Pass - Customer ID is required</t>
+  </si>
+  <si>
+    <t>91875</t>
+  </si>
+  <si>
+    <t>53403</t>
+  </si>
+  <si>
+    <t>Fail - Message mismatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,8 +984,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +1003,117 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
     <fill>
@@ -1028,16 +1173,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1189,6 +1329,840 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1256,7 +2230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1272,12 +2246,77 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1562,7 +2601,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +2655,7 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1763,17 +2802,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O51" sqref="N4:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1835,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>47</v>
@@ -1859,19 +2898,19 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>295</v>
+      <c r="N2" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1906,19 +2945,19 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>295</v>
+      <c r="N3" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1938,10 +2977,10 @@
         <v>28921</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>50</v>
@@ -1953,27 +2992,23 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>295</v>
-      </c>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -1983,13 +3018,13 @@
         <v>31855</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" s="1">
         <v>237876</v>
@@ -1998,30 +3033,26 @@
         <v>9991237890</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>299</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>47</v>
@@ -2030,13 +3061,13 @@
         <v>31481</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I6" s="1">
         <v>667897</v>
@@ -2045,27 +3076,23 @@
         <v>5556789087</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>12334</v>
@@ -2077,13 +3104,13 @@
         <v>30477</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1">
         <v>788767</v>
@@ -2092,26 +3119,26 @@
         <v>5554567897</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>46</v>
@@ -2120,13 +3147,13 @@
         <v>28690</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I8" s="1">
         <v>897654</v>
@@ -2135,26 +3162,26 @@
         <v>4448960786</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -2163,13 +3190,13 @@
         <v>29938</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="1">
         <v>765897</v>
@@ -2178,36 +3205,36 @@
         <v>4447895432</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="11">
         <v>32527</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>50</v>
@@ -2219,36 +3246,36 @@
         <v>7779081234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>50</v>
@@ -2260,26 +3287,26 @@
         <v>7776892313</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>47</v>
@@ -2288,7 +3315,7 @@
         <v>235197</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>49</v>
@@ -2303,26 +3330,26 @@
         <v>7771236789</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>46</v>
@@ -2332,10 +3359,10 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" s="1">
         <v>678543</v>
@@ -2344,26 +3371,26 @@
         <v>2227657890</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>47</v>
@@ -2372,13 +3399,13 @@
         <v>28071</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I14" s="1">
         <v>657545</v>
@@ -2387,26 +3414,26 @@
         <v>90167189172</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>46</v>
@@ -2418,10 +3445,10 @@
         <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I15" s="1">
         <v>567987</v>
@@ -2430,26 +3457,26 @@
         <v>8786357718</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>47</v>
@@ -2458,13 +3485,13 @@
         <v>33314</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I16" s="1">
         <v>657876</v>
@@ -2473,26 +3500,26 @@
         <v>4417678901</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>47</v>
@@ -2500,14 +3527,14 @@
       <c r="E17" s="11">
         <v>35964</v>
       </c>
-      <c r="F17" t="s">
-        <v>161</v>
+      <c r="F17" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I17" s="1">
         <v>657987</v>
@@ -2516,26 +3543,26 @@
         <v>4417657812</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
@@ -2544,10 +3571,11 @@
         <v>34169</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>100</v>
+        <v>222</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="I18" s="1">
         <v>786545</v>
@@ -2556,26 +3584,26 @@
         <v>9997863271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>46</v>
@@ -2584,13 +3612,13 @@
         <v>33667</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I19" s="1">
         <v>879656</v>
@@ -2599,26 +3627,26 @@
         <v>6557891271</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>46</v>
@@ -2627,9 +3655,9 @@
         <v>32238</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20">
+        <v>254</v>
+      </c>
+      <c r="G20" s="1">
         <v>56687</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -2642,26 +3670,26 @@
         <v>7779874561</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>46</v>
@@ -2670,10 +3698,10 @@
         <v>33773</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>50</v>
@@ -2685,26 +3713,26 @@
         <v>7779084515</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>46</v>
@@ -2713,13 +3741,13 @@
         <v>33437</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I22" s="1">
         <v>786433</v>
@@ -2728,26 +3756,26 @@
         <v>5557789012</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -2756,10 +3784,10 @@
         <v>35859</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
@@ -2769,26 +3797,26 @@
         <v>1018237829</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -2797,13 +3825,13 @@
         <v>34158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I24" s="1">
         <v>775645</v>
@@ -2812,26 +3840,26 @@
         <v>1015677890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>46</v>
@@ -2840,10 +3868,10 @@
         <v>34432</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H25" s="1">
         <v>13345</v>
@@ -2855,26 +3883,26 @@
         <v>1012237893</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>47</v>
@@ -2883,13 +3911,13 @@
         <v>35163</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I26" s="1">
         <v>765435</v>
@@ -2898,26 +3926,26 @@
         <v>1016738377</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>46</v>
@@ -2926,13 +3954,13 @@
         <v>32971</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I27" s="1">
         <v>767546</v>
@@ -2941,26 +3969,26 @@
         <v>1239872361</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>46</v>
@@ -2969,39 +3997,39 @@
         <v>32975</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
         <v>4417728910</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>47</v>
@@ -3010,41 +4038,41 @@
         <v>33733</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="J29" s="1">
         <v>5657811232</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>46</v>
@@ -3053,41 +4081,41 @@
         <v>34095</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J30" s="1">
         <v>6628725671</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>47</v>
@@ -3096,41 +4124,41 @@
         <v>34888</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J31" s="1">
         <v>5529874561</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>47</v>
@@ -3139,13 +4167,13 @@
         <v>36025</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I32" s="1">
         <v>5654325</v>
@@ -3154,26 +4182,26 @@
         <v>5658901234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>47</v>
@@ -3182,13 +4210,13 @@
         <v>34128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I33" s="1">
         <v>5664</v>
@@ -3197,26 +4225,26 @@
         <v>9328982123</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>47</v>
@@ -3225,10 +4253,10 @@
         <v>34523</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>50</v>
@@ -3238,26 +4266,26 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>47</v>
@@ -3266,7 +4294,7 @@
         <v>35162</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>49</v>
@@ -3278,29 +4306,29 @@
         <v>457865</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>47</v>
@@ -3309,10 +4337,10 @@
         <v>35977</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>50</v>
@@ -3321,29 +4349,29 @@
         <v>778654</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>46</v>
@@ -3352,41 +4380,41 @@
         <v>34351</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I37" s="1">
         <v>326787</v>
       </c>
-      <c r="J37" s="1">
-        <v>5527658765</v>
+      <c r="J37" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>47</v>
@@ -3395,13 +4423,13 @@
         <v>35527</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I38" s="1">
         <v>456367</v>
@@ -3410,26 +4438,26 @@
         <v>8806785435</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>47</v>
@@ -3438,13 +4466,13 @@
         <v>34127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I39" s="1">
         <v>235789</v>
@@ -3453,26 +4481,26 @@
         <v>2227658912</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>46</v>
@@ -3481,13 +4509,13 @@
         <v>34523</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I40" s="1">
         <v>323678</v>
@@ -3495,27 +4523,25 @@
       <c r="J40" s="1">
         <v>2225678901</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>47</v>
@@ -3524,13 +4550,13 @@
         <v>35965</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I41" s="1">
         <v>234878</v>
@@ -3538,27 +4564,27 @@
       <c r="J41" s="1">
         <v>4415427819</v>
       </c>
-      <c r="K41" s="2" t="s">
-        <v>217</v>
+      <c r="K41" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>47</v>
@@ -3567,13 +4593,13 @@
         <v>34432</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I42" s="1">
         <v>879453</v>
@@ -3582,26 +4608,26 @@
         <v>4412568916</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>46</v>
@@ -3610,13 +4636,13 @@
         <v>32966</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I43" s="1">
         <v>345788</v>
@@ -3625,26 +4651,26 @@
         <v>5557826541</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -3653,13 +4679,13 @@
         <v>33333</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I44" s="1">
         <v>653652</v>
@@ -3668,257 +4694,299 @@
         <v>5554237891</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" s="11">
-        <v>33376</v>
+        <v>34108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I45" s="1">
-        <v>456456</v>
+        <v>453245</v>
       </c>
       <c r="J45" s="1">
-        <v>90165328917</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>221</v>
+        <v>2227893421</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f>K2</f>
+        <v>jos@test.com</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E46" s="11">
-        <v>35167</v>
+        <v>33376</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I46" s="1">
-        <v>345235</v>
+        <v>456456</v>
       </c>
       <c r="J46" s="1">
-        <v>8783426621</v>
+        <v>90165328917</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L46" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="M46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E47" s="11">
-        <v>34096</v>
+        <v>35167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="I47" s="1">
-        <v>765787</v>
+        <v>345235</v>
       </c>
       <c r="J47" s="1">
-        <v>7776528901</v>
+        <v>8783426621</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="11">
-        <v>33708</v>
+        <v>34096</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1">
-        <v>897654</v>
+        <v>765787</v>
       </c>
       <c r="J48" s="1">
-        <v>9992346781</v>
+        <v>7776528901</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="N48" s="85"/>
+      <c r="O48" s="85"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" s="11">
-        <v>31173</v>
+        <v>33708</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="I49" s="1">
-        <v>676588</v>
+        <v>897654</v>
       </c>
       <c r="J49" s="1">
-        <v>2226189271</v>
+        <v>9992346781</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="11">
+        <v>31173</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="1">
+        <v>676588</v>
+      </c>
       <c r="J50" s="1">
-        <v>1014367829</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+        <v>2226189271</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="M50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J51" s="14"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N51" s="85"/>
+      <c r="O51" s="85"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J52" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3939,7 +5007,7 @@
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
     <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="L47" r:id="rId18"/>
+    <hyperlink ref="L48" r:id="rId18"/>
     <hyperlink ref="K19" r:id="rId19"/>
     <hyperlink ref="K20" r:id="rId20"/>
     <hyperlink ref="K21" r:id="rId21"/>
@@ -3961,54 +5029,22 @@
     <hyperlink ref="K37" r:id="rId37"/>
     <hyperlink ref="K38" r:id="rId38"/>
     <hyperlink ref="K39" r:id="rId39"/>
-    <hyperlink ref="K40" r:id="rId40"/>
-    <hyperlink ref="K41" r:id="rId41"/>
-    <hyperlink ref="K42" r:id="rId42"/>
-    <hyperlink ref="K43" r:id="rId43"/>
-    <hyperlink ref="K44" r:id="rId44"/>
-    <hyperlink ref="K45" r:id="rId45"/>
-    <hyperlink ref="K46" r:id="rId46"/>
-    <hyperlink ref="K47" r:id="rId47"/>
-    <hyperlink ref="K48" r:id="rId48"/>
-    <hyperlink ref="K49" r:id="rId49"/>
+    <hyperlink ref="K42" r:id="rId40" display="roo@test.com"/>
+    <hyperlink ref="K43" r:id="rId41"/>
+    <hyperlink ref="K44" r:id="rId42" display="dar@test.com"/>
+    <hyperlink ref="K46" r:id="rId43"/>
+    <hyperlink ref="K47" r:id="rId44"/>
+    <hyperlink ref="K48" r:id="rId45"/>
+    <hyperlink ref="K49" r:id="rId46"/>
+    <hyperlink ref="K50" r:id="rId47"/>
+    <hyperlink ref="K45" r:id="rId48" display="kei@test.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H8:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <f>LEN(H9)</f>
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4020,26 +5056,564 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="75">
+        <v>20</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="77">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="9.140625" style="31" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="17">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18">
+        <v>39551</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19">
+        <v>25023</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="19">
+        <v>99287</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>55287</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="32">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <v>88191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
+        <v>98587</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="33">
+        <v>52092</v>
+      </c>
+      <c r="I12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
+        <v>6680</v>
+      </c>
+      <c r="I13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <v>91806</v>
+      </c>
+      <c r="I14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="35">
+        <v>6453</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="36">
+        <v>83119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="37">
+        <v>98074</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>69389</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
+        <v>51934</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>35485</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>36131</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>25974</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="28">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="29">
+        <v>86818</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="30">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NewCust!$H$1:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NewCust!$M$1:$M$52</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="319">
   <si>
     <t>testcaseID</t>
   </si>
@@ -880,88 +880,109 @@
     <t>keit@test.com</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Existing email id</t>
+  </si>
+  <si>
+    <t>Jilka</t>
+  </si>
+  <si>
+    <t>544 8th main GKV road</t>
+  </si>
+  <si>
+    <t>sanya@test.com</t>
+  </si>
+  <si>
+    <t>Email Address Already Exist !!</t>
+  </si>
+  <si>
+    <t>Customer name must not be blankDate Field must not be blankAddress Field must not be blankCity Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t>rootest.com</t>
+  </si>
+  <si>
+    <t>vee@test</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>^&amp;*%%&amp;*</t>
+  </si>
+  <si>
+    <t>kiran@test.com</t>
+  </si>
+  <si>
+    <t>Email id exceeding 30 characters</t>
+  </si>
+  <si>
+    <t>ali12345678901234562@test.com11</t>
+  </si>
+  <si>
+    <t>Do you really want to delete this Customer?</t>
+  </si>
+  <si>
+    <t>Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Customer does not exist!!</t>
+  </si>
+  <si>
+    <t>Existing customer id</t>
+  </si>
+  <si>
+    <t>Customer ID is required</t>
+  </si>
+  <si>
+    <t>Blank customer id</t>
+  </si>
+  <si>
+    <t>You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>Only spaces in customer id</t>
+  </si>
+  <si>
+    <t>Characters in customer id</t>
+  </si>
+  <si>
+    <t>Special characters in customer id</t>
+  </si>
+  <si>
+    <t>Non existing customer id</t>
+  </si>
+  <si>
+    <t>Previously deleted customer id</t>
+  </si>
+  <si>
+    <t>Customer id exceeding 10 digits(Generated ids are &lt;10 digits as of now, hence non existing 11 digits customer id is used for testing)</t>
+  </si>
+  <si>
+    <t>customerid</t>
+  </si>
+  <si>
+    <t>$%*(^%$</t>
+  </si>
+  <si>
     <t>Pass - Customer Registered Successfully!!!</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Existing email id</t>
-  </si>
-  <si>
-    <t>Jilka</t>
-  </si>
-  <si>
-    <t>544 8th main GKV road</t>
-  </si>
-  <si>
-    <t>sanya@test.com</t>
-  </si>
-  <si>
-    <t>Email Address Already Exist !!</t>
-  </si>
-  <si>
-    <t>Customer name must not be blankDate Field must not be blankAddress Field must not be blankCity Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 </t>
-  </si>
-  <si>
-    <t>rootest.com</t>
-  </si>
-  <si>
-    <t>vee@test</t>
-  </si>
-  <si>
-    <t>dar</t>
-  </si>
-  <si>
-    <t>^&amp;*%%&amp;*</t>
-  </si>
-  <si>
-    <t>kiran@test.com</t>
-  </si>
-  <si>
-    <t>Email id exceeding 30 characters</t>
-  </si>
-  <si>
-    <t>ali12345678901234562@test.com11</t>
-  </si>
-  <si>
-    <t>Do you really want to delete this Customer?</t>
-  </si>
-  <si>
-    <t>Customer deleted Successfully</t>
-  </si>
-  <si>
-    <t>Customer does not exist!!</t>
-  </si>
-  <si>
-    <t>Existing customer id</t>
+    <t>94493</t>
+  </si>
+  <si>
+    <t>45887</t>
+  </si>
+  <si>
+    <t>56120</t>
   </si>
   <si>
     <t>Pass - Customer deleted Successfully</t>
-  </si>
-  <si>
-    <t>Fail - Customer does not exist!!</t>
-  </si>
-  <si>
-    <t>Customer ID is required</t>
-  </si>
-  <si>
-    <t>Blank customer id</t>
-  </si>
-  <si>
-    <t>Pass - Customer ID is required</t>
-  </si>
-  <si>
-    <t>91875</t>
-  </si>
-  <si>
-    <t>53403</t>
-  </si>
-  <si>
-    <t>Fail - Message mismatch</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1013,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,17 +1068,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
@@ -1096,88 +1107,8 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="71">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1974,263 +1905,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2288,35 +1968,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2655,7 +2320,7 @@
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="62" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2804,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O51" sqref="N4:O51"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,11 +2571,11 @@
       <c r="M2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="81" t="s">
-        <v>309</v>
-      </c>
-      <c r="O2" s="81" t="s">
-        <v>284</v>
+      <c r="N2" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2953,11 +2618,11 @@
       <c r="M3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>284</v>
+      <c r="N3" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3000,8 +2665,12 @@
       <c r="M4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="N4" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="O4" s="65" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3041,8 +2710,8 @@
       <c r="M5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3084,8 +2753,8 @@
       <c r="M6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3127,8 +2796,8 @@
       <c r="M7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3170,8 +2839,8 @@
       <c r="M8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3213,8 +2882,8 @@
       <c r="M9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3254,8 +2923,8 @@
       <c r="M10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3295,8 +2964,8 @@
       <c r="M11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -3338,8 +3007,8 @@
       <c r="M12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3379,8 +3048,8 @@
       <c r="M13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3422,8 +3091,8 @@
       <c r="M14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3465,8 +3134,8 @@
       <c r="M15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3508,8 +3177,8 @@
       <c r="M16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -3551,8 +3220,8 @@
       <c r="M17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -3592,8 +3261,8 @@
       <c r="M18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3635,8 +3304,8 @@
       <c r="M19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3678,8 +3347,8 @@
       <c r="M20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3721,8 +3390,8 @@
       <c r="M21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -3764,8 +3433,8 @@
       <c r="M22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3805,8 +3474,8 @@
       <c r="M23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -3848,8 +3517,8 @@
       <c r="M24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -3891,8 +3560,8 @@
       <c r="M25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -3934,8 +3603,8 @@
       <c r="M26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -3977,8 +3646,8 @@
       <c r="M27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -4018,8 +3687,8 @@
       <c r="M28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -4061,8 +3730,8 @@
       <c r="M29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -4104,8 +3773,8 @@
       <c r="M30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -4147,8 +3816,8 @@
       <c r="M31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4182,7 +3851,7 @@
         <v>5658901234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>122</v>
@@ -4190,8 +3859,8 @@
       <c r="M32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -4233,8 +3902,8 @@
       <c r="M33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -4274,8 +3943,8 @@
       <c r="M34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -4317,8 +3986,8 @@
       <c r="M35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -4360,8 +4029,8 @@
       <c r="M36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -4392,10 +4061,10 @@
         <v>326787</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>122</v>
@@ -4403,8 +4072,8 @@
       <c r="M37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -4446,8 +4115,8 @@
       <c r="M38" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -4489,8 +4158,8 @@
       <c r="M39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -4530,8 +4199,8 @@
       <c r="M40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -4565,7 +4234,7 @@
         <v>4415427819</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>122</v>
@@ -4573,8 +4242,8 @@
       <c r="M41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -4608,7 +4277,7 @@
         <v>4412568916</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>122</v>
@@ -4616,8 +4285,8 @@
       <c r="M42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -4651,7 +4320,7 @@
         <v>5557826541</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>122</v>
@@ -4659,8 +4328,8 @@
       <c r="M43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -4694,7 +4363,7 @@
         <v>5554237891</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>122</v>
@@ -4702,18 +4371,18 @@
       <c r="M44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>47</v>
@@ -4722,7 +4391,7 @@
         <v>34108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>131</v>
@@ -4744,17 +4413,17 @@
         <v>122</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
+        <v>289</v>
+      </c>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>186</v>
@@ -4781,7 +4450,7 @@
         <v>90165328917</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>122</v>
@@ -4789,8 +4458,8 @@
       <c r="M46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -4830,8 +4499,8 @@
       <c r="M47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -4873,8 +4542,8 @@
       <c r="M48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -4916,8 +4585,8 @@
       <c r="M49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -4959,8 +4628,8 @@
       <c r="M50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -4980,10 +4649,10 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
+        <v>290</v>
+      </c>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" s="14"/>
@@ -5058,16 +4727,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -5093,14 +4763,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>311</v>
+        <v>300</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,14 +4778,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="56" t="s">
-        <v>310</v>
-      </c>
+      <c r="C3" s="56"/>
       <c r="D3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5125,10 +4793,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="56"/>
       <c r="D4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5136,249 +4804,303 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="56"/>
+      <c r="C5" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>305</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="56"/>
+      <c r="C6" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="56"/>
+      <c r="C8" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="56"/>
+      <c r="C9" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="56"/>
+      <c r="C10" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="56"/>
+      <c r="C11" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="56"/>
+      <c r="C14" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="69" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="56"/>
+      <c r="C17" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="56"/>
+      <c r="C18" s="56" t="s">
+        <v>284</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C19" s="56"/>
       <c r="D19" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>304</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="C20" s="56"/>
       <c r="D20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>304</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="75">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>304</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>313</v>
+      </c>
       <c r="D22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="58"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="1">
+        <v>93069</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E22" s="79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E23" s="80" t="s">
-        <v>308</v>
-      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1000201</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
+        <v>24</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10003459012</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5391,7 +5113,7 @@
   <dimension ref="B3:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,7 +5171,7 @@
         <v>52092</v>
       </c>
       <c r="I12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -5457,7 +5179,7 @@
         <v>6680</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -5465,13 +5187,16 @@
         <v>91806</v>
       </c>
       <c r="I14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
         <v>6453</v>
       </c>
+      <c r="I15" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -5525,92 +5250,92 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="336">
   <si>
     <t>testcaseID</t>
   </si>
@@ -670,9 +670,6 @@
     <t>pre@test.com</t>
   </si>
   <si>
-    <t>jos@test.com</t>
-  </si>
-  <si>
     <t>moh@test.com</t>
   </si>
   <si>
@@ -970,19 +967,73 @@
     <t>$%*(^%$</t>
   </si>
   <si>
-    <t>Pass - Customer Registered Successfully!!!</t>
-  </si>
-  <si>
-    <t>94493</t>
-  </si>
-  <si>
-    <t>45887</t>
-  </si>
-  <si>
-    <t>56120</t>
-  </si>
-  <si>
-    <t>Pass - Customer deleted Successfully</t>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>Your User id is wrong please provide correct userid</t>
+  </si>
+  <si>
+    <t>Change in address</t>
+  </si>
+  <si>
+    <t>Change in city</t>
+  </si>
+  <si>
+    <t>Change in state</t>
+  </si>
+  <si>
+    <t>Change in pin</t>
+  </si>
+  <si>
+    <t>Change in mobile number</t>
+  </si>
+  <si>
+    <t>Change in email id</t>
+  </si>
+  <si>
+    <t>All fields changed to blank</t>
+  </si>
+  <si>
+    <t>Deleted customer</t>
+  </si>
+  <si>
+    <t>78 8th main CD road</t>
+  </si>
+  <si>
+    <t>20 5th main KT layout</t>
+  </si>
+  <si>
+    <t>21 5th main KT layout</t>
+  </si>
+  <si>
+    <t>22 5th main KT layout</t>
+  </si>
+  <si>
+    <t>josh123@test.com</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>^*#%&amp;</t>
+  </si>
+  <si>
+    <t>When screen is not active</t>
+  </si>
+  <si>
+    <t>No Changes made to Customer records</t>
+  </si>
+  <si>
+    <t>No changes made to the customer id</t>
+  </si>
+  <si>
+    <t>Customer details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t>jos@guest.com</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1064,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1077,38 +1128,8 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="54">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1815,102 +1836,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1976,12 +1907,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2469,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,7 +2488,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>122</v>
@@ -2571,12 +2496,8 @@
       <c r="M2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>314</v>
-      </c>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2610,7 +2531,7 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>122</v>
@@ -2618,12 +2539,8 @@
       <c r="M3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>314</v>
-      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2657,7 +2574,7 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>122</v>
@@ -2665,12 +2582,8 @@
       <c r="M4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>314</v>
-      </c>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2915,7 +2828,7 @@
         <v>7779081234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>122</v>
@@ -2956,7 +2869,7 @@
         <v>7776892313</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>122</v>
@@ -3040,7 +2953,7 @@
         <v>2227657890</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>122</v>
@@ -3083,7 +2996,7 @@
         <v>90167189172</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>122</v>
@@ -3169,7 +3082,7 @@
         <v>4417678901</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>122</v>
@@ -3212,7 +3125,7 @@
         <v>4417657812</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>122</v>
@@ -3240,7 +3153,7 @@
         <v>34169</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="15" t="s">
@@ -3253,7 +3166,7 @@
         <v>9997863271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>122</v>
@@ -3281,13 +3194,13 @@
         <v>33667</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I19" s="1">
         <v>879656</v>
@@ -3324,7 +3237,7 @@
         <v>32238</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="1">
         <v>56687</v>
@@ -3367,10 +3280,10 @@
         <v>33773</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>50</v>
@@ -3410,10 +3323,10 @@
         <v>33437</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>104</v>
@@ -3453,10 +3366,10 @@
         <v>35859</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
@@ -3494,13 +3407,13 @@
         <v>34158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I24" s="1">
         <v>775645</v>
@@ -3537,10 +3450,10 @@
         <v>34432</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="1">
         <v>13345</v>
@@ -3580,13 +3493,13 @@
         <v>35163</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I26" s="1">
         <v>765435</v>
@@ -3623,13 +3536,13 @@
         <v>32971</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="1">
         <v>767546</v>
@@ -3666,10 +3579,10 @@
         <v>32975</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>156</v>
@@ -3707,16 +3620,16 @@
         <v>33733</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J29" s="1">
         <v>5657811232</v>
@@ -3750,16 +3663,16 @@
         <v>34095</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J30" s="1">
         <v>6628725671</v>
@@ -3793,16 +3706,16 @@
         <v>34888</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J31" s="1">
         <v>5529874561</v>
@@ -3836,13 +3749,13 @@
         <v>36025</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I32" s="1">
         <v>5654325</v>
@@ -3851,7 +3764,7 @@
         <v>5658901234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>122</v>
@@ -3879,13 +3792,13 @@
         <v>34128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="I33" s="1">
         <v>5664</v>
@@ -3922,10 +3835,10 @@
         <v>34523</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>50</v>
@@ -3963,7 +3876,7 @@
         <v>35162</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>49</v>
@@ -4006,7 +3919,7 @@
         <v>35977</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>54</v>
@@ -4018,7 +3931,7 @@
         <v>778654</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>208</v>
@@ -4049,22 +3962,22 @@
         <v>34351</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="I37" s="1">
         <v>326787</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>122</v>
@@ -4092,13 +4005,13 @@
         <v>35527</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="I38" s="1">
         <v>456367</v>
@@ -4135,10 +4048,10 @@
         <v>34127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>132</v>
@@ -4178,7 +4091,7 @@
         <v>34523</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>131</v>
@@ -4219,7 +4132,7 @@
         <v>35965</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>155</v>
@@ -4234,7 +4147,7 @@
         <v>4415427819</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>122</v>
@@ -4262,7 +4175,7 @@
         <v>34432</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>159</v>
@@ -4277,7 +4190,7 @@
         <v>4412568916</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>122</v>
@@ -4305,7 +4218,7 @@
         <v>32966</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>103</v>
@@ -4320,7 +4233,7 @@
         <v>5557826541</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>122</v>
@@ -4348,10 +4261,10 @@
         <v>33333</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>104</v>
@@ -4363,7 +4276,7 @@
         <v>5554237891</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>122</v>
@@ -4379,10 +4292,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>47</v>
@@ -4391,7 +4304,7 @@
         <v>34108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>131</v>
@@ -4407,13 +4320,13 @@
       </c>
       <c r="K45" s="2" t="str">
         <f>K2</f>
-        <v>jos@test.com</v>
+        <v>jos@guest.com</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>122</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N45" s="58"/>
       <c r="O45" s="58"/>
@@ -4423,7 +4336,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>186</v>
@@ -4435,7 +4348,7 @@
         <v>33376</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>147</v>
@@ -4450,7 +4363,7 @@
         <v>90165328917</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>122</v>
@@ -4478,7 +4391,7 @@
         <v>35167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>150</v>
@@ -4519,7 +4432,7 @@
         <v>34096</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>52</v>
@@ -4562,7 +4475,7 @@
         <v>33708</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>98</v>
@@ -4608,7 +4521,7 @@
         <v>144</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>132</v>
@@ -4620,7 +4533,7 @@
         <v>2226189271</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>192</v>
@@ -4649,7 +4562,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N51" s="58"/>
       <c r="O51" s="58"/>
@@ -4715,13 +4628,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>566721</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>566721</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="1">
+        <v>566721</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>543789</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>566721</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7778901237</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>566721</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>566721</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7771232345</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="1">
+        <v>93069</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12334</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1238905672</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="58"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4730,7 +5081,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,52 +5114,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C3" s="56"/>
       <c r="D3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C4" s="56"/>
       <c r="D4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="56"/>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5" s="58"/>
     </row>
@@ -4816,12 +5165,12 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="56"/>
       <c r="D6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="58"/>
     </row>
@@ -4829,12 +5178,12 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="56"/>
       <c r="D7" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" s="58"/>
     </row>
@@ -4842,12 +5191,12 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="56"/>
       <c r="D8" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="58"/>
     </row>
@@ -4855,12 +5204,12 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="56"/>
       <c r="D9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9" s="58"/>
     </row>
@@ -4868,12 +5217,12 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="56"/>
       <c r="D10" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="58"/>
     </row>
@@ -4881,12 +5230,12 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="56"/>
       <c r="D11" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="58"/>
     </row>
@@ -4894,12 +5243,12 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" s="56"/>
       <c r="D12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E12" s="58"/>
     </row>
@@ -4907,12 +5256,12 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="56"/>
       <c r="D13" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="58"/>
     </row>
@@ -4920,12 +5269,12 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="56"/>
       <c r="D14" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E14" s="58"/>
     </row>
@@ -4933,12 +5282,12 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="56"/>
       <c r="D15" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="58"/>
     </row>
@@ -4946,12 +5295,12 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="56"/>
       <c r="D16" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="58"/>
     </row>
@@ -4959,12 +5308,12 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="56"/>
       <c r="D17" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E17" s="58"/>
     </row>
@@ -4972,12 +5321,12 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="56" t="s">
-        <v>284</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="56"/>
       <c r="D18" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="58"/>
     </row>
@@ -4986,11 +5335,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E19" s="58"/>
     </row>
@@ -4999,9 +5348,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="56"/>
+        <v>305</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>313</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
@@ -5012,10 +5363,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>138</v>
@@ -5027,10 +5378,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>128</v>
@@ -5042,45 +5393,45 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="1">
         <v>93069</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C24" s="1">
         <v>1000201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>24</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25" s="1">
         <v>10003459012</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
@@ -5110,95 +5461,102 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I51"/>
+  <dimension ref="B3:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" style="31" collapsed="1"/>
+    <col min="9" max="9" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
         <v>43455</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="18">
         <v>39551</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>25023</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="19">
         <v>99287</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <v>44146</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>55287</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="32">
         <v>6671</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <v>88191</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>98587</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="33">
         <v>52092</v>
       </c>
       <c r="I12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>6680</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
         <v>91806</v>
       </c>
       <c r="I14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="35">
         <v>6453</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="J15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
         <v>83119</v>
       </c>
@@ -5250,92 +5608,92 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -4,17 +4,27 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="NewCust" sheetId="2" r:id="rId2"/>
-    <sheet name="EditCust" sheetId="3" r:id="rId3"/>
-    <sheet name="DeleteCust" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
+    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
+    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
+    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
+    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
+    <sheet name="Deposit" sheetId="11" r:id="rId9"/>
+    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
+    <sheet name="Fund Transfer" sheetId="13" r:id="rId11"/>
+    <sheet name="BalEnquiry" sheetId="14" r:id="rId12"/>
+    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
+    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NewCust!$M$1:$M$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$52</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="391">
   <si>
     <t>testcaseID</t>
   </si>
@@ -877,170 +887,335 @@
     <t>keit@test.com</t>
   </si>
   <si>
+    <t>Existing email id</t>
+  </si>
+  <si>
+    <t>Jilka</t>
+  </si>
+  <si>
+    <t>544 8th main GKV road</t>
+  </si>
+  <si>
+    <t>sanya@test.com</t>
+  </si>
+  <si>
+    <t>Email Address Already Exist !!</t>
+  </si>
+  <si>
+    <t>Customer name must not be blankDate Field must not be blankAddress Field must not be blankCity Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t>rootest.com</t>
+  </si>
+  <si>
+    <t>vee@test</t>
+  </si>
+  <si>
+    <t>dar</t>
+  </si>
+  <si>
+    <t>^&amp;*%%&amp;*</t>
+  </si>
+  <si>
+    <t>kiran@test.com</t>
+  </si>
+  <si>
+    <t>Email id exceeding 30 characters</t>
+  </si>
+  <si>
+    <t>ali12345678901234562@test.com11</t>
+  </si>
+  <si>
+    <t>Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Customer does not exist!!</t>
+  </si>
+  <si>
+    <t>Existing customer id</t>
+  </si>
+  <si>
+    <t>Customer ID is required</t>
+  </si>
+  <si>
+    <t>Blank customer id</t>
+  </si>
+  <si>
+    <t>You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>Only spaces in customer id</t>
+  </si>
+  <si>
+    <t>Characters in customer id</t>
+  </si>
+  <si>
+    <t>Special characters in customer id</t>
+  </si>
+  <si>
+    <t>Non existing customer id</t>
+  </si>
+  <si>
+    <t>Previously deleted customer id</t>
+  </si>
+  <si>
+    <t>Customer id exceeding 10 digits(Generated ids are &lt;10 digits as of now, hence non existing 11 digits customer id is used for testing)</t>
+  </si>
+  <si>
+    <t>customerid</t>
+  </si>
+  <si>
+    <t>$%*(^%$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>Your User id is wrong please provide correct userid</t>
+  </si>
+  <si>
+    <t>Change in address</t>
+  </si>
+  <si>
+    <t>Change in city</t>
+  </si>
+  <si>
+    <t>Change in state</t>
+  </si>
+  <si>
+    <t>Change in pin</t>
+  </si>
+  <si>
+    <t>Change in mobile number</t>
+  </si>
+  <si>
+    <t>Change in email id</t>
+  </si>
+  <si>
+    <t>All fields changed to blank</t>
+  </si>
+  <si>
+    <t>Deleted customer</t>
+  </si>
+  <si>
+    <t>78 8th main CD road</t>
+  </si>
+  <si>
+    <t>20 5th main KT layout</t>
+  </si>
+  <si>
+    <t>21 5th main KT layout</t>
+  </si>
+  <si>
+    <t>22 5th main KT layout</t>
+  </si>
+  <si>
+    <t>josh123@test.com</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>^*#%&amp;</t>
+  </si>
+  <si>
+    <t>No Changes made to Customer records</t>
+  </si>
+  <si>
+    <t>No changes made to the customer id</t>
+  </si>
+  <si>
+    <t>Customer details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t>jos@guest.com</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/Managerhomepage.php</t>
+  </si>
+  <si>
+    <t>You are not authorize to edit this customer!!</t>
+  </si>
+  <si>
+    <t>Open the link w/o credential and perform add new cust</t>
+  </si>
+  <si>
+    <t>open the link w/o credential and perform edit cust</t>
+  </si>
+  <si>
+    <t>open the link w/o credential and perform delete cust</t>
+  </si>
+  <si>
+    <t>Custid</t>
+  </si>
+  <si>
+    <t>Accountid</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Guru@2018</t>
+  </si>
+  <si>
+    <t>AcctType</t>
+  </si>
+  <si>
+    <t>One account with multiple saving accounts</t>
+  </si>
+  <si>
+    <t>One account with multiple current accounts</t>
+  </si>
+  <si>
+    <t>Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+  </si>
+  <si>
+    <t>Trying to delete a customer with account tagged customer id</t>
+  </si>
+  <si>
+    <t>Add a new  savings account</t>
+  </si>
+  <si>
+    <t>Add a new current account</t>
+  </si>
+  <si>
+    <t>Add a new savings account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special characters in customer </t>
+  </si>
+  <si>
+    <t>Non-existing customer id</t>
+  </si>
+  <si>
+    <t>Blank initial deposit</t>
+  </si>
+  <si>
+    <t>Only spaces in initial deposit</t>
+  </si>
+  <si>
+    <t>Characters in initial deposit</t>
+  </si>
+  <si>
+    <t>Special characters in initial deposit</t>
+  </si>
+  <si>
+    <t>Initial deposit less than 500</t>
+  </si>
+  <si>
+    <t>Initial deposit of 500</t>
+  </si>
+  <si>
+    <t>Initial deposit greater than 500</t>
+  </si>
+  <si>
+    <t>Initial deposit exceeding 8 digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>$&amp;^%#</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>$#&amp;*)(</t>
+  </si>
+  <si>
+    <t>InitialDeposit</t>
+  </si>
+  <si>
+    <t>Account Generated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Initial Deposit must not be blank</t>
+  </si>
+  <si>
+    <t>Intial deposite must be Rs. 500 or more</t>
+  </si>
+  <si>
+    <t>Customer ID is requiredInitial Deposit must not be blank</t>
+  </si>
+  <si>
+    <t>Blank Account type</t>
+  </si>
+  <si>
+    <t>Existing account number</t>
+  </si>
+  <si>
+    <t>acctnum</t>
+  </si>
+  <si>
+    <t>Deleting a customer id with active accounts</t>
+  </si>
+  <si>
+    <t>Blank account number</t>
+  </si>
+  <si>
+    <t>Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Only spaces in account number</t>
+  </si>
+  <si>
+    <t>Characters in account number</t>
+  </si>
+  <si>
+    <t>Special characters in account number</t>
+  </si>
+  <si>
+    <t>Previously deleted account number</t>
+  </si>
+  <si>
+    <t>Non existing account number</t>
+  </si>
+  <si>
+    <t>Account number exceeding 10 digits(Generated numbers are &lt;10 digits as of now, hence non existing 11 digits account number is used for testing)</t>
+  </si>
+  <si>
+    <t>accountno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     </t>
+  </si>
+  <si>
+    <t>Account does not exist</t>
+  </si>
+  <si>
+    <t>Account Deleted Sucessfully</t>
+  </si>
+  <si>
+    <t>Pass - Account Generated Successfully!!!</t>
+  </si>
+  <si>
+    <t>39283</t>
+  </si>
+  <si>
+    <t>Pass - Account Deleted Sucessfully</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Existing email id</t>
-  </si>
-  <si>
-    <t>Jilka</t>
-  </si>
-  <si>
-    <t>544 8th main GKV road</t>
-  </si>
-  <si>
-    <t>sanya@test.com</t>
-  </si>
-  <si>
-    <t>Email Address Already Exist !!</t>
-  </si>
-  <si>
-    <t>Customer name must not be blankDate Field must not be blankAddress Field must not be blankCity Field must not be blankState must not be blankPIN Code must not be blankMobile no must not be blankEmail-ID must not be blankPassword must not be blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 </t>
-  </si>
-  <si>
-    <t>rootest.com</t>
-  </si>
-  <si>
-    <t>vee@test</t>
-  </si>
-  <si>
-    <t>dar</t>
-  </si>
-  <si>
-    <t>^&amp;*%%&amp;*</t>
-  </si>
-  <si>
-    <t>kiran@test.com</t>
-  </si>
-  <si>
-    <t>Email id exceeding 30 characters</t>
-  </si>
-  <si>
-    <t>ali12345678901234562@test.com11</t>
-  </si>
-  <si>
-    <t>Do you really want to delete this Customer?</t>
-  </si>
-  <si>
-    <t>Customer deleted Successfully</t>
-  </si>
-  <si>
-    <t>Customer does not exist!!</t>
-  </si>
-  <si>
-    <t>Existing customer id</t>
-  </si>
-  <si>
-    <t>Customer ID is required</t>
-  </si>
-  <si>
-    <t>Blank customer id</t>
-  </si>
-  <si>
-    <t>You are not authorize to delete this customer!!</t>
-  </si>
-  <si>
-    <t>Only spaces in customer id</t>
-  </si>
-  <si>
-    <t>Characters in customer id</t>
-  </si>
-  <si>
-    <t>Special characters in customer id</t>
-  </si>
-  <si>
-    <t>Non existing customer id</t>
-  </si>
-  <si>
-    <t>Previously deleted customer id</t>
-  </si>
-  <si>
-    <t>Customer id exceeding 10 digits(Generated ids are &lt;10 digits as of now, hence non existing 11 digits customer id is used for testing)</t>
-  </si>
-  <si>
-    <t>customerid</t>
-  </si>
-  <si>
-    <t>$%*(^%$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  </t>
-  </si>
-  <si>
-    <t>Your User id is wrong please provide correct userid</t>
-  </si>
-  <si>
-    <t>Change in address</t>
-  </si>
-  <si>
-    <t>Change in city</t>
-  </si>
-  <si>
-    <t>Change in state</t>
-  </si>
-  <si>
-    <t>Change in pin</t>
-  </si>
-  <si>
-    <t>Change in mobile number</t>
-  </si>
-  <si>
-    <t>Change in email id</t>
-  </si>
-  <si>
-    <t>All fields changed to blank</t>
-  </si>
-  <si>
-    <t>Deleted customer</t>
-  </si>
-  <si>
-    <t>78 8th main CD road</t>
-  </si>
-  <si>
-    <t>20 5th main KT layout</t>
-  </si>
-  <si>
-    <t>21 5th main KT layout</t>
-  </si>
-  <si>
-    <t>22 5th main KT layout</t>
-  </si>
-  <si>
-    <t>josh123@test.com</t>
-  </si>
-  <si>
-    <t>Bidar</t>
-  </si>
-  <si>
-    <t>^*#%&amp;</t>
-  </si>
-  <si>
-    <t>When screen is not active</t>
-  </si>
-  <si>
-    <t>No Changes made to Customer records</t>
-  </si>
-  <si>
-    <t>No changes made to the customer id</t>
-  </si>
-  <si>
-    <t>Customer details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               </t>
-  </si>
-  <si>
-    <t>jos@guest.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,8 +1238,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,12 +1322,44 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1836,12 +2066,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1906,7 +2181,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2188,10 +2486,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J54"/>
+  <sheetViews>
+    <sheetView topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="31" collapsed="1"/>
+    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="H7" s="73" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="H16" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="37"/>
+      <c r="H17" s="75">
+        <v>2102</v>
+      </c>
+      <c r="I17" s="65">
+        <v>39256</v>
+      </c>
+      <c r="J17" s="65">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="68"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="65">
+        <v>39275</v>
+      </c>
+      <c r="J18" s="65">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="68"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="65">
+        <v>39280</v>
+      </c>
+      <c r="J19" s="65">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="68"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="65">
+        <v>39281</v>
+      </c>
+      <c r="J20" s="65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="65">
+        <v>39279</v>
+      </c>
+      <c r="J21" s="65">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="H22" s="74">
+        <v>94925</v>
+      </c>
+      <c r="I22" s="65">
+        <v>39276</v>
+      </c>
+      <c r="J22" s="65">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="65">
+        <v>39277</v>
+      </c>
+      <c r="J23" s="65">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="65">
+        <v>39278</v>
+      </c>
+      <c r="J24" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="H25" s="74">
+        <v>89280</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="38"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="40"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="41"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="42"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="44"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="45"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="46"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="47"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="48"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="49"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="50"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="51"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="52"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="53"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="54"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H25:H27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,6 +2842,7 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -2239,13 +2883,13 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="E2" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="71" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2384,18 +3028,19 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
     <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
+    <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +3133,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>122</v>
@@ -3764,7 +4409,7 @@
         <v>5658901234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>122</v>
@@ -3974,10 +4619,10 @@
         <v>326787</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>122</v>
@@ -4147,7 +4792,7 @@
         <v>4415427819</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>122</v>
@@ -4190,7 +4835,7 @@
         <v>4412568916</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>122</v>
@@ -4233,7 +4878,7 @@
         <v>5557826541</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>122</v>
@@ -4276,7 +4921,7 @@
         <v>5554237891</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>122</v>
@@ -4292,10 +4937,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>47</v>
@@ -4304,7 +4949,7 @@
         <v>34108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>131</v>
@@ -4326,7 +4971,7 @@
         <v>122</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N45" s="58"/>
       <c r="O45" s="58"/>
@@ -4336,7 +4981,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>186</v>
@@ -4363,7 +5008,7 @@
         <v>90165328917</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>122</v>
@@ -4562,13 +5207,16 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N51" s="58"/>
       <c r="O51" s="58"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4620,18 +5268,19 @@
     <hyperlink ref="K49" r:id="rId46"/>
     <hyperlink ref="K50" r:id="rId47"/>
     <hyperlink ref="K45" r:id="rId48" display="kei@test.com"/>
+    <hyperlink ref="K12" r:id="rId49" display="simran@test.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,11 +5334,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>49</v>
@@ -4704,10 +5353,10 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K2" s="58"/>
     </row>
@@ -4716,14 +5365,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>50</v>
@@ -4735,10 +5384,10 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K3" s="58"/>
     </row>
@@ -4747,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4766,10 +5415,10 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K4" s="58"/>
     </row>
@@ -4778,11 +5427,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>49</v>
@@ -4797,10 +5446,10 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K5" s="58"/>
     </row>
@@ -4809,11 +5458,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>49</v>
@@ -4828,10 +5477,10 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K6" s="58"/>
     </row>
@@ -4840,11 +5489,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>49</v>
@@ -4859,10 +5508,10 @@
         <v>7771232345</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K7" s="58"/>
     </row>
@@ -4871,11 +5520,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>49</v>
@@ -4890,10 +5539,10 @@
         <v>7771232345</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K8" s="58"/>
     </row>
@@ -4902,7 +5551,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4912,7 +5561,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K9" s="58"/>
     </row>
@@ -4921,7 +5570,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4931,7 +5580,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K10" s="58"/>
     </row>
@@ -4940,10 +5589,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -4961,7 +5610,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>42</v>
@@ -4982,10 +5631,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5003,7 +5652,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C14" s="1">
         <v>93069</v>
@@ -5015,7 +5664,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K14" s="58"/>
     </row>
@@ -5024,7 +5673,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C15" s="1">
         <v>12334</v>
@@ -5036,7 +5685,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K15" s="58"/>
     </row>
@@ -5045,7 +5694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C16" s="1">
         <v>1238905672</v>
@@ -5057,7 +5706,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K16" s="58"/>
     </row>
@@ -5076,12 +5725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5114,11 +5763,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E2" s="58"/>
     </row>
@@ -5127,11 +5776,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E3" s="58"/>
     </row>
@@ -5140,11 +5789,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E4" s="58"/>
     </row>
@@ -5153,11 +5802,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E5" s="58"/>
     </row>
@@ -5166,11 +5815,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E6" s="58"/>
     </row>
@@ -5179,11 +5828,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E7" s="58"/>
     </row>
@@ -5192,11 +5841,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E8" s="58"/>
     </row>
@@ -5205,11 +5854,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E9" s="58"/>
     </row>
@@ -5218,11 +5867,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E10" s="58"/>
     </row>
@@ -5231,11 +5880,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E11" s="58"/>
     </row>
@@ -5244,11 +5893,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E12" s="58"/>
     </row>
@@ -5257,11 +5906,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E13" s="58"/>
     </row>
@@ -5270,11 +5919,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E14" s="58"/>
     </row>
@@ -5283,11 +5932,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E15" s="58"/>
     </row>
@@ -5296,11 +5945,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E16" s="58"/>
     </row>
@@ -5309,11 +5958,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E17" s="58"/>
     </row>
@@ -5322,11 +5971,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E18" s="58"/>
     </row>
@@ -5335,11 +5984,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E19" s="58"/>
     </row>
@@ -5348,10 +5997,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
@@ -5363,10 +6012,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>138</v>
@@ -5378,10 +6027,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>128</v>
@@ -5393,13 +6042,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C23" s="1">
         <v>93069</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E23" s="58"/>
     </row>
@@ -5408,13 +6057,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C24" s="1">
         <v>1000201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E24" s="58"/>
     </row>
@@ -5423,20 +6072,30 @@
         <v>24</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C25" s="1">
         <v>10003459012</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="69">
+        <v>25</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="69">
+        <v>2102</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
@@ -5459,244 +6118,958 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J51"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.140625" style="31" collapsed="1"/>
-    <col min="9" max="9" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
-        <v>43455</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
-        <v>39551</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>25023</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
-        <v>99287</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
-        <v>44146</v>
-      </c>
-      <c r="I7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>55287</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="32">
-        <v>6671</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>88191</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
-        <v>98587</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="33">
-        <v>52092</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="1">
+        <v>89280</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="1">
+        <v>89280</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4600</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1900</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
-        <v>6680</v>
-      </c>
-      <c r="I13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <v>91806</v>
-      </c>
-      <c r="I14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="35">
-        <v>6453</v>
-      </c>
-      <c r="I15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="36">
-        <v>83119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="37">
-        <v>98074</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
-        <v>69389</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
-        <v>51934</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
-        <v>35485</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
-        <v>36131</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="27">
-        <v>25974</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
-        <v>86818</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="30">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="47" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="49" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="52" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="53" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="54" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="55" t="s">
-        <v>283</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2102</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>600</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E18" s="1">
+        <v>499</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E20" s="1">
+        <v>501</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="1">
+        <v>94925</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="1">
+        <v>89280</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="1">
+        <v>499</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" s="1">
+        <v>89280</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" s="1">
+        <v>89280</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="1">
+        <v>501</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="1">
+        <v>89280</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="58"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="58"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="58"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="58"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="58"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="58"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="58"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="1">
+        <v>39282</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="58"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1239682</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="58"/>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45003459012</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
-    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
     <sheet name="NewCust" sheetId="2" r:id="rId3"/>
     <sheet name="EditCust" sheetId="3" r:id="rId4"/>
     <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
@@ -17,8 +17,8 @@
     <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
     <sheet name="Deposit" sheetId="11" r:id="rId9"/>
     <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
-    <sheet name="Fund Transfer" sheetId="13" r:id="rId11"/>
-    <sheet name="BalEnquiry" sheetId="14" r:id="rId12"/>
+    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
+    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
     <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
     <sheet name="CustStat" sheetId="16" r:id="rId14"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="392">
   <si>
     <t>testcaseID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>User or Password is not valid</t>
   </si>
   <si>
-    <t>Pass - User or Password is not valid</t>
-  </si>
-  <si>
     <t>Guru99 Bank Manager HomePage</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>mngr564377</t>
   </si>
   <si>
-    <t>Pass - Guru99 Bank Manager HomePage</t>
-  </si>
-  <si>
     <t>User-ID must not be blank</t>
   </si>
   <si>
@@ -128,15 +122,6 @@
     <t>User-ID must not be blankPassword must not be blank</t>
   </si>
   <si>
-    <t>Pass - User-ID must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - Password must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - User-ID must not be blankPassword must not be blank</t>
-  </si>
-  <si>
     <t>custName</t>
   </si>
   <si>
@@ -1209,13 +1194,31 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>You Have Succesfully Logged Out!!</t>
+  </si>
+  <si>
+    <t>Transaction details of Deposit for Account 39275</t>
+  </si>
+  <si>
+    <t>pop-up &gt; Account does not exist</t>
+  </si>
+  <si>
+    <t>Get the balance from balEnquiry as one of the input here and add the amount to validate the latest balance after deposit</t>
+  </si>
+  <si>
+    <t>Write the latest balance to withdrawal to get the base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,8 +1264,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,36 +1282,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
       </patternFill>
     </fill>
     <fill>
@@ -1353,13 +1332,8 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="51">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1384,96 +1358,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1988,37 +1872,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2116,86 +1970,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2205,6 +2051,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2486,283 +2333,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J54"/>
+  <dimension ref="B3:J53"/>
   <sheetViews>
     <sheetView topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="31" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="24" collapsed="1"/>
     <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="10" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="H7" s="73" t="s">
+      <c r="B7" s="13"/>
+      <c r="H7" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="H16" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I16" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="J16" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="64" t="s">
-        <v>346</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="H16" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="I16" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="H17" s="75">
+      <c r="B17" s="30"/>
+      <c r="H17" s="67">
         <v>2102</v>
       </c>
-      <c r="I17" s="65">
-        <v>39256</v>
-      </c>
-      <c r="J17" s="65">
+      <c r="I17" s="58">
+        <v>39275</v>
+      </c>
+      <c r="J17" s="58">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="61"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="58">
+        <v>39280</v>
+      </c>
+      <c r="J18" s="58">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="61"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="58">
+        <v>39281</v>
+      </c>
+      <c r="J19" s="58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="61"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="58">
+        <v>39279</v>
+      </c>
+      <c r="J20" s="58">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="H21" s="66">
+        <v>94925</v>
+      </c>
+      <c r="I21" s="58">
+        <v>39276</v>
+      </c>
+      <c r="J21" s="58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="58">
+        <v>39277</v>
+      </c>
+      <c r="J22" s="58">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="58">
+        <v>39278</v>
+      </c>
+      <c r="J23" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="65">
-        <v>39275</v>
-      </c>
-      <c r="J18" s="65">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="65">
-        <v>39280</v>
-      </c>
-      <c r="J19" s="65">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="68"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="65">
-        <v>39281</v>
-      </c>
-      <c r="J20" s="65">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="65">
-        <v>39279</v>
-      </c>
-      <c r="J21" s="65">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="H22" s="74">
-        <v>94925</v>
-      </c>
-      <c r="I22" s="65">
-        <v>39276</v>
-      </c>
-      <c r="J22" s="65">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="65">
-        <v>39277</v>
-      </c>
-      <c r="J23" s="65">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="65">
-        <v>39278</v>
-      </c>
-      <c r="J24" s="1">
-        <v>600</v>
-      </c>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="H24" s="66">
+        <v>89280</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="H25" s="74">
-        <v>89280</v>
-      </c>
+      <c r="B25" s="21"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="H26" s="74"/>
+      <c r="B26" s="22"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="23"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
+      <c r="B30" s="33"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
+      <c r="B31" s="34"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
+      <c r="B32" s="35"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="42"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+      <c r="B33" s="36"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="44"/>
+      <c r="B36" s="38"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
+      <c r="B37" s="39"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="46"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="47"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="48"/>
+      <c r="B39" s="41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="42"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="49"/>
+      <c r="B43" s="43"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
+      <c r="B44" s="44"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="51"/>
+      <c r="B45" s="45"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="52"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="53"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="55"/>
+      <c r="B47" s="47"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -2795,12 +2632,30 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="R13:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R14" s="68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2831,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,14 +2739,12 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2912,9 +2765,7 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2935,9 +2786,7 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2958,58 +2807,52 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -3017,11 +2860,24 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>8</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3046,7 +2902,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3062,31 +2918,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>4</v>
@@ -3095,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>5</v>
@@ -3106,25 +2962,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5">
+        <v>29969</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="11">
-        <v>29969</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1">
         <v>566721</v>
@@ -3133,41 +2989,41 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5">
+        <v>30715</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="11">
-        <v>30715</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1">
         <v>789067</v>
@@ -3176,41 +3032,41 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5">
+        <v>28921</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="11">
-        <v>28921</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I4" s="1">
         <v>890789</v>
@@ -3219,39 +3075,39 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="11">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
         <v>31855</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I5" s="1">
         <v>237876</v>
@@ -3260,41 +3116,41 @@
         <v>9991237890</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+        <v>120</v>
+      </c>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="11">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5">
         <v>31481</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I6" s="1">
         <v>667897</v>
@@ -3303,41 +3159,41 @@
         <v>5556789087</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>12334</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="11">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5">
         <v>30477</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I7" s="1">
         <v>788767</v>
@@ -3346,41 +3202,41 @@
         <v>5554567897</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="11">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5">
         <v>28690</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I8" s="1">
         <v>897654</v>
@@ -3389,41 +3245,41 @@
         <v>4448960786</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="11">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5">
         <v>29938</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1">
         <v>765897</v>
@@ -3432,39 +3288,39 @@
         <v>4447895432</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="11">
+      <c r="E10" s="5">
         <v>32527</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1">
         <v>789123</v>
@@ -3473,39 +3329,39 @@
         <v>7779081234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1">
         <v>678234</v>
@@ -3514,41 +3370,41 @@
         <v>7776892313</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
+        <v>124</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="11">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5">
         <v>235197</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1">
         <v>786889</v>
@@ -3557,39 +3413,39 @@
         <v>7771236789</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="11">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5">
         <v>31397</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I13" s="1">
         <v>678543</v>
@@ -3598,41 +3454,41 @@
         <v>2227657890</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
+        <v>128</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="11">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5">
         <v>28071</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I14" s="1">
         <v>657545</v>
@@ -3641,41 +3497,41 @@
         <v>90167189172</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="11">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5">
         <v>32980</v>
       </c>
       <c r="F15" s="1">
         <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I15" s="1">
         <v>567987</v>
@@ -3684,41 +3540,41 @@
         <v>8786357718</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="11">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5">
         <v>33314</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I16" s="1">
         <v>657876</v>
@@ -3727,41 +3583,41 @@
         <v>4417678901</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="11">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5">
         <v>35964</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I17" s="1">
         <v>657987</v>
@@ -3770,39 +3626,39 @@
         <v>4417657812</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="11">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5">
         <v>34169</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="15" t="s">
-        <v>98</v>
+      <c r="H18" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="I18" s="1">
         <v>786545</v>
@@ -3811,41 +3667,41 @@
         <v>9997863271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
+        <v>130</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="11">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5">
         <v>33667</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I19" s="1">
         <v>879656</v>
@@ -3854,41 +3710,41 @@
         <v>6557891271</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="11">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5">
         <v>32238</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G20" s="1">
         <v>56687</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I20" s="1">
         <v>667434</v>
@@ -3897,41 +3753,41 @@
         <v>7779874561</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="11">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
         <v>33773</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I21" s="1">
         <v>467543</v>
@@ -3940,41 +3796,41 @@
         <v>7779084515</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="11">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5">
         <v>33437</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I22" s="1">
         <v>786433</v>
@@ -3983,38 +3839,38 @@
         <v>5557789012</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="11">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5">
         <v>35859</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
@@ -4024,41 +3880,41 @@
         <v>1018237829</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
+        <v>131</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="11">
+        <v>41</v>
+      </c>
+      <c r="E24" s="5">
         <v>34158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I24" s="1">
         <v>775645</v>
@@ -4067,38 +3923,38 @@
         <v>1015677890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="11">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5">
         <v>34432</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H25" s="1">
         <v>13345</v>
@@ -4110,41 +3966,41 @@
         <v>1012237893</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="11">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5">
         <v>35163</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I26" s="1">
         <v>765435</v>
@@ -4153,41 +4009,41 @@
         <v>1016738377</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="11">
+        <v>41</v>
+      </c>
+      <c r="E27" s="5">
         <v>32971</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I27" s="1">
         <v>767546</v>
@@ -4196,211 +4052,211 @@
         <v>1239872361</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="11">
+        <v>41</v>
+      </c>
+      <c r="E28" s="5">
         <v>32975</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
         <v>4417728910</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
+        <v>132</v>
+      </c>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="11">
+        <v>42</v>
+      </c>
+      <c r="E29" s="5">
         <v>33733</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J29" s="1">
         <v>5657811232</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="11">
+        <v>41</v>
+      </c>
+      <c r="E30" s="5">
         <v>34095</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J30" s="1">
         <v>6628725671</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="11">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5">
         <v>34888</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J31" s="1">
         <v>5529874561</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="11">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5">
         <v>36025</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I32" s="1">
         <v>5654325</v>
@@ -4409,41 +4265,41 @@
         <v>5658901234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="11">
+        <v>42</v>
+      </c>
+      <c r="E33" s="5">
         <v>34128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I33" s="1">
         <v>5664</v>
@@ -4452,211 +4308,211 @@
         <v>9328982123</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
+        <v>134</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="11">
+        <v>42</v>
+      </c>
+      <c r="E34" s="5">
         <v>34523</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I34" s="1">
         <v>346765</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
+        <v>135</v>
+      </c>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="11">
+        <v>42</v>
+      </c>
+      <c r="E35" s="5">
         <v>35162</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I35" s="1">
         <v>457865</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="11">
+        <v>42</v>
+      </c>
+      <c r="E36" s="5">
         <v>35977</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I36" s="1">
         <v>778654</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="11">
+        <v>41</v>
+      </c>
+      <c r="E37" s="5">
         <v>34351</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I37" s="1">
         <v>326787</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="11">
+        <v>42</v>
+      </c>
+      <c r="E38" s="5">
         <v>35527</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I38" s="1">
         <v>456367</v>
@@ -4665,41 +4521,41 @@
         <v>8806785435</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="11">
+        <v>42</v>
+      </c>
+      <c r="E39" s="5">
         <v>34127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I39" s="1">
         <v>235789</v>
@@ -4708,41 +4564,41 @@
         <v>2227658912</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="11">
+        <v>41</v>
+      </c>
+      <c r="E40" s="5">
         <v>34523</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I40" s="1">
         <v>323678</v>
@@ -4752,38 +4608,38 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
+        <v>136</v>
+      </c>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="11">
+        <v>42</v>
+      </c>
+      <c r="E41" s="5">
         <v>35965</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I41" s="1">
         <v>234878</v>
@@ -4791,42 +4647,42 @@
       <c r="J41" s="1">
         <v>4415427819</v>
       </c>
-      <c r="K41" s="16" t="s">
-        <v>289</v>
+      <c r="K41" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="11">
+        <v>42</v>
+      </c>
+      <c r="E42" s="5">
         <v>34432</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I42" s="1">
         <v>879453</v>
@@ -4835,41 +4691,41 @@
         <v>4412568916</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="11">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5">
         <v>32966</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I43" s="1">
         <v>345788</v>
@@ -4878,41 +4734,41 @@
         <v>5557826541</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="11">
+        <v>41</v>
+      </c>
+      <c r="E44" s="5">
         <v>33333</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I44" s="1">
         <v>653652</v>
@@ -4921,41 +4777,41 @@
         <v>5554237891</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
+        <v>137</v>
+      </c>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="11">
+        <v>42</v>
+      </c>
+      <c r="E45" s="5">
         <v>34108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I45" s="1">
         <v>453245</v>
@@ -4968,38 +4824,38 @@
         <v>jos@guest.com</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
+        <v>282</v>
+      </c>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="11">
+        <v>41</v>
+      </c>
+      <c r="E46" s="5">
         <v>33376</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I46" s="1">
         <v>456456</v>
@@ -5008,41 +4864,41 @@
         <v>90165328917</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="11">
+        <v>41</v>
+      </c>
+      <c r="E47" s="5">
         <v>35167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I47" s="1">
         <v>345235</v>
@@ -5051,39 +4907,39 @@
         <v>8783426621</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
+        <v>26</v>
+      </c>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="11">
+        <v>41</v>
+      </c>
+      <c r="E48" s="5">
         <v>34096</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I48" s="1">
         <v>765787</v>
@@ -5092,41 +4948,41 @@
         <v>7776528901</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="11">
+        <v>42</v>
+      </c>
+      <c r="E49" s="5">
         <v>33708</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I49" s="1">
         <v>897654</v>
@@ -5135,41 +4991,41 @@
         <v>9992346781</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="11">
+        <v>41</v>
+      </c>
+      <c r="E50" s="5">
         <v>31173</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I50" s="1">
         <v>676588</v>
@@ -5178,27 +5034,27 @@
         <v>2226189271</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
+        <v>119</v>
+      </c>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="11"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5207,16 +5063,16 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
+        <v>283</v>
+      </c>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="14"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="62"/>
+      <c r="B53" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5302,25 +5158,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>17</v>
@@ -5334,17 +5190,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1">
         <v>566721</v>
@@ -5353,29 +5209,29 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1">
         <v>566721</v>
@@ -5384,29 +5240,29 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K3" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G4" s="1">
         <v>566721</v>
@@ -5415,29 +5271,29 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K4" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>543789</v>
@@ -5446,29 +5302,29 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K5" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1">
         <v>566721</v>
@@ -5477,29 +5333,29 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K6" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1">
         <v>566721</v>
@@ -5508,29 +5364,29 @@
         <v>7771232345</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>566721</v>
@@ -5539,19 +5395,19 @@
         <v>7771232345</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K8" s="58"/>
+        <v>323</v>
+      </c>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5561,16 +5417,16 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K9" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5580,19 +5436,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K10" s="58"/>
+        <v>295</v>
+      </c>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5601,19 +5457,19 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5622,19 +5478,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5643,16 +5499,16 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C14" s="1">
         <v>93069</v>
@@ -5664,16 +5520,16 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K14" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C15" s="1">
         <v>12334</v>
@@ -5685,16 +5541,16 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K15" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>308</v>
+      <c r="B16" s="54" t="s">
+        <v>303</v>
       </c>
       <c r="C16" s="1">
         <v>1238905672</v>
@@ -5706,9 +5562,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K16" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="K16" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5749,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -5763,354 +5619,354 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C2" s="49"/>
       <c r="D2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C3" s="49"/>
       <c r="D3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C4" s="49"/>
       <c r="D4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C5" s="49"/>
       <c r="D5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C6" s="49"/>
       <c r="D6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C7" s="49"/>
       <c r="D7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C8" s="49"/>
       <c r="D8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C9" s="49"/>
       <c r="D9" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C10" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C10" s="49"/>
       <c r="D10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C11" s="49"/>
       <c r="D11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C12" s="49"/>
       <c r="D12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C13" s="49"/>
       <c r="D13" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C14" s="49"/>
       <c r="D14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E14" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C15" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C16" s="49"/>
       <c r="D16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="D17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E17" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="56"/>
+        <v>294</v>
+      </c>
+      <c r="C18" s="49"/>
       <c r="D18" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="58"/>
+        <v>292</v>
+      </c>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C19" s="56"/>
+        <v>296</v>
+      </c>
+      <c r="C19" s="49"/>
       <c r="D19" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="58"/>
+        <v>295</v>
+      </c>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>311</v>
+        <v>298</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="58"/>
+        <v>121</v>
+      </c>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>309</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>310</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="57">
+      <c r="A23" s="50">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C23" s="1">
         <v>93069</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C24" s="1">
         <v>1000201</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="57">
+      <c r="A25" s="50">
         <v>24</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>308</v>
+      <c r="B25" s="54" t="s">
+        <v>303</v>
       </c>
       <c r="C25" s="1">
         <v>10003459012</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="58"/>
+        <v>293</v>
+      </c>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="62">
         <v>25</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="C26" s="69">
+      <c r="B26" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="62">
         <v>2102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6144,19 +6000,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -6167,25 +6023,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1">
         <v>2102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>387</v>
+        <v>362</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6193,19 +6049,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1">
         <v>2102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6215,19 +6071,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C4" s="1">
         <v>89280</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6237,19 +6093,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C5" s="1">
         <v>89280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E5" s="1">
         <v>4600</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6259,19 +6115,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C6" s="1">
         <v>2102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E6" s="1">
         <v>1200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6281,19 +6137,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C7" s="1">
         <v>2102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E7" s="1">
         <v>1400</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6303,17 +6159,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E8" s="1">
         <v>1600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6323,19 +6179,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -6345,19 +6201,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E10" s="1">
         <v>1900</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -6367,19 +6223,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E11" s="1">
         <v>2000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6389,19 +6245,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C12" s="1">
         <v>1234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E12" s="1">
         <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6411,7 +6267,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C13" s="1">
         <v>2102</v>
@@ -6421,7 +6277,7 @@
         <v>600</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -6431,17 +6287,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C14" s="1">
         <v>94925</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -6451,19 +6307,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C15" s="1">
         <v>94925</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -6473,19 +6329,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C16" s="1">
         <v>94925</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6495,19 +6351,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C17" s="1">
         <v>94925</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -6517,19 +6373,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C18" s="1">
         <v>94925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E18" s="1">
         <v>499</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -6539,19 +6395,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C19" s="1">
         <v>94925</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E19" s="1">
         <v>500</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6561,19 +6417,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C20" s="1">
         <v>94925</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E20" s="1">
         <v>501</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -6583,19 +6439,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C21" s="1">
         <v>94925</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E21" s="1">
         <v>100000000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -6605,19 +6461,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C22" s="1">
         <v>89280</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E22" s="1">
         <v>499</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -6627,19 +6483,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C23" s="1">
         <v>89280</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>363</v>
+      <c r="D23" s="57" t="s">
+        <v>358</v>
       </c>
       <c r="E23" s="1">
         <v>500</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -6649,19 +6505,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C24" s="1">
         <v>89280</v>
       </c>
-      <c r="D24" s="64" t="s">
-        <v>363</v>
+      <c r="D24" s="57" t="s">
+        <v>358</v>
       </c>
       <c r="E24" s="1">
         <v>501</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6671,19 +6527,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C25" s="1">
         <v>89280</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>363</v>
+      <c r="D25" s="57" t="s">
+        <v>358</v>
       </c>
       <c r="E25" s="1">
         <v>200000000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -6693,13 +6549,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="64"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -6713,7 +6569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -6730,15 +6586,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6771,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -6785,16 +6641,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>390</v>
+        <v>367</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>385</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>389</v>
+        <v>381</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6802,259 +6658,259 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C3" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C3" s="49"/>
       <c r="D3" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C4" s="49"/>
       <c r="D4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C5" s="49"/>
       <c r="D5" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C6" s="49"/>
       <c r="D6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C7" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C7" s="49"/>
       <c r="D7" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C8" s="49"/>
       <c r="D8" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C9" s="49"/>
       <c r="D9" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E9" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C10" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C10" s="49"/>
       <c r="D10" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C11" s="49"/>
       <c r="D11" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C12" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C12" s="49"/>
       <c r="D12" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C13" s="49"/>
       <c r="D13" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E13" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C14" s="56"/>
+        <v>367</v>
+      </c>
+      <c r="C14" s="49"/>
       <c r="D14" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E14" s="58"/>
+        <v>381</v>
+      </c>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" s="56"/>
+        <v>370</v>
+      </c>
+      <c r="C15" s="49"/>
       <c r="D15" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E15" s="58"/>
+        <v>371</v>
+      </c>
+      <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>384</v>
+        <v>372</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>379</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>383</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="58"/>
+        <v>133</v>
+      </c>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>310</v>
+        <v>374</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>305</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="58"/>
+        <v>123</v>
+      </c>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C19" s="1">
         <v>39282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E19" s="58"/>
+        <v>380</v>
+      </c>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C20" s="1">
         <v>1239682</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="58"/>
+        <v>380</v>
+      </c>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>382</v>
+      <c r="B21" s="54" t="s">
+        <v>377</v>
       </c>
       <c r="C21" s="1">
         <v>45003459012</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" s="58"/>
+        <v>380</v>
+      </c>
+      <c r="E21" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7064,12 +6920,36 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="68" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="418">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1212,6 +1212,84 @@
   </si>
   <si>
     <t>Write the latest balance to withdrawal to get the base</t>
+  </si>
+  <si>
+    <t>mngr124532</t>
+  </si>
+  <si>
+    <t>Existing savings account</t>
+  </si>
+  <si>
+    <t>Existing current account</t>
+  </si>
+  <si>
+    <t>Only Spaces in account number</t>
+  </si>
+  <si>
+    <t>Deleted account number</t>
+  </si>
+  <si>
+    <t>Account number exceeding 10 digits</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>#$%%^</t>
+  </si>
+  <si>
+    <t>Pass - Guru99 Bank Manager HomePage</t>
+  </si>
+  <si>
+    <t>Balance Details for Account</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Pass - Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Account does not exist</t>
+  </si>
+  <si>
+    <t>balBefore</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>currentbal</t>
+  </si>
+  <si>
+    <t>You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>fourth deposit</t>
+  </si>
+  <si>
+    <t>Transaction details of Deposit for Account</t>
+  </si>
+  <si>
+    <t>800</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1349,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1332,8 +1410,53 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1965,12 +2088,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2042,6 +2300,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2051,7 +2319,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2335,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="E9" workbookViewId="0">
+    <sheetView topLeftCell="H13" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -2361,7 +2628,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="75" t="s">
         <v>328</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2373,7 +2640,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="H8" s="65"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="1" t="s">
         <v>331</v>
       </c>
@@ -2383,7 +2650,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
-      <c r="H9" s="65"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="1" t="s">
         <v>332</v>
       </c>
@@ -2445,95 +2712,67 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="H17" s="67">
-        <v>2102</v>
+      <c r="H17" s="77">
+        <v>37672</v>
       </c>
       <c r="I17" s="58">
-        <v>39275</v>
-      </c>
-      <c r="J17" s="58">
-        <v>5010</v>
-      </c>
+        <v>39905</v>
+      </c>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="61"/>
-      <c r="H18" s="67"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="58">
-        <v>39280</v>
-      </c>
-      <c r="J18" s="58">
-        <v>3500</v>
-      </c>
+        <v>39906</v>
+      </c>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="58">
-        <v>39281</v>
-      </c>
-      <c r="J19" s="58">
-        <v>1000</v>
-      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="61"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="58">
-        <v>39279</v>
-      </c>
-      <c r="J20" s="58">
-        <v>590</v>
-      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="H21" s="66">
-        <v>94925</v>
-      </c>
-      <c r="I21" s="58">
-        <v>39276</v>
-      </c>
-      <c r="J21" s="58">
-        <v>500</v>
-      </c>
+      <c r="H21" s="76"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="58">
-        <v>39277</v>
-      </c>
-      <c r="J22" s="58">
-        <v>5001</v>
-      </c>
+      <c r="H22" s="76"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="58">
-        <v>39278</v>
-      </c>
-      <c r="J23" s="1">
-        <v>600</v>
-      </c>
+      <c r="H23" s="76"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="H24" s="66">
-        <v>89280</v>
-      </c>
+      <c r="H24" s="76"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
-      <c r="H25" s="66"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
-      <c r="H26" s="66"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -2632,31 +2871,215 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="R13:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R13" s="68" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="1">
+        <v>39905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="1">
+        <v>39906</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R14" s="68" t="s">
+      <c r="E7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39276</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34587690128</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14" s="65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R15" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
         <v>389</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2689,7 +3112,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>336</v>
@@ -2744,7 +3167,9 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="74" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6575,7 +7000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6607,8 +7032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6616,7 +7041,7 @@
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6920,32 +7345,97 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J12"/>
+  <dimension ref="H1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="1">
+        <v>39905</v>
+      </c>
+      <c r="K2" s="1">
+        <v>800</v>
+      </c>
+      <c r="L2" s="1">
+        <v>250</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="23" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U24" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="27" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J12" s="68" t="s">
-        <v>388</v>
+    <row r="28" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
     <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
     <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
-    <sheet name="Deposit" sheetId="11" r:id="rId9"/>
+    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
     <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
     <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
     <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
@@ -35,8 +35,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to create new accounts else balBefore would be wrong</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="450">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1202,18 +1236,9 @@
     <t>You Have Succesfully Logged Out!!</t>
   </si>
   <si>
-    <t>Transaction details of Deposit for Account 39275</t>
-  </si>
-  <si>
     <t>pop-up &gt; Account does not exist</t>
   </si>
   <si>
-    <t>Get the balance from balEnquiry as one of the input here and add the amount to validate the latest balance after deposit</t>
-  </si>
-  <si>
-    <t>Write the latest balance to withdrawal to get the base</t>
-  </si>
-  <si>
     <t>mngr124532</t>
   </si>
   <si>
@@ -1283,20 +1308,125 @@
     <t>You are not authorize to deposit money in this account!!</t>
   </si>
   <si>
-    <t>fourth deposit</t>
-  </si>
-  <si>
     <t>Transaction details of Deposit for Account</t>
   </si>
   <si>
     <t>800</t>
+  </si>
+  <si>
+    <t>savings investment</t>
+  </si>
+  <si>
+    <t>current investment</t>
+  </si>
+  <si>
+    <t>Deleting the account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Deleting the customer id created by a different manager id</t>
+  </si>
+  <si>
+    <t>Account created by a different manager id</t>
+  </si>
+  <si>
+    <t>deleted account</t>
+  </si>
+  <si>
+    <t>Unauthorized account</t>
+  </si>
+  <si>
+    <t>blank account</t>
+  </si>
+  <si>
+    <t>only spaces</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>Pass - You Have Succesfully Logged Out!!</t>
+  </si>
+  <si>
+    <t>Exisitng account with 500 balance</t>
+  </si>
+  <si>
+    <t>Blank amount</t>
+  </si>
+  <si>
+    <t>Only spaces in amount</t>
+  </si>
+  <si>
+    <t>Characters in amount</t>
+  </si>
+  <si>
+    <t>Special characters in amount</t>
+  </si>
+  <si>
+    <t>Amount field must not be blank</t>
+  </si>
+  <si>
+    <t>Amount greater than 100000</t>
+  </si>
+  <si>
+    <t>Blank description</t>
+  </si>
+  <si>
+    <t>Description can not be blank</t>
+  </si>
+  <si>
+    <t>Only spaces in description</t>
+  </si>
+  <si>
+    <t>Numbers in description</t>
+  </si>
+  <si>
+    <t>Special characters in description</t>
+  </si>
+  <si>
+    <t>%^&amp;*(</t>
+  </si>
+  <si>
+    <t>Description exceeding 10 characters</t>
+  </si>
+  <si>
+    <t>SampleDeposit</t>
+  </si>
+  <si>
+    <t>All three fields blank</t>
+  </si>
+  <si>
+    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>Transaction details of Withdrawal for Account</t>
+  </si>
+  <si>
+    <t>You are not authorize to debit money from this account!!</t>
+  </si>
+  <si>
+    <t>HighAmount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,8 +1478,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1455,8 +1605,58 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -2223,12 +2423,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2309,7 +2629,10 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2319,6 +2642,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2600,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J53"/>
+  <dimension ref="B3:J55"/>
   <sheetViews>
     <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,7 +2973,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="78" t="s">
         <v>328</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2640,7 +2985,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="H8" s="75"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="1" t="s">
         <v>331</v>
       </c>
@@ -2650,7 +2995,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
-      <c r="H9" s="75"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="1" t="s">
         <v>332</v>
       </c>
@@ -2712,133 +3057,153 @@
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="H17" s="77">
+      <c r="H17" s="80">
         <v>37672</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="75">
         <v>39905</v>
       </c>
       <c r="J17" s="58"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="61"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="58">
+      <c r="H18" s="80"/>
+      <c r="I18" s="75">
         <v>39906</v>
       </c>
       <c r="J18" s="58"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="1">
+        <v>39946</v>
+      </c>
       <c r="J19" s="58"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="58"/>
+      <c r="B20" s="88"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="89">
+        <v>39947</v>
+      </c>
       <c r="J20" s="58"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="88"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="89">
+        <v>39948</v>
+      </c>
       <c r="J21" s="58"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="58"/>
+      <c r="B22" s="61"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="89">
+        <v>39949</v>
+      </c>
       <c r="J22" s="58"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="H23" s="76"/>
+      <c r="B23" s="17"/>
+      <c r="H23" s="79"/>
       <c r="I23" s="58"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="1"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="H26" s="76"/>
+      <c r="B26" s="20"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="21"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
+      <c r="B28" s="22"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
+      <c r="B30" s="31"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
+      <c r="B31" s="32"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="34"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="35"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
+      <c r="B35" s="36"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
+      <c r="B37" s="37"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="40"/>
+      <c r="B38" s="38"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="43"/>
+      <c r="B39" s="39"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="40"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="41"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="44"/>
+      <c r="B44" s="42"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
+      <c r="B45" s="43"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="46"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="47"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="48"/>
+      <c r="B47" s="45"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="46"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="47"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="H26:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -2846,14 +3211,495 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="91">
+        <v>39947</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="51">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="49">
+        <v>39948</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="51">
+        <v>400</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="49">
+        <v>39949</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="1">
+        <v>39908</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>100001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="49">
+        <v>39905</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2810</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="101">
+        <v>39947</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="1">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1">
+        <v>123345</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="89">
+        <v>39948</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2810</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" s="89">
+        <v>39947</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2898,7 +3744,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -2909,19 +3755,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1">
         <v>39905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2929,19 +3775,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C3" s="1">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2959,7 +3805,7 @@
         <v>385</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2967,10 +3813,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>133</v>
@@ -2979,7 +3825,7 @@
         <v>385</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2990,7 +3836,7 @@
         <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>133</v>
@@ -2999,7 +3845,7 @@
         <v>385</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3010,7 +3856,7 @@
         <v>374</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
@@ -3019,7 +3865,7 @@
         <v>385</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3027,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
@@ -3039,7 +3885,7 @@
         <v>385</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3047,7 +3893,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
@@ -3059,7 +3905,7 @@
         <v>385</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -3074,7 +3920,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +3957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3159,7 +4005,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>336</v>
@@ -3167,8 +4013,8 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="74" t="s">
-        <v>402</v>
+      <c r="G2" s="76" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,7 +4148,9 @@
       <c r="F9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="77" t="s">
+        <v>429</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6010,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6380,7 +7228,9 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="52"/>
+      <c r="B27" s="74" t="s">
+        <v>417</v>
+      </c>
       <c r="C27" s="52"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7030,10 +7880,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7337,6 +8187,11 @@
       </c>
       <c r="E21" s="51"/>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="74" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -7345,101 +8200,504 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:U28"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="49">
+        <v>39905</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2810</v>
+      </c>
+      <c r="E2" s="51">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="49">
+        <v>39906</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="51">
+        <v>400</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>385</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="96" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="I7" s="97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>385</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="1">
+        <v>39908</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="H9" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="99" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>100001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="100" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="49">
+        <v>39905</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2810</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="49">
+        <v>39906</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="1">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1">
+        <v>123345</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="B18" s="100" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="1">
         <v>39905</v>
       </c>
-      <c r="K2" s="1">
-        <v>800</v>
-      </c>
-      <c r="L2" s="1">
-        <v>250</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="23" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U24" s="65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U27" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="28" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U28" t="s">
-        <v>414</v>
-      </c>
+      <c r="D18" s="1">
+        <v>2810</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>443</v>
+      </c>
+      <c r="C19" s="1">
+        <v>39906</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2300</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,76 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="9"/>
+    <workbookView activeTab="9" firstSheet="1" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
-    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
-    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
-    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
-    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
-    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
-    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
-    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
-    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
-    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
-    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
-    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
-    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
-    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
+    <sheet name="LoginLogout" r:id="rId2" sheetId="1"/>
+    <sheet name="NewCust" r:id="rId3" sheetId="2"/>
+    <sheet name="EditCust" r:id="rId4" sheetId="3"/>
+    <sheet name="DeleteCust" r:id="rId5" sheetId="7"/>
+    <sheet name="NewAcct" r:id="rId6" sheetId="8"/>
+    <sheet name="EditAcct" r:id="rId7" sheetId="9"/>
+    <sheet name="DeleteAcct" r:id="rId8" sheetId="10"/>
+    <sheet name="Deposit" r:id="rId9" sheetId="18"/>
+    <sheet name="Withdrawal" r:id="rId10" sheetId="12"/>
+    <sheet name="FundTransfer" r:id="rId11" sheetId="13"/>
+    <sheet name="BalEnquiry" r:id="rId12" sheetId="17"/>
+    <sheet name="MiniStat" r:id="rId13" sheetId="15"/>
+    <sheet name="CustStat" r:id="rId14" sheetId="16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$52</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$26</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$M$1:$M$52</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Need to create new accounts else balBefore would be wrong</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="460">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1380,9 +1346,6 @@
     <t>Amount field must not be blank</t>
   </si>
   <si>
-    <t>Amount greater than 100000</t>
-  </si>
-  <si>
     <t>Blank description</t>
   </si>
   <si>
@@ -1420,13 +1383,47 @@
   </si>
   <si>
     <t>HighAmount</t>
+  </si>
+  <si>
+    <t>Transaction Failed. Account Balance Low!!!</t>
+  </si>
+  <si>
+    <t>Amount greater than 999999</t>
+  </si>
+  <si>
+    <t>%^&amp;*</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Amount greater than balBefore</t>
+  </si>
+  <si>
+    <t>Amount greater than 99999999</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>490</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,20 +1483,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,7 +1633,37 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
@@ -1655,8 +1677,113 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -2490,9 +2617,7 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -2543,134 +2668,584 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="115">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="21" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="16" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="20" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="22" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="32" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="53" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="55" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="58" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="59" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="109" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="109" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2687,10 +3262,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2725,7 +3300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2760,7 +3335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2854,21 +3429,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2885,7 +3460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2937,15 +3512,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K55"/>
   <sheetViews>
     <sheetView topLeftCell="H13" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
@@ -2953,10 +3528,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="24" collapsed="1"/>
-    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="7" max="7" style="24" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -2973,7 +3548,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="100" t="s">
         <v>328</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2985,7 +3560,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="H8" s="78"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="1" t="s">
         <v>331</v>
       </c>
@@ -2995,7 +3570,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="25"/>
-      <c r="H9" s="78"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="1" t="s">
         <v>332</v>
       </c>
@@ -3043,7 +3618,7 @@
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
     </row>
-    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="29"/>
       <c r="H16" s="59" t="s">
         <v>333</v>
@@ -3055,9 +3630,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="30"/>
-      <c r="H17" s="80">
+      <c r="H17" s="102">
         <v>37672</v>
       </c>
       <c r="I17" s="75">
@@ -3065,79 +3640,79 @@
       </c>
       <c r="J17" s="58"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="61"/>
-      <c r="H18" s="80"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="75">
         <v>39906</v>
       </c>
       <c r="J18" s="58"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="61"/>
-      <c r="H19" s="80"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="1">
         <v>39946</v>
       </c>
       <c r="J19" s="58"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="88"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="89">
+    <row ht="15.75" r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="80"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="81">
         <v>39947</v>
       </c>
       <c r="J20" s="58"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="88"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="89">
+    <row ht="15.75" r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="80"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="81">
         <v>39948</v>
       </c>
       <c r="J21" s="58"/>
     </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="61"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="89">
+      <c r="H22" s="102"/>
+      <c r="I22" s="81">
         <v>39949</v>
       </c>
       <c r="J22" s="58"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
-      <c r="H23" s="79"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
     </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
-      <c r="H24" s="79"/>
+      <c r="H24" s="101"/>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
     </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="H25" s="79"/>
+      <c r="H25" s="101"/>
       <c r="I25" s="58"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
-      <c r="H26" s="79"/>
+      <c r="H26" s="101"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
-      <c r="H27" s="79"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="22"/>
-      <c r="H28" s="79"/>
+      <c r="H28" s="101"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
@@ -3205,23 +3780,26 @@
     <mergeCell ref="H17:H22"/>
     <mergeCell ref="H26:H28"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="87.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3260,11 +3838,11 @@
       <c r="B2" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="82">
         <v>39947</v>
       </c>
-      <c r="D2" s="1">
-        <v>1000</v>
+      <c r="D2" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="E2" s="51">
         <v>200</v>
@@ -3273,10 +3851,14 @@
         <v>414</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
+        <v>446</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3288,8 +3870,8 @@
       <c r="C3" s="49">
         <v>39948</v>
       </c>
-      <c r="D3" s="1">
-        <v>4000</v>
+      <c r="D3" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="E3" s="51">
         <v>400</v>
@@ -3298,10 +3880,14 @@
         <v>415</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+        <v>446</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="I3" s="96" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3313,16 +3899,24 @@
       <c r="C4" s="49">
         <v>39949</v>
       </c>
-      <c r="D4" s="1">
-        <v>500</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" s="51">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>456</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+        <v>446</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3344,8 +3938,8 @@
       <c r="G5" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3369,8 +3963,8 @@
       <c r="G6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3394,8 +3988,8 @@
       <c r="G7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3419,8 +4013,8 @@
       <c r="G8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3444,8 +4038,8 @@
       <c r="G9" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3467,22 +4061,28 @@
         <v>420</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+        <v>447</v>
+      </c>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="91" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>39947</v>
+      </c>
+      <c r="D11" s="1">
+        <v>990</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>435</v>
       </c>
@@ -3493,13 +4093,21 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12" s="1">
+        <v>39947</v>
+      </c>
+      <c r="D12" s="1">
+        <v>990</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>133</v>
       </c>
@@ -3510,13 +4118,21 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="91" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="C13" s="1">
+        <v>39947</v>
+      </c>
+      <c r="D13" s="1">
+        <v>990</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>133</v>
       </c>
@@ -3527,13 +4143,21 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="91" t="s">
         <v>434</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1">
+        <v>39947</v>
+      </c>
+      <c r="D14" s="1">
+        <v>990</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>123</v>
       </c>
@@ -3544,21 +4168,23 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="91" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15" s="93">
+        <v>39978</v>
+      </c>
       <c r="D15" s="1">
-        <v>100001</v>
+        <v>9043732</v>
       </c>
       <c r="E15" s="1">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3567,15 +4193,21 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>437</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="1">
+        <v>39947</v>
+      </c>
+      <c r="D16" s="1">
+        <v>990</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3584,23 +4216,23 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="100" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="49">
-        <v>39905</v>
+      <c r="B17" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="82">
+        <v>39974</v>
       </c>
       <c r="D17" s="1">
-        <v>2810</v>
+        <v>4000</v>
       </c>
       <c r="E17" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -3609,23 +4241,23 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="100" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="101">
-        <v>39947</v>
+      <c r="B18" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="82">
+        <v>39975</v>
       </c>
       <c r="D18" s="1">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="E18" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1">
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -3634,23 +4266,23 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="100" t="s">
-        <v>441</v>
-      </c>
-      <c r="C19" s="89">
-        <v>39948</v>
+      <c r="B19" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="82">
+        <v>39976</v>
       </c>
       <c r="D19" s="1">
-        <v>2810</v>
+        <v>5000</v>
       </c>
       <c r="E19" s="1">
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3659,23 +4291,23 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="100" t="s">
-        <v>443</v>
-      </c>
-      <c r="C20" s="89">
-        <v>39947</v>
+      <c r="B20" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20" s="82">
+        <v>39977</v>
       </c>
       <c r="D20" s="1">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3684,40 +4316,65 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="100" t="s">
-        <v>445</v>
+      <c r="B21" s="91" t="s">
+        <v>444</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="91">
+        <v>21</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" s="1">
+        <v>39979</v>
+      </c>
+      <c r="D22" s="1">
+        <v>850</v>
+      </c>
+      <c r="E22" s="1">
+        <v>855</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3725,9 +4382,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3924,51 +4581,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4013,7 +4670,7 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="113" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4148,25 +4805,25 @@
       <c r="F9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="105" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
-    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
-    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId2" ref="C3:C5"/>
+    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId3" ref="C6:C8"/>
+    <hyperlink r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId5"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:A51"/>
@@ -4174,13 +4831,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="66.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6349,78 +7006,78 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="L48" r:id="rId18"/>
-    <hyperlink ref="K19" r:id="rId19"/>
-    <hyperlink ref="K20" r:id="rId20"/>
-    <hyperlink ref="K21" r:id="rId21"/>
-    <hyperlink ref="K22" r:id="rId22"/>
-    <hyperlink ref="K23" r:id="rId23"/>
-    <hyperlink ref="K24" r:id="rId24"/>
-    <hyperlink ref="K25" r:id="rId25"/>
-    <hyperlink ref="K26" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="K28" r:id="rId28"/>
-    <hyperlink ref="K29" r:id="rId29"/>
-    <hyperlink ref="K30" r:id="rId30"/>
-    <hyperlink ref="K31" r:id="rId31"/>
-    <hyperlink ref="K32" r:id="rId32"/>
-    <hyperlink ref="K33" r:id="rId33"/>
-    <hyperlink ref="K34" r:id="rId34"/>
-    <hyperlink ref="K35" r:id="rId35"/>
-    <hyperlink ref="K36" r:id="rId36"/>
-    <hyperlink ref="K37" r:id="rId37"/>
-    <hyperlink ref="K38" r:id="rId38"/>
-    <hyperlink ref="K39" r:id="rId39"/>
-    <hyperlink ref="K42" r:id="rId40" display="roo@test.com"/>
-    <hyperlink ref="K43" r:id="rId41"/>
-    <hyperlink ref="K44" r:id="rId42" display="dar@test.com"/>
-    <hyperlink ref="K46" r:id="rId43"/>
-    <hyperlink ref="K47" r:id="rId44"/>
-    <hyperlink ref="K48" r:id="rId45"/>
-    <hyperlink ref="K49" r:id="rId46"/>
-    <hyperlink ref="K50" r:id="rId47"/>
-    <hyperlink ref="K45" r:id="rId48" display="kei@test.com"/>
-    <hyperlink ref="K12" r:id="rId49" display="simran@test.com"/>
+    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink r:id="rId2" ref="K3"/>
+    <hyperlink r:id="rId3" ref="K4"/>
+    <hyperlink r:id="rId4" ref="K5"/>
+    <hyperlink r:id="rId5" ref="K6"/>
+    <hyperlink r:id="rId6" ref="K7"/>
+    <hyperlink r:id="rId7" ref="K8"/>
+    <hyperlink r:id="rId8" ref="K9"/>
+    <hyperlink r:id="rId9" ref="K10"/>
+    <hyperlink r:id="rId10" ref="K11"/>
+    <hyperlink r:id="rId11" ref="K12"/>
+    <hyperlink r:id="rId12" ref="K13"/>
+    <hyperlink r:id="rId13" ref="K14"/>
+    <hyperlink r:id="rId14" ref="K15"/>
+    <hyperlink r:id="rId15" ref="K16"/>
+    <hyperlink r:id="rId16" ref="K17"/>
+    <hyperlink r:id="rId17" ref="K18"/>
+    <hyperlink r:id="rId18" ref="L48"/>
+    <hyperlink r:id="rId19" ref="K19"/>
+    <hyperlink r:id="rId20" ref="K20"/>
+    <hyperlink r:id="rId21" ref="K21"/>
+    <hyperlink r:id="rId22" ref="K22"/>
+    <hyperlink r:id="rId23" ref="K23"/>
+    <hyperlink r:id="rId24" ref="K24"/>
+    <hyperlink r:id="rId25" ref="K25"/>
+    <hyperlink r:id="rId26" ref="K26"/>
+    <hyperlink r:id="rId27" ref="K27"/>
+    <hyperlink r:id="rId28" ref="K28"/>
+    <hyperlink r:id="rId29" ref="K29"/>
+    <hyperlink r:id="rId30" ref="K30"/>
+    <hyperlink r:id="rId31" ref="K31"/>
+    <hyperlink r:id="rId32" ref="K32"/>
+    <hyperlink r:id="rId33" ref="K33"/>
+    <hyperlink r:id="rId34" ref="K34"/>
+    <hyperlink r:id="rId35" ref="K35"/>
+    <hyperlink r:id="rId36" ref="K36"/>
+    <hyperlink r:id="rId37" ref="K37"/>
+    <hyperlink r:id="rId38" ref="K38"/>
+    <hyperlink r:id="rId39" ref="K39"/>
+    <hyperlink display="roo@test.com" r:id="rId40" ref="K42"/>
+    <hyperlink r:id="rId41" ref="K43"/>
+    <hyperlink display="dar@test.com" r:id="rId42" ref="K44"/>
+    <hyperlink r:id="rId43" ref="K46"/>
+    <hyperlink r:id="rId44" ref="K47"/>
+    <hyperlink r:id="rId45" ref="K48"/>
+    <hyperlink r:id="rId46" ref="K49"/>
+    <hyperlink r:id="rId47" ref="K50"/>
+    <hyperlink display="kei@test.com" r:id="rId48" ref="K45"/>
+    <hyperlink display="simran@test.com" r:id="rId49" ref="K12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId50"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId50"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6675,7 +7332,7 @@
       </c>
       <c r="K8" s="51"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6818,7 +7475,7 @@
       </c>
       <c r="K15" s="51"/>
     </row>
-    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6841,22 +7498,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="I5"/>
+    <hyperlink r:id="rId5" ref="I6"/>
+    <hyperlink r:id="rId6" ref="I7"/>
+    <hyperlink r:id="rId7" ref="I8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -6864,10 +7521,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7196,7 +7853,7 @@
       </c>
       <c r="E24" s="51"/>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>24</v>
       </c>
@@ -7244,14 +7901,14 @@
       <c r="C29" s="52"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -7259,12 +7916,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7836,13 +8493,13 @@
       <c r="H26" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -7850,7 +8507,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7874,13 +8531,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -7888,10 +8545,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8172,7 +8829,7 @@
       </c>
       <c r="E20" s="51"/>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -8193,24 +8850,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="51.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8264,10 +8922,10 @@
       <c r="G2" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="83" t="s">
         <v>428</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="83" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8293,10 +8951,10 @@
       <c r="G3" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="93" t="s">
+      <c r="H3" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="84" t="s">
         <v>401</v>
       </c>
     </row>
@@ -8320,10 +8978,10 @@
       <c r="G4" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="I4" s="94" t="s">
+      <c r="I4" s="85" t="s">
         <v>403</v>
       </c>
     </row>
@@ -8349,10 +9007,10 @@
       <c r="G5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="86" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8378,10 +9036,10 @@
       <c r="G6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="87" t="s">
         <v>385</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="87" t="s">
         <v>404</v>
       </c>
     </row>
@@ -8407,10 +9065,10 @@
       <c r="G7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="88" t="s">
         <v>405</v>
       </c>
     </row>
@@ -8436,10 +9094,10 @@
       <c r="G8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="89" t="s">
         <v>385</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="89" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8465,10 +9123,10 @@
       <c r="G9" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="90" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8476,7 +9134,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="91" t="s">
         <v>431</v>
       </c>
       <c r="C10" s="1"/>
@@ -8493,7 +9151,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="91" t="s">
         <v>432</v>
       </c>
       <c r="C11" s="1"/>
@@ -8510,7 +9168,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="91" t="s">
         <v>433</v>
       </c>
       <c r="C12" s="1"/>
@@ -8527,7 +9185,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="91" t="s">
         <v>434</v>
       </c>
       <c r="C13" s="1"/>
@@ -8544,18 +9202,15 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>436</v>
+      <c r="B14" s="91" t="s">
+        <v>450</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>100001</v>
-      </c>
       <c r="E14" s="1">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>412</v>
@@ -8567,15 +9222,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>437</v>
+      <c r="B15" s="91" t="s">
+        <v>436</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -8584,8 +9239,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>439</v>
+      <c r="B16" s="91" t="s">
+        <v>438</v>
       </c>
       <c r="C16" s="49">
         <v>39905</v>
@@ -8609,8 +9264,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="100" t="s">
-        <v>440</v>
+      <c r="B17" s="91" t="s">
+        <v>439</v>
       </c>
       <c r="C17" s="49">
         <v>39906</v>
@@ -8634,8 +9289,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="100" t="s">
-        <v>441</v>
+      <c r="B18" s="91" t="s">
+        <v>440</v>
       </c>
       <c r="C18" s="1">
         <v>39905</v>
@@ -8647,7 +9302,7 @@
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>412</v>
@@ -8659,8 +9314,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="100" t="s">
-        <v>443</v>
+      <c r="B19" s="91" t="s">
+        <v>442</v>
       </c>
       <c r="C19" s="1">
         <v>39906</v>
@@ -8672,7 +9327,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>412</v>
@@ -8684,20 +9339,20 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="100" t="s">
-        <v>445</v>
+      <c r="B20" s="91" t="s">
+        <v>444</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,42 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="1" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
-    <sheet name="LoginLogout" r:id="rId2" sheetId="1"/>
-    <sheet name="NewCust" r:id="rId3" sheetId="2"/>
-    <sheet name="EditCust" r:id="rId4" sheetId="3"/>
-    <sheet name="DeleteCust" r:id="rId5" sheetId="7"/>
-    <sheet name="NewAcct" r:id="rId6" sheetId="8"/>
-    <sheet name="EditAcct" r:id="rId7" sheetId="9"/>
-    <sheet name="DeleteAcct" r:id="rId8" sheetId="10"/>
-    <sheet name="Deposit" r:id="rId9" sheetId="18"/>
-    <sheet name="Withdrawal" r:id="rId10" sheetId="12"/>
-    <sheet name="FundTransfer" r:id="rId11" sheetId="13"/>
-    <sheet name="BalEnquiry" r:id="rId12" sheetId="17"/>
-    <sheet name="MiniStat" r:id="rId13" sheetId="15"/>
-    <sheet name="CustStat" r:id="rId14" sheetId="16"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
+    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
+    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
+    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
+    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
+    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
+    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
+    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
+    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
+    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
+    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
+    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$26</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$M$1:$M$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$52</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check for account no insertion while creating the account</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check for the account no insertion while creating the account</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to write the account numbers into excel as part of add account function</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Check for account no insertion while creating the account</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Complete the data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="552">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1022,9 +1192,6 @@
     <t>jos@guest.com</t>
   </si>
   <si>
-    <t>http://demo.guru99.com/v4/manager/Managerhomepage.php</t>
-  </si>
-  <si>
     <t>You are not authorize to edit this customer!!</t>
   </si>
   <si>
@@ -1205,9 +1372,6 @@
     <t>pop-up &gt; Account does not exist</t>
   </si>
   <si>
-    <t>mngr124532</t>
-  </si>
-  <si>
     <t>Existing savings account</t>
   </si>
   <si>
@@ -1416,14 +1580,295 @@
   </si>
   <si>
     <t>490</t>
+  </si>
+  <si>
+    <t>mngr128501</t>
+  </si>
+  <si>
+    <t>Add a bank account to a customer id created by a different manager</t>
+  </si>
+  <si>
+    <t>You are not authorize to generate statement of this Account!!</t>
+  </si>
+  <si>
+    <t>Payers account No and Payees account No Must Not be Same!!!</t>
+  </si>
+  <si>
+    <t>payersacctnum</t>
+  </si>
+  <si>
+    <t>payeesacctnum</t>
+  </si>
+  <si>
+    <t>Blank payer's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payer's account number</t>
+  </si>
+  <si>
+    <t>Characters in payer's account number</t>
+  </si>
+  <si>
+    <t>Special characters inpayer's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payer's account number</t>
+  </si>
+  <si>
+    <t>Payer's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Blank payee's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payee's account number</t>
+  </si>
+  <si>
+    <t>Characters in payee's account number</t>
+  </si>
+  <si>
+    <t>Special characters in payee's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payee's account number</t>
+  </si>
+  <si>
+    <t>Payee's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>All four fields blank</t>
+  </si>
+  <si>
+    <t>Same payer's and payee's account number</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>#$%</t>
+  </si>
+  <si>
+    <t>Account 98765does not exist!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>&amp;&amp;^%</t>
+  </si>
+  <si>
+    <t>Account 39946does not exist!!!</t>
+  </si>
+  <si>
+    <t>test desc</t>
+  </si>
+  <si>
+    <t>%^&amp;</t>
+  </si>
+  <si>
+    <t>Amount greater than balance in payer's account</t>
+  </si>
+  <si>
+    <t>Transfer Failed. Account Balance low!!</t>
+  </si>
+  <si>
+    <t>Fund Transfer Details</t>
+  </si>
+  <si>
+    <t>Description exceeding 20 characters</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payees Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>description exceed 20</t>
+  </si>
+  <si>
+    <t>%^^*</t>
+  </si>
+  <si>
+    <t>same accounts</t>
+  </si>
+  <si>
+    <t>Adding a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Jishna</t>
+  </si>
+  <si>
+    <t>6 9th cross MK road</t>
+  </si>
+  <si>
+    <t>jishna@test.com</t>
+  </si>
+  <si>
+    <t>Editing a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Deleting a customer id with direct link without logging in</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/EditCustomer.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/addcustomerpage.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/DeleteCustomerInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/addAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/editAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/deleteAccountInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/DepositInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/WithdrawalInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/FundTransInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/PasswordInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/BalEnqInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/MiniStatementInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/v4/manager/CustomisedStatementInput.php</t>
+  </si>
+  <si>
+    <t>You are not authorize to get Balance details of this account!!</t>
+  </si>
+  <si>
+    <t>not found page</t>
+  </si>
+  <si>
+    <t>You are not authorize to do fund transfer!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to delete this Account!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to edit this Account!!</t>
+  </si>
+  <si>
+    <t>Blank page</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Change savings to current</t>
+  </si>
+  <si>
+    <t>Change savings to savings</t>
+  </si>
+  <si>
+    <t>Change current to savings</t>
+  </si>
+  <si>
+    <t>Change current to current</t>
+  </si>
+  <si>
+    <t>No Changes made to Account records</t>
+  </si>
+  <si>
+    <t>Account details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Change account type of the account created  by a different manager</t>
+  </si>
+  <si>
+    <t>Last Five Transaction Details for Account No</t>
+  </si>
+  <si>
+    <t>fromdate</t>
+  </si>
+  <si>
+    <t>todate</t>
+  </si>
+  <si>
+    <t>mintransval</t>
+  </si>
+  <si>
+    <t>numoftrans</t>
+  </si>
+  <si>
+    <t>Blank from date</t>
+  </si>
+  <si>
+    <t>Future from date</t>
+  </si>
+  <si>
+    <t>Blank to date</t>
+  </si>
+  <si>
+    <t>Past to date</t>
+  </si>
+  <si>
+    <t>FromDate field should be lower than ToDate field!!</t>
+  </si>
+  <si>
+    <t>From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>To Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank min trans value</t>
+  </si>
+  <si>
+    <t>Only spaces in min trans value</t>
+  </si>
+  <si>
+    <t>Characters in min trans value</t>
+  </si>
+  <si>
+    <t>Special characters in min trans value</t>
+  </si>
+  <si>
+    <t>No Transaction details found !!!</t>
+  </si>
+  <si>
+    <t>Minimum transaction value exceeding the actual transaction values</t>
+  </si>
+  <si>
+    <t>Blank number of trans</t>
+  </si>
+  <si>
+    <t>Only spaces in number of trans</t>
+  </si>
+  <si>
+    <t>Characters in number of trans</t>
+  </si>
+  <si>
+    <t>Special characters in number of trans</t>
+  </si>
+  <si>
+    <t>Number of transactions is zero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1490,8 +1935,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,128 +2120,8 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="110">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -2699,553 +3037,177 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="115">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="21" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="16" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="20" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="22" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="32" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="41" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="42" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="43" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="44" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="45" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="46" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="47" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="48" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="49" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="50" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="51" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="52" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="53" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="54" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="55" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="56" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="57" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="58" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="59" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="60" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="61" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="69" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="69" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="77" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="77" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="85" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="85" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="93" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="93" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="101" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="101" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="109" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="109" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3262,10 +3224,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3300,7 +3262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3335,7 +3297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3429,21 +3391,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3460,7 +3422,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3512,294 +3474,379 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="7" max="7" style="24" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="46.85546875" collapsed="true"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="23" collapsed="1"/>
+    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="H7" s="100" t="s">
-        <v>328</v>
+      <c r="B7" s="12"/>
+      <c r="H7" s="113" t="s">
+        <v>503</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="H8" s="100"/>
+      <c r="B8" s="12"/>
+      <c r="H8" s="113" t="s">
+        <v>502</v>
+      </c>
       <c r="I8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="H9" s="113" t="s">
+        <v>504</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="57" t="s">
-        <v>341</v>
+      <c r="I10" s="55" t="s">
+        <v>340</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="B11" s="14"/>
+      <c r="H11" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="112" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="B12" s="25"/>
+      <c r="H12" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="B13" s="114"/>
+      <c r="H13" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="B14" s="114"/>
+      <c r="H14" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row ht="15.75" r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
-      <c r="H16" s="59" t="s">
+      <c r="B15" s="114"/>
+      <c r="H15" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="114"/>
+      <c r="H16" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="114"/>
+      <c r="H17" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="114"/>
+      <c r="H18" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="H19" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="H20" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="114"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="H23" s="57" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="J23" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="J16" s="60" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row ht="15.75" r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="H17" s="102">
+    </row>
+    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="H24" s="99">
         <v>37672</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I24" s="73">
         <v>39905</v>
       </c>
-      <c r="J17" s="58"/>
-    </row>
-    <row ht="15.75" r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="75">
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="73">
         <v>39906</v>
       </c>
-      <c r="J18" s="58"/>
-    </row>
-    <row ht="15.75" r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="1">
+      <c r="J25" s="56"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="1">
         <v>39946</v>
       </c>
-      <c r="J19" s="58"/>
-    </row>
-    <row ht="15.75" r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="81">
+      <c r="J26" s="56"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="78"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="79">
         <v>39947</v>
       </c>
-      <c r="J20" s="58"/>
-    </row>
-    <row ht="15.75" r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="80"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="81">
+      <c r="J27" s="56"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="78"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="79">
         <v>39948</v>
       </c>
-      <c r="J21" s="58"/>
-    </row>
-    <row ht="15.75" r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="81">
+      <c r="J28" s="56"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="59"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="79">
         <v>39949</v>
       </c>
-      <c r="J22" s="58"/>
-    </row>
-    <row ht="15.75" r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row ht="15.75" r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row ht="15.75" r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="41"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="43"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="46"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="47"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="32"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="34"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="36"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="38"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="39"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="40"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="41"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="42"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="43"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="44"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="48"/>
+      <c r="B55" s="45"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="46"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="H26:H28"/>
+  <mergeCells count="3">
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="H33:H35"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="87.85546875" collapsed="true"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="87.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3810,22 +3857,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -3836,28 +3883,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="82">
+        <v>388</v>
+      </c>
+      <c r="C2" s="80">
         <v>39947</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E2" s="51">
+        <v>455</v>
+      </c>
+      <c r="E2" s="50">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>401</v>
+        <v>444</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2" s="93" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3865,28 +3912,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="49">
+        <v>389</v>
+      </c>
+      <c r="C3" s="48">
         <v>39948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" s="51">
+        <v>456</v>
+      </c>
+      <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>458</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>401</v>
+        <v>444</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="94" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3894,28 +3941,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="49">
+        <v>428</v>
+      </c>
+      <c r="C4" s="48">
         <v>39949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E4" s="51">
+        <v>457</v>
+      </c>
+      <c r="E4" s="50">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>459</v>
-      </c>
-      <c r="I4" s="98" t="s">
-        <v>401</v>
+        <v>444</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,7 +3970,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -3933,20 +3980,20 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+        <v>370</v>
+      </c>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>239</v>
@@ -3958,23 +4005,23 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -3983,23 +4030,23 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -4008,20 +4055,20 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1">
         <v>39946</v>
@@ -4033,20 +4080,20 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+        <v>379</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" s="1">
         <v>39908</v>
@@ -4058,20 +4105,20 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
+        <v>445</v>
+      </c>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>431</v>
+      <c r="B11" s="89" t="s">
+        <v>429</v>
       </c>
       <c r="C11" s="1">
         <v>39947</v>
@@ -4081,10 +4128,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4093,8 +4140,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>432</v>
+      <c r="B12" s="89" t="s">
+        <v>430</v>
       </c>
       <c r="C12" s="1">
         <v>39947</v>
@@ -4106,7 +4153,7 @@
         <v>306</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>133</v>
@@ -4118,8 +4165,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>433</v>
+      <c r="B13" s="89" t="s">
+        <v>431</v>
       </c>
       <c r="C13" s="1">
         <v>39947</v>
@@ -4128,10 +4175,10 @@
         <v>990</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>133</v>
@@ -4143,8 +4190,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>434</v>
+      <c r="B14" s="89" t="s">
+        <v>432</v>
       </c>
       <c r="C14" s="1">
         <v>39947</v>
@@ -4153,10 +4200,10 @@
         <v>990</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>123</v>
@@ -4168,10 +4215,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="91" t="s">
-        <v>454</v>
-      </c>
-      <c r="C15" s="93">
+      <c r="B15" s="89" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="91">
         <v>39978</v>
       </c>
       <c r="D15" s="1">
@@ -4181,10 +4228,10 @@
         <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4193,8 +4240,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>436</v>
+      <c r="B16" s="89" t="s">
+        <v>434</v>
       </c>
       <c r="C16" s="1">
         <v>39947</v>
@@ -4207,7 +4254,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4216,10 +4263,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" s="82">
+      <c r="B17" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="80">
         <v>39974</v>
       </c>
       <c r="D17" s="1">
@@ -4232,7 +4279,7 @@
         <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -4241,10 +4288,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="91" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" s="82">
+      <c r="B18" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" s="80">
         <v>39975</v>
       </c>
       <c r="D18" s="1">
@@ -4257,7 +4304,7 @@
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -4266,10 +4313,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="91" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="82">
+      <c r="B19" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="80">
         <v>39976</v>
       </c>
       <c r="D19" s="1">
@@ -4279,10 +4326,10 @@
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -4291,10 +4338,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="91" t="s">
-        <v>442</v>
-      </c>
-      <c r="C20" s="82">
+      <c r="B20" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="80">
         <v>39977</v>
       </c>
       <c r="D20" s="1">
@@ -4304,10 +4351,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -4316,25 +4363,25 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="91" t="s">
-        <v>444</v>
+      <c r="B21" s="89" t="s">
+        <v>442</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="A22" s="89">
         <v>21</v>
       </c>
-      <c r="B22" s="91" t="s">
-        <v>453</v>
+      <c r="B22" s="89" t="s">
+        <v>451</v>
       </c>
       <c r="C22" s="1">
         <v>39979</v>
@@ -4346,45 +4393,634 @@
         <v>855</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="133.5703125" style="106" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>488</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>488</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G5" t="s">
+        <v>490</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="1">
+        <v>98765</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G11" t="s">
+        <v>491</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>98765</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>480</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>39946</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>483</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G21" s="105" t="s">
+        <v>487</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>908</v>
+      </c>
+      <c r="G24" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G25" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G26" s="105" t="s">
+        <v>488</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="105" t="s">
+        <v>492</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="102"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -4395,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -4412,19 +5048,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1">
         <v>39905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4432,19 +5068,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C3" s="1">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>401</v>
+      <c r="F3" s="65" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4452,17 +5088,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>403</v>
+        <v>370</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4470,19 +5106,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>404</v>
+      <c r="E5" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4490,19 +5126,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>404</v>
+        <v>384</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4510,19 +5146,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>405</v>
+        <v>384</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4530,19 +5166,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>406</v>
+        <v>384</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4550,69 +5186,630 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>406</v>
+        <v>384</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S13" s="65" t="s">
+      <c r="S13" s="63" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S14" s="65" t="s">
+      <c r="S14" s="63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1234589087</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1234589087</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>537</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>541</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>542</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>547</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>548</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>550</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -4620,12 +5817,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5703125" collapsed="true"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4662,16 +5859,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="113" t="s">
-        <v>399</v>
+      <c r="G2" s="97" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4693,7 +5890,7 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -4714,7 +5911,7 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -4735,7 +5932,7 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="51"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4754,7 +5951,7 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4773,7 +5970,7 @@
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4790,54 +5987,57 @@
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="60">
         <v>8</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>386</v>
+      <c r="B9" s="60" t="s">
+        <v>385</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>429</v>
+        <v>386</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId2" ref="C3:C5"/>
-    <hyperlink display="http://demo.guru99.com/v4/" r:id="rId3" ref="C6:C8"/>
-    <hyperlink r:id="rId4" ref="E2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
+    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
+    <hyperlink ref="E2" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A51"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="66.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4927,8 +6127,8 @@
       <c r="M2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4970,8 +6170,8 @@
       <c r="M3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -5013,8 +6213,8 @@
       <c r="M4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -5054,8 +6254,8 @@
       <c r="M5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -5097,8 +6297,8 @@
       <c r="M6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -5140,8 +6340,8 @@
       <c r="M7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -5183,8 +6383,8 @@
       <c r="M8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -5226,8 +6426,8 @@
       <c r="M9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -5267,8 +6467,8 @@
       <c r="M10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -5308,8 +6508,8 @@
       <c r="M11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -5351,8 +6551,8 @@
       <c r="M12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -5392,8 +6592,8 @@
       <c r="M13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -5435,8 +6635,8 @@
       <c r="M14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -5478,8 +6678,8 @@
       <c r="M15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -5521,8 +6721,8 @@
       <c r="M16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -5564,8 +6764,8 @@
       <c r="M17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -5587,7 +6787,7 @@
         <v>216</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I18" s="1">
@@ -5605,8 +6805,8 @@
       <c r="M18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -5648,8 +6848,8 @@
       <c r="M19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -5691,8 +6891,8 @@
       <c r="M20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5734,8 +6934,8 @@
       <c r="M21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -5777,8 +6977,8 @@
       <c r="M22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5818,8 +7018,8 @@
       <c r="M23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5861,8 +7061,8 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5904,8 +7104,8 @@
       <c r="M25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5947,8 +7147,8 @@
       <c r="M26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5990,8 +7190,8 @@
       <c r="M27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -6031,8 +7231,8 @@
       <c r="M28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -6074,8 +7274,8 @@
       <c r="M29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -6117,8 +7317,8 @@
       <c r="M30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -6160,8 +7360,8 @@
       <c r="M31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -6203,8 +7403,8 @@
       <c r="M32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -6246,8 +7446,8 @@
       <c r="M33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -6287,8 +7487,8 @@
       <c r="M34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -6330,8 +7530,8 @@
       <c r="M35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -6373,8 +7573,8 @@
       <c r="M36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -6416,8 +7616,8 @@
       <c r="M37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -6459,8 +7659,8 @@
       <c r="M38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -6502,8 +7702,8 @@
       <c r="M39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -6543,8 +7743,8 @@
       <c r="M40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -6577,7 +7777,7 @@
       <c r="J41" s="1">
         <v>4415427819</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="9" t="s">
         <v>284</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -6586,8 +7786,8 @@
       <c r="M41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -6629,8 +7829,8 @@
       <c r="M42" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -6672,8 +7872,8 @@
       <c r="M43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -6715,8 +7915,8 @@
       <c r="M44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -6759,8 +7959,8 @@
       <c r="M45" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -6802,8 +8002,8 @@
       <c r="M46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -6843,8 +8043,8 @@
       <c r="M47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -6886,8 +8086,8 @@
       <c r="M48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -6929,8 +8129,8 @@
       <c r="M49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -6972,8 +8172,8 @@
       <c r="M50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -6995,89 +8195,129 @@
       <c r="M51" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J52" s="8"/>
+      <c r="A52" s="89"/>
+      <c r="B52" s="110" t="s">
+        <v>496</v>
+      </c>
+      <c r="C52" s="89" t="s">
+        <v>497</v>
+      </c>
+      <c r="D52" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="5">
+        <v>30537</v>
+      </c>
+      <c r="F52" s="89" t="s">
+        <v>498</v>
+      </c>
+      <c r="G52" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="89">
+        <v>667875</v>
+      </c>
+      <c r="J52" s="8">
+        <v>9996278123</v>
+      </c>
+      <c r="K52" s="109" t="s">
+        <v>499</v>
+      </c>
+      <c r="L52" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="55"/>
+      <c r="B53" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="K6"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="K8"/>
-    <hyperlink r:id="rId8" ref="K9"/>
-    <hyperlink r:id="rId9" ref="K10"/>
-    <hyperlink r:id="rId10" ref="K11"/>
-    <hyperlink r:id="rId11" ref="K12"/>
-    <hyperlink r:id="rId12" ref="K13"/>
-    <hyperlink r:id="rId13" ref="K14"/>
-    <hyperlink r:id="rId14" ref="K15"/>
-    <hyperlink r:id="rId15" ref="K16"/>
-    <hyperlink r:id="rId16" ref="K17"/>
-    <hyperlink r:id="rId17" ref="K18"/>
-    <hyperlink r:id="rId18" ref="L48"/>
-    <hyperlink r:id="rId19" ref="K19"/>
-    <hyperlink r:id="rId20" ref="K20"/>
-    <hyperlink r:id="rId21" ref="K21"/>
-    <hyperlink r:id="rId22" ref="K22"/>
-    <hyperlink r:id="rId23" ref="K23"/>
-    <hyperlink r:id="rId24" ref="K24"/>
-    <hyperlink r:id="rId25" ref="K25"/>
-    <hyperlink r:id="rId26" ref="K26"/>
-    <hyperlink r:id="rId27" ref="K27"/>
-    <hyperlink r:id="rId28" ref="K28"/>
-    <hyperlink r:id="rId29" ref="K29"/>
-    <hyperlink r:id="rId30" ref="K30"/>
-    <hyperlink r:id="rId31" ref="K31"/>
-    <hyperlink r:id="rId32" ref="K32"/>
-    <hyperlink r:id="rId33" ref="K33"/>
-    <hyperlink r:id="rId34" ref="K34"/>
-    <hyperlink r:id="rId35" ref="K35"/>
-    <hyperlink r:id="rId36" ref="K36"/>
-    <hyperlink r:id="rId37" ref="K37"/>
-    <hyperlink r:id="rId38" ref="K38"/>
-    <hyperlink r:id="rId39" ref="K39"/>
-    <hyperlink display="roo@test.com" r:id="rId40" ref="K42"/>
-    <hyperlink r:id="rId41" ref="K43"/>
-    <hyperlink display="dar@test.com" r:id="rId42" ref="K44"/>
-    <hyperlink r:id="rId43" ref="K46"/>
-    <hyperlink r:id="rId44" ref="K47"/>
-    <hyperlink r:id="rId45" ref="K48"/>
-    <hyperlink r:id="rId46" ref="K49"/>
-    <hyperlink r:id="rId47" ref="K50"/>
-    <hyperlink display="kei@test.com" r:id="rId48" ref="K45"/>
-    <hyperlink display="simran@test.com" r:id="rId49" ref="K12"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K14" r:id="rId13"/>
+    <hyperlink ref="K15" r:id="rId14"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="L48" r:id="rId18"/>
+    <hyperlink ref="K19" r:id="rId19"/>
+    <hyperlink ref="K20" r:id="rId20"/>
+    <hyperlink ref="K21" r:id="rId21"/>
+    <hyperlink ref="K22" r:id="rId22"/>
+    <hyperlink ref="K23" r:id="rId23"/>
+    <hyperlink ref="K24" r:id="rId24"/>
+    <hyperlink ref="K25" r:id="rId25"/>
+    <hyperlink ref="K26" r:id="rId26"/>
+    <hyperlink ref="K27" r:id="rId27"/>
+    <hyperlink ref="K28" r:id="rId28"/>
+    <hyperlink ref="K29" r:id="rId29"/>
+    <hyperlink ref="K30" r:id="rId30"/>
+    <hyperlink ref="K31" r:id="rId31"/>
+    <hyperlink ref="K32" r:id="rId32"/>
+    <hyperlink ref="K33" r:id="rId33"/>
+    <hyperlink ref="K34" r:id="rId34"/>
+    <hyperlink ref="K35" r:id="rId35"/>
+    <hyperlink ref="K36" r:id="rId36"/>
+    <hyperlink ref="K37" r:id="rId37"/>
+    <hyperlink ref="K38" r:id="rId38"/>
+    <hyperlink ref="K39" r:id="rId39"/>
+    <hyperlink ref="K42" r:id="rId40" display="roo@test.com"/>
+    <hyperlink ref="K43" r:id="rId41"/>
+    <hyperlink ref="K44" r:id="rId42" display="dar@test.com"/>
+    <hyperlink ref="K46" r:id="rId43"/>
+    <hyperlink ref="K47" r:id="rId44"/>
+    <hyperlink ref="K48" r:id="rId45"/>
+    <hyperlink ref="K49" r:id="rId46"/>
+    <hyperlink ref="K50" r:id="rId47"/>
+    <hyperlink ref="K45" r:id="rId48" display="kei@test.com"/>
+    <hyperlink ref="K12" r:id="rId49" display="simran@test.com"/>
+    <hyperlink ref="K52" r:id="rId50"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId50"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7144,7 +8384,7 @@
       <c r="J2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -7175,7 +8415,7 @@
       <c r="J3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -7206,7 +8446,7 @@
       <c r="J4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K4" s="51"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7237,7 +8477,7 @@
       <c r="J5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -7268,7 +8508,7 @@
       <c r="J6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7299,7 +8539,7 @@
       <c r="J7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7330,9 +8570,9 @@
       <c r="J8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K8" s="51"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7349,7 +8589,7 @@
       <c r="J9" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="50"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7368,7 +8608,7 @@
       <c r="J10" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7389,7 +8629,7 @@
       <c r="J11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="50"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7410,7 +8650,7 @@
       <c r="J12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7431,7 +8671,7 @@
       <c r="J13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7452,7 +8692,7 @@
       <c r="J14" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7473,13 +8713,13 @@
       <c r="J15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="51"/>
-    </row>
-    <row ht="75" r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>303</v>
       </c>
       <c r="C16" s="1">
@@ -7494,37 +8734,49 @@
       <c r="J16" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="51"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="100"/>
+      <c r="B17" s="111" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="100">
+        <v>12345</v>
+      </c>
+      <c r="J17" t="s">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="I3"/>
-    <hyperlink r:id="rId3" ref="I4"/>
-    <hyperlink r:id="rId4" ref="I5"/>
-    <hyperlink r:id="rId5" ref="I6"/>
-    <hyperlink r:id="rId6" ref="I7"/>
-    <hyperlink r:id="rId7" ref="I8"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7551,11 +8803,11 @@
       <c r="B2" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -7564,11 +8816,11 @@
       <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -7577,11 +8829,11 @@
       <c r="B4" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7590,11 +8842,11 @@
       <c r="B5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -7603,11 +8855,11 @@
       <c r="B6" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7616,11 +8868,11 @@
       <c r="B7" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7629,11 +8881,11 @@
       <c r="B8" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7642,11 +8894,11 @@
       <c r="B9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7655,11 +8907,11 @@
       <c r="B10" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -7668,11 +8920,11 @@
       <c r="B11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -7681,11 +8933,11 @@
       <c r="B12" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7694,11 +8946,11 @@
       <c r="B13" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -7707,11 +8959,11 @@
       <c r="B14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -7720,11 +8972,11 @@
       <c r="B15" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7733,11 +8985,11 @@
       <c r="B16" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7746,11 +8998,11 @@
       <c r="B17" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7759,11 +9011,11 @@
       <c r="B18" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7772,11 +9024,11 @@
       <c r="B19" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -7785,13 +9037,13 @@
       <c r="B20" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>306</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -7800,13 +9052,13 @@
       <c r="B21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>304</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -7815,16 +9067,16 @@
       <c r="B22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>305</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="49">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -7836,7 +9088,7 @@
       <c r="D23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -7851,13 +9103,13 @@
       <c r="D24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E24" s="51"/>
-    </row>
-    <row ht="45" r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="49">
         <v>24</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>303</v>
       </c>
       <c r="C25" s="1">
@@ -7866,62 +9118,76 @@
       <c r="D25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="60">
         <v>25</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="62">
+      <c r="B26" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="60">
         <v>2102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="C27" s="52"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52">
+        <v>26</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="51">
+        <v>37672</v>
+      </c>
+      <c r="D27" s="100" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="C28" s="112">
+        <v>12345</v>
+      </c>
+      <c r="D28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7935,16 +9201,16 @@
         <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -7955,25 +9221,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1">
         <v>2102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="61" t="s">
         <v>382</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7981,19 +9247,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1">
         <v>2102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -8003,19 +9269,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1">
         <v>89280</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8025,19 +9291,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="1">
         <v>89280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1">
         <v>4600</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8047,19 +9313,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1">
         <v>2102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E6" s="1">
         <v>1200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8069,19 +9335,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="1">
         <v>2102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E7" s="1">
         <v>1400</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -8095,7 +9361,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E8" s="1">
         <v>1600</v>
@@ -8114,10 +9380,10 @@
         <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="1">
         <v>1000</v>
@@ -8139,7 +9405,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" s="1">
         <v>1900</v>
@@ -8155,13 +9421,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E11" s="1">
         <v>2000</v>
@@ -8177,13 +9443,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C12" s="1">
         <v>1234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E12" s="1">
         <v>1000</v>
@@ -8199,7 +9465,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C13" s="1">
         <v>2102</v>
@@ -8209,7 +9475,7 @@
         <v>600</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -8219,17 +9485,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" s="1">
         <v>94925</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -8239,13 +9505,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C15" s="1">
         <v>94925</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>95</v>
@@ -8261,16 +9527,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C16" s="1">
         <v>94925</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>133</v>
@@ -8283,16 +9549,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="1">
         <v>94925</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>123</v>
@@ -8305,19 +9571,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C18" s="1">
         <v>94925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E18" s="1">
         <v>499</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -8327,19 +9593,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" s="1">
         <v>94925</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E19" s="1">
         <v>500</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -8349,19 +9615,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C20" s="1">
         <v>94925</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E20" s="1">
         <v>501</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -8371,19 +9637,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" s="1">
         <v>94925</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E21" s="1">
         <v>100000000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -8393,19 +9659,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C22" s="1">
         <v>89280</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E22" s="1">
         <v>499</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -8415,19 +9681,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" s="1">
         <v>89280</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>358</v>
+      <c r="D23" s="55" t="s">
+        <v>357</v>
       </c>
       <c r="E23" s="1">
         <v>500</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -8437,19 +9703,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C24" s="1">
         <v>89280</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>358</v>
+      <c r="D24" s="55" t="s">
+        <v>357</v>
       </c>
       <c r="E24" s="1">
         <v>501</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -8459,19 +9725,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25" s="1">
         <v>89280</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>358</v>
+      <c r="D25" s="55" t="s">
+        <v>357</v>
       </c>
       <c r="E25" s="1">
         <v>200000000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -8484,30 +9750,52 @@
         <v>92</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="57"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="100">
+        <v>26</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="100">
+        <v>37672</v>
+      </c>
+      <c r="D27" s="100" t="s">
+        <v>521</v>
+      </c>
+      <c r="E27" s="100">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8518,37 +9806,119 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8559,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -8573,16 +9943,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>385</v>
+        <v>366</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>384</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8590,285 +9960,291 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C5" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C6" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E6" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E8" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E9" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C11" s="48"/>
       <c r="D11" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C12" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C12" s="48"/>
       <c r="D12" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C13" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C13" s="48"/>
       <c r="D13" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E13" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="C14" s="48"/>
       <c r="D14" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E14" s="51"/>
+        <v>380</v>
+      </c>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>379</v>
+        <v>371</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>378</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>377</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C18" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>305</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C19" s="1">
         <v>39282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E19" s="51"/>
+        <v>379</v>
+      </c>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C20" s="1">
         <v>1239682</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E20" s="51"/>
-    </row>
-    <row ht="75" r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="54" t="s">
-        <v>377</v>
+      <c r="B21" s="53" t="s">
+        <v>376</v>
       </c>
       <c r="C21" s="1">
         <v>45003459012</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E21" s="51"/>
+        <v>379</v>
+      </c>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="74" t="s">
-        <v>416</v>
+      <c r="B22" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="C22" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D22" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="51.85546875" collapsed="true"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -8879,22 +10255,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -8905,28 +10281,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="49">
+        <v>388</v>
+      </c>
+      <c r="C2" s="48">
         <v>39905</v>
       </c>
       <c r="D2" s="1">
         <v>2810</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H2" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="I2" s="83" t="s">
-        <v>401</v>
+        <v>410</v>
+      </c>
+      <c r="H2" s="81" t="s">
+        <v>426</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8934,28 +10310,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="49">
+        <v>389</v>
+      </c>
+      <c r="C3" s="48">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="51">
+        <v>425</v>
+      </c>
+      <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>427</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>401</v>
+        <v>410</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8963,7 +10339,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -8973,16 +10349,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H4" s="85" t="s">
-        <v>385</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>403</v>
+        <v>370</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8990,7 +10366,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>239</v>
@@ -9002,16 +10378,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="86" t="s">
-        <v>385</v>
-      </c>
-      <c r="I5" s="86" t="s">
-        <v>404</v>
+      <c r="H5" s="84" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9019,10 +10395,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -9031,16 +10407,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="87" t="s">
-        <v>385</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>404</v>
+      <c r="H6" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9048,10 +10424,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -9060,16 +10436,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="88" t="s">
-        <v>385</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>405</v>
+      <c r="H7" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="86" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9077,7 +10453,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -9089,16 +10465,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H8" s="89" t="s">
-        <v>385</v>
-      </c>
-      <c r="I8" s="89" t="s">
-        <v>406</v>
+        <v>379</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9106,7 +10482,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" s="1">
         <v>39908</v>
@@ -9118,31 +10494,31 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>385</v>
-      </c>
-      <c r="I9" s="90" t="s">
-        <v>426</v>
+        <v>409</v>
+      </c>
+      <c r="H9" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>431</v>
+      <c r="B10" s="89" t="s">
+        <v>429</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -9151,8 +10527,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>432</v>
+      <c r="B11" s="89" t="s">
+        <v>430</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -9168,8 +10544,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>433</v>
+      <c r="B12" s="89" t="s">
+        <v>431</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9185,8 +10561,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>434</v>
+      <c r="B13" s="89" t="s">
+        <v>432</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -9202,18 +10578,18 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>450</v>
+      <c r="B14" s="89" t="s">
+        <v>448</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="1">
         <v>1000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -9222,15 +10598,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="91" t="s">
-        <v>436</v>
+      <c r="B15" s="89" t="s">
+        <v>434</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -9239,10 +10615,10 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>438</v>
-      </c>
-      <c r="C16" s="49">
+      <c r="B16" s="89" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="48">
         <v>39905</v>
       </c>
       <c r="D16" s="1">
@@ -9255,7 +10631,7 @@
         <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -9264,10 +10640,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="49">
+      <c r="B17" s="89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="48">
         <v>39906</v>
       </c>
       <c r="D17" s="1">
@@ -9280,7 +10656,7 @@
         <v>123345</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -9289,8 +10665,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="91" t="s">
-        <v>440</v>
+      <c r="B18" s="89" t="s">
+        <v>438</v>
       </c>
       <c r="C18" s="1">
         <v>39905</v>
@@ -9302,10 +10678,10 @@
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -9314,8 +10690,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="91" t="s">
-        <v>442</v>
+      <c r="B19" s="89" t="s">
+        <v>440</v>
       </c>
       <c r="C19" s="1">
         <v>39906</v>
@@ -9327,10 +10703,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -9339,20 +10715,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="91" t="s">
-        <v>444</v>
+      <c r="B20" s="89" t="s">
+        <v>442</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F925A-F5CC-4B50-A904-88B09C2D09EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$52</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,12 +71,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,12 +105,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -138,12 +139,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -172,12 +173,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1213,9 +1214,6 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Guru@2018</t>
-  </si>
-  <si>
     <t>AcctType</t>
   </si>
   <si>
@@ -1582,9 +1580,6 @@
     <t>490</t>
   </si>
   <si>
-    <t>mngr128501</t>
-  </si>
-  <si>
     <t>Add a bank account to a customer id created by a different manager</t>
   </si>
   <si>
@@ -1862,12 +1857,18 @@
   </si>
   <si>
     <t>Number of transactions is zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubYnabe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mngr132457 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3172,12 +3173,6 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3201,6 +3196,12 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3481,37 +3482,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J62"/>
   <sheetViews>
     <sheetView topLeftCell="J9" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="23" collapsed="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.109375" style="23" collapsed="1"/>
     <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="46.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="46.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="113" t="s">
-        <v>503</v>
+      <c r="H7" s="111" t="s">
+        <v>501</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>329</v>
@@ -3520,10 +3521,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="113" t="s">
-        <v>502</v>
+      <c r="H8" s="111" t="s">
+        <v>500</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>330</v>
@@ -3532,10 +3533,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="113" t="s">
-        <v>504</v>
+      <c r="H9" s="111" t="s">
+        <v>502</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>331</v>
@@ -3544,129 +3545,129 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="H11" s="51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I11" s="51"/>
-      <c r="J11" s="112" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="110" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="H12" s="51" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="112"/>
       <c r="H13" s="51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="112"/>
       <c r="H14" s="51" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="112"/>
       <c r="H15" s="51" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="112"/>
       <c r="H16" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="114"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="112"/>
       <c r="H17" s="51" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="114"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="112"/>
       <c r="H18" s="51" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="H19" s="51" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="H20" s="51" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="112"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="27"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="H23" s="57" t="s">
         <v>332</v>
@@ -3678,9 +3679,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="99">
+      <c r="H24" s="114">
         <v>37672</v>
       </c>
       <c r="I24" s="73">
@@ -3688,137 +3689,137 @@
       </c>
       <c r="J24" s="56"/>
     </row>
-    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="H25" s="99"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="73">
         <v>39906</v>
       </c>
       <c r="J25" s="56"/>
     </row>
-    <row r="26" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
-      <c r="H26" s="99"/>
+      <c r="H26" s="114"/>
       <c r="I26" s="1">
         <v>39946</v>
       </c>
       <c r="J26" s="56"/>
     </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="78"/>
-      <c r="H27" s="99"/>
+      <c r="H27" s="114"/>
       <c r="I27" s="79">
         <v>39947</v>
       </c>
       <c r="J27" s="56"/>
     </row>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="78"/>
-      <c r="H28" s="99"/>
+      <c r="H28" s="114"/>
       <c r="I28" s="79">
         <v>39948</v>
       </c>
       <c r="J28" s="56"/>
     </row>
-    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
-      <c r="H29" s="99"/>
+      <c r="H29" s="114"/>
       <c r="I29" s="79">
         <v>39949</v>
       </c>
       <c r="J29" s="56"/>
     </row>
-    <row r="30" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="98"/>
+      <c r="H30" s="113"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
     </row>
-    <row r="31" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="98"/>
+      <c r="H31" s="113"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
-    <row r="32" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="98"/>
+      <c r="H32" s="113"/>
       <c r="I32" s="56"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="98"/>
+      <c r="H33" s="113"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="98"/>
+      <c r="H34" s="113"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="98"/>
+      <c r="H35" s="113"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="30"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="42"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="43"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="44"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="45"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="46"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="47"/>
     </row>
   </sheetData>
@@ -3833,23 +3834,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="87.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3857,120 +3858,120 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="80">
         <v>39947</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E2" s="50">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I2" s="93" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="48">
         <v>39948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C4" s="48">
         <v>39949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E4" s="50">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -3980,20 +3981,20 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>239</v>
@@ -4005,7 +4006,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>133</v>
@@ -4013,15 +4014,15 @@
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -4030,7 +4031,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>133</v>
@@ -4038,15 +4039,15 @@
       <c r="H7" s="75"/>
       <c r="I7" s="75"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -4055,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>123</v>
@@ -4063,12 +4064,12 @@
       <c r="H8" s="76"/>
       <c r="I8" s="76"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="1">
         <v>39946</v>
@@ -4080,20 +4081,20 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="77"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C10" s="1">
         <v>39908</v>
@@ -4105,20 +4106,20 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H10" s="90"/>
       <c r="I10" s="90"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C11" s="1">
         <v>39947</v>
@@ -4128,20 +4129,20 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C12" s="1">
         <v>39947</v>
@@ -4153,7 +4154,7 @@
         <v>306</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>133</v>
@@ -4161,12 +4162,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C13" s="1">
         <v>39947</v>
@@ -4175,10 +4176,10 @@
         <v>990</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>133</v>
@@ -4186,12 +4187,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C14" s="1">
         <v>39947</v>
@@ -4200,10 +4201,10 @@
         <v>990</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>123</v>
@@ -4211,12 +4212,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C15" s="91">
         <v>39978</v>
@@ -4228,20 +4229,20 @@
         <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C16" s="1">
         <v>39947</v>
@@ -4254,17 +4255,17 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C17" s="80">
         <v>39974</v>
@@ -4279,17 +4280,17 @@
         <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C18" s="80">
         <v>39975</v>
@@ -4304,17 +4305,17 @@
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C19" s="80">
         <v>39976</v>
@@ -4326,20 +4327,20 @@
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C20" s="80">
         <v>39977</v>
@@ -4351,37 +4352,37 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="89">
         <v>21</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="1">
         <v>39979</v>
@@ -4393,10 +4394,10 @@
         <v>855</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -4409,23 +4410,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="133.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="133.5546875" style="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4433,70 +4434,70 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="102" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+        <v>387</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="103" t="s">
-        <v>488</v>
+        <v>482</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>486</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+        <v>388</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G3" s="103" t="s">
-        <v>488</v>
+        <v>482</v>
+      </c>
+      <c r="G3" s="101" t="s">
+        <v>486</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1">
         <v>12345</v>
@@ -4508,19 +4509,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G4" s="105" t="s">
-        <v>461</v>
+        <v>493</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>459</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -4528,85 +4529,85 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D6" s="1">
         <v>12345</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G6" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D7" s="1">
         <v>12345</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G7" t="s">
         <v>133</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D8" s="1">
         <v>12345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G8" t="s">
         <v>123</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C9" s="1">
         <v>98765</v>
@@ -4614,19 +4615,19 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>478</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C10" s="1">
         <v>39946</v>
@@ -4634,19 +4635,19 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G10" s="105" t="s">
-        <v>483</v>
+        <v>482</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>481</v>
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -4654,85 +4655,85 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C12" s="1">
         <v>12345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G12" t="s">
         <v>133</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C13" s="1">
         <v>12345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G13" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1">
         <v>12345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G14" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -4740,19 +4741,19 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G15" s="105" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="G15" s="103" t="s">
+        <v>478</v>
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -4760,19 +4761,19 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G16" s="105" t="s">
-        <v>483</v>
+        <v>482</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>481</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
@@ -4782,19 +4783,19 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>433</v>
+        <v>482</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>432</v>
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
@@ -4803,22 +4804,22 @@
         <v>12345</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G18" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="G18" s="104" t="s">
         <v>133</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
@@ -4827,22 +4828,22 @@
         <v>12345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G19" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="G19" s="104" t="s">
         <v>133</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
@@ -4851,22 +4852,22 @@
         <v>12345</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G20" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" s="104" t="s">
         <v>123</v>
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4874,19 +4875,19 @@
         <v>99999999</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G21" s="105" t="s">
-        <v>487</v>
+        <v>482</v>
+      </c>
+      <c r="G21" s="103" t="s">
+        <v>485</v>
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C22" s="1">
         <v>12345</v>
@@ -4898,109 +4899,109 @@
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="106" t="s">
-        <v>435</v>
+      <c r="G22" s="104" t="s">
+        <v>434</v>
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>436</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
+        <v>435</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G23" s="105" t="s">
-        <v>488</v>
+        <v>393</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>486</v>
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
+        <v>436</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>908</v>
       </c>
-      <c r="G24" s="105" t="s">
-        <v>488</v>
+      <c r="G24" s="103" t="s">
+        <v>486</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+        <v>437</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G25" s="105" t="s">
-        <v>488</v>
+        <v>492</v>
+      </c>
+      <c r="G25" s="103" t="s">
+        <v>486</v>
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>489</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
+        <v>487</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G26" s="105" t="s">
-        <v>488</v>
+        <v>491</v>
+      </c>
+      <c r="G26" s="103" t="s">
+        <v>486</v>
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="105" t="s">
-        <v>492</v>
+      <c r="G27" s="103" t="s">
+        <v>490</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5009,21 +5010,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5031,189 +5032,189 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="1">
         <v>39905</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="1">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S13" s="63" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S14" s="63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5224,21 +5225,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -5255,115 +5256,115 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -5373,21 +5374,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5395,19 +5396,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -5416,12 +5417,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5429,16 +5430,16 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5446,16 +5447,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5465,15 +5466,15 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -5484,15 +5485,15 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -5503,15 +5504,15 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5522,12 +5523,12 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -5537,16 +5538,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -5556,16 +5557,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5573,16 +5574,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5590,16 +5591,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5607,16 +5608,16 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5624,16 +5625,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5641,16 +5642,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5662,12 +5663,12 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5679,12 +5680,12 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5696,12 +5697,12 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5709,16 +5710,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5726,16 +5727,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5747,12 +5748,12 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5764,12 +5765,12 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5781,12 +5782,12 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5794,7 +5795,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -5805,27 +5806,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5859,19 +5860,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>335</v>
+        <v>551</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5892,7 +5893,7 @@
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5913,7 +5914,7 @@
       </c>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5934,7 +5935,7 @@
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5953,7 +5954,7 @@
       </c>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5972,7 +5973,7 @@
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5989,37 +5990,36 @@
       </c>
       <c r="G8" s="50"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="60">
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G9" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/"/>
-    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/"/>
-    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -6029,18 +6029,18 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="66.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6300,7 +6300,7 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6851,7 +6851,7 @@
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6980,7 +6980,7 @@
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="N26" s="50"/>
       <c r="O26" s="50"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7193,7 +7193,7 @@
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7449,7 +7449,7 @@
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7662,7 +7662,7 @@
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7746,7 +7746,7 @@
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="N45" s="50"/>
       <c r="O45" s="50"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8046,7 +8046,7 @@
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8132,7 +8132,7 @@
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8175,7 +8175,7 @@
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8195,16 +8195,16 @@
       <c r="M51" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N51" s="108"/>
+      <c r="N51" s="106"/>
       <c r="O51" s="50"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="89"/>
-      <c r="B52" s="110" t="s">
-        <v>496</v>
+      <c r="B52" s="108" t="s">
+        <v>494</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D52" s="89" t="s">
         <v>42</v>
@@ -8213,7 +8213,7 @@
         <v>30537</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G52" s="89" t="s">
         <v>93</v>
@@ -8227,8 +8227,8 @@
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="109" t="s">
-        <v>499</v>
+      <c r="K52" s="107" t="s">
+        <v>497</v>
       </c>
       <c r="L52" s="89" t="s">
         <v>117</v>
@@ -8237,61 +8237,61 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K14" r:id="rId13"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="L48" r:id="rId18"/>
-    <hyperlink ref="K19" r:id="rId19"/>
-    <hyperlink ref="K20" r:id="rId20"/>
-    <hyperlink ref="K21" r:id="rId21"/>
-    <hyperlink ref="K22" r:id="rId22"/>
-    <hyperlink ref="K23" r:id="rId23"/>
-    <hyperlink ref="K24" r:id="rId24"/>
-    <hyperlink ref="K25" r:id="rId25"/>
-    <hyperlink ref="K26" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="K28" r:id="rId28"/>
-    <hyperlink ref="K29" r:id="rId29"/>
-    <hyperlink ref="K30" r:id="rId30"/>
-    <hyperlink ref="K31" r:id="rId31"/>
-    <hyperlink ref="K32" r:id="rId32"/>
-    <hyperlink ref="K33" r:id="rId33"/>
-    <hyperlink ref="K34" r:id="rId34"/>
-    <hyperlink ref="K35" r:id="rId35"/>
-    <hyperlink ref="K36" r:id="rId36"/>
-    <hyperlink ref="K37" r:id="rId37"/>
-    <hyperlink ref="K38" r:id="rId38"/>
-    <hyperlink ref="K39" r:id="rId39"/>
-    <hyperlink ref="K42" r:id="rId40" display="roo@test.com"/>
-    <hyperlink ref="K43" r:id="rId41"/>
-    <hyperlink ref="K44" r:id="rId42" display="dar@test.com"/>
-    <hyperlink ref="K46" r:id="rId43"/>
-    <hyperlink ref="K47" r:id="rId44"/>
-    <hyperlink ref="K48" r:id="rId45"/>
-    <hyperlink ref="K49" r:id="rId46"/>
-    <hyperlink ref="K50" r:id="rId47"/>
-    <hyperlink ref="K45" r:id="rId48" display="kei@test.com"/>
-    <hyperlink ref="K12" r:id="rId49" display="simran@test.com"/>
-    <hyperlink ref="K52" r:id="rId50"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="L48" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="K19" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="K20" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="K21" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="K22" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="K23" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="K24" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="K25" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="K26" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="K27" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="K28" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="K29" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="K30" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="K31" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="K32" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="K33" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="K34" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="K35" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="K36" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="K37" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="K38" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="K39" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="K42" r:id="rId40" display="roo@test.com" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="K43" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="K44" r:id="rId42" display="dar@test.com" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="K46" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K47" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="K48" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="K49" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K50" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="K45" r:id="rId48" display="kei@test.com" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="K12" r:id="rId49" display="simran@test.com" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="K52" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId51"/>
@@ -8299,7 +8299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -8309,18 +8309,18 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8715,7 +8715,7 @@
       </c>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8736,12 +8736,12 @@
       </c>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="100"/>
-      <c r="B17" s="111" t="s">
-        <v>500</v>
-      </c>
-      <c r="C17" s="100">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="98"/>
+      <c r="B17" s="109" t="s">
+        <v>498</v>
+      </c>
+      <c r="C17" s="98">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
@@ -8750,13 +8750,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
@@ -8764,22 +8764,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="E2" s="50"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E4" s="50"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="E5" s="50"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="E6" s="50"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="E7" s="50"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E8" s="50"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="E9" s="50"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="E10" s="50"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="E11" s="50"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="E13" s="50"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="E14" s="50"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="E15" s="50"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="E16" s="50"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="E17" s="50"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="E18" s="50"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9030,7 +9030,7 @@
       </c>
       <c r="E19" s="50"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="E20" s="50"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="E21" s="50"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="E22" s="50"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="49">
         <v>22</v>
       </c>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="E23" s="50"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="E24" s="50"/>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>24</v>
       </c>
@@ -9120,48 +9120,48 @@
       </c>
       <c r="E25" s="50"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="60">
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C26" s="60">
         <v>2102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52">
         <v>26</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C27" s="51">
         <v>37672</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="98" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51"/>
       <c r="B28" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="C28" s="112">
+        <v>499</v>
+      </c>
+      <c r="C28" s="110">
         <v>12345</v>
       </c>
       <c r="D28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -9173,24 +9173,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9201,158 +9201,158 @@
         <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1">
         <v>2102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1">
         <v>2102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1">
         <v>89280</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1">
         <v>89280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="1">
         <v>4600</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C6" s="1">
         <v>2102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" s="1">
         <v>1200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1">
         <v>2102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1">
         <v>1400</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E8" s="1">
         <v>1600</v>
@@ -9372,7 +9372,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9380,10 +9380,10 @@
         <v>298</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E9" s="1">
         <v>1000</v>
@@ -9394,7 +9394,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E10" s="1">
         <v>1900</v>
@@ -9416,18 +9416,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E11" s="1">
         <v>2000</v>
@@ -9438,18 +9438,18 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" s="1">
         <v>1234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E12" s="1">
         <v>1000</v>
@@ -9460,12 +9460,12 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C13" s="1">
         <v>2102</v>
@@ -9475,43 +9475,43 @@
         <v>600</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C14" s="1">
         <v>94925</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="1">
         <v>94925</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>95</v>
@@ -9522,21 +9522,21 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C16" s="1">
         <v>94925</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>133</v>
@@ -9544,21 +9544,21 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="1">
         <v>94925</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>123</v>
@@ -9566,183 +9566,183 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C18" s="1">
         <v>94925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="1">
         <v>499</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C19" s="1">
         <v>94925</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E19" s="1">
         <v>500</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C20" s="1">
         <v>94925</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E20" s="1">
         <v>501</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" s="1">
         <v>94925</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E21" s="1">
         <v>100000000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C22" s="1">
         <v>89280</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E22" s="1">
         <v>499</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C23" s="1">
         <v>89280</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E23" s="1">
         <v>500</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" s="1">
         <v>89280</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" s="1">
         <v>501</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="1">
         <v>89280</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E25" s="1">
         <v>200000000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9753,28 +9753,28 @@
       <c r="D26" s="55"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="100">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="98">
         <v>26</v>
       </c>
-      <c r="B27" s="101" t="s">
-        <v>459</v>
-      </c>
-      <c r="C27" s="100">
+      <c r="B27" s="99" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="98">
         <v>37672</v>
       </c>
-      <c r="D27" s="100" t="s">
-        <v>521</v>
-      </c>
-      <c r="E27" s="100">
+      <c r="D27" s="98" t="s">
+        <v>519</v>
+      </c>
+      <c r="E27" s="98">
         <v>1000</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="98" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9785,20 +9785,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9806,10 +9806,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -9818,85 +9818,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -9906,22 +9906,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -9938,228 +9938,228 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E3" s="50"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="50"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E5" s="50"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E6" s="50"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" s="50"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E8" s="50"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E9" s="50"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E10" s="50"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E11" s="50"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E12" s="50"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" s="50"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E14" s="50"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E15" s="50"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E16" s="50"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E17" s="50"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>305</v>
@@ -10169,60 +10169,60 @@
       </c>
       <c r="E18" s="50"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="1">
         <v>39282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E19" s="50"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C20" s="1">
         <v>1239682</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E20" s="50"/>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" s="1">
         <v>45003459012</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E21" s="50"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="1">
         <v>39946</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -10232,22 +10232,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10255,33 +10255,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C2" s="48">
         <v>39905</v>
@@ -10293,53 +10293,53 @@
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" s="48">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -10349,24 +10349,24 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>239</v>
@@ -10378,27 +10378,27 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -10407,27 +10407,27 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -10436,24 +10436,24 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -10465,24 +10465,24 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" s="1">
         <v>39908</v>
@@ -10494,41 +10494,41 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H9" s="88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -10540,12 +10540,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -10557,12 +10557,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -10574,49 +10574,49 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="1">
         <v>1000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" s="48">
         <v>39905</v>
@@ -10631,17 +10631,17 @@
         <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C17" s="48">
         <v>39906</v>
@@ -10656,17 +10656,17 @@
         <v>123345</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C18" s="1">
         <v>39905</v>
@@ -10678,20 +10678,20 @@
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C19" s="1">
         <v>39906</v>
@@ -10703,27 +10703,27 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F925A-F5CC-4B50-A904-88B09C2D09EA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2CFFA-9421-4747-A3C4-186A0AB8960B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -42,6 +42,40 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to provide a customer id created in the active login having active accounts attached to the customer id</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
@@ -70,7 +104,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -104,7 +138,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -138,7 +172,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -172,7 +206,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -207,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="563">
   <si>
     <t>testcaseID</t>
   </si>
@@ -239,12 +273,6 @@
     <t>Invalid user credential</t>
   </si>
   <si>
-    <t>http://demo.guru99.com/v4/</t>
-  </si>
-  <si>
-    <t>mngr120586</t>
-  </si>
-  <si>
     <t>EbarYpE</t>
   </si>
   <si>
@@ -263,9 +291,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>User or Password is not valid</t>
-  </si>
-  <si>
     <t>Guru99 Bank Manager HomePage</t>
   </si>
   <si>
@@ -281,9 +306,6 @@
     <t>NytyygfF</t>
   </si>
   <si>
-    <t>mngr564377</t>
-  </si>
-  <si>
     <t>User-ID must not be blank</t>
   </si>
   <si>
@@ -1397,479 +1419,524 @@
     <t>#$%%^</t>
   </si>
   <si>
+    <t>Balance Details for Account</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Pass - Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Account does not exist</t>
+  </si>
+  <si>
+    <t>balBefore</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>currentbal</t>
+  </si>
+  <si>
+    <t>You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>Transaction details of Deposit for Account</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>savings investment</t>
+  </si>
+  <si>
+    <t>current investment</t>
+  </si>
+  <si>
+    <t>Deleting the account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Deleting the customer id created by a different manager id</t>
+  </si>
+  <si>
+    <t>Account created by a different manager id</t>
+  </si>
+  <si>
+    <t>deleted account</t>
+  </si>
+  <si>
+    <t>Unauthorized account</t>
+  </si>
+  <si>
+    <t>blank account</t>
+  </si>
+  <si>
+    <t>only spaces</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>Exisitng account with 500 balance</t>
+  </si>
+  <si>
+    <t>Blank amount</t>
+  </si>
+  <si>
+    <t>Only spaces in amount</t>
+  </si>
+  <si>
+    <t>Characters in amount</t>
+  </si>
+  <si>
+    <t>Special characters in amount</t>
+  </si>
+  <si>
+    <t>Amount field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank description</t>
+  </si>
+  <si>
+    <t>Description can not be blank</t>
+  </si>
+  <si>
+    <t>Only spaces in description</t>
+  </si>
+  <si>
+    <t>Numbers in description</t>
+  </si>
+  <si>
+    <t>Special characters in description</t>
+  </si>
+  <si>
+    <t>%^&amp;*(</t>
+  </si>
+  <si>
+    <t>Description exceeding 10 characters</t>
+  </si>
+  <si>
+    <t>SampleDeposit</t>
+  </si>
+  <si>
+    <t>All three fields blank</t>
+  </si>
+  <si>
+    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>Transaction details of Withdrawal for Account</t>
+  </si>
+  <si>
+    <t>You are not authorize to debit money from this account!!</t>
+  </si>
+  <si>
+    <t>HighAmount</t>
+  </si>
+  <si>
+    <t>Transaction Failed. Account Balance Low!!!</t>
+  </si>
+  <si>
+    <t>Amount greater than 999999</t>
+  </si>
+  <si>
+    <t>%^&amp;*</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Amount greater than balBefore</t>
+  </si>
+  <si>
+    <t>Amount greater than 99999999</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>Add a bank account to a customer id created by a different manager</t>
+  </si>
+  <si>
+    <t>You are not authorize to generate statement of this Account!!</t>
+  </si>
+  <si>
+    <t>Payers account No and Payees account No Must Not be Same!!!</t>
+  </si>
+  <si>
+    <t>payersacctnum</t>
+  </si>
+  <si>
+    <t>payeesacctnum</t>
+  </si>
+  <si>
+    <t>Blank payer's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payer's account number</t>
+  </si>
+  <si>
+    <t>Characters in payer's account number</t>
+  </si>
+  <si>
+    <t>Special characters inpayer's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payer's account number</t>
+  </si>
+  <si>
+    <t>Payer's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Blank payee's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payee's account number</t>
+  </si>
+  <si>
+    <t>Characters in payee's account number</t>
+  </si>
+  <si>
+    <t>Special characters in payee's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payee's account number</t>
+  </si>
+  <si>
+    <t>Payee's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>All four fields blank</t>
+  </si>
+  <si>
+    <t>Same payer's and payee's account number</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>#$%</t>
+  </si>
+  <si>
+    <t>Account 98765does not exist!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>&amp;&amp;^%</t>
+  </si>
+  <si>
+    <t>Account 39946does not exist!!!</t>
+  </si>
+  <si>
+    <t>test desc</t>
+  </si>
+  <si>
+    <t>%^&amp;</t>
+  </si>
+  <si>
+    <t>Amount greater than balance in payer's account</t>
+  </si>
+  <si>
+    <t>Transfer Failed. Account Balance low!!</t>
+  </si>
+  <si>
+    <t>Fund Transfer Details</t>
+  </si>
+  <si>
+    <t>Description exceeding 20 characters</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payees Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>description exceed 20</t>
+  </si>
+  <si>
+    <t>%^^*</t>
+  </si>
+  <si>
+    <t>same accounts</t>
+  </si>
+  <si>
+    <t>Adding a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Jishna</t>
+  </si>
+  <si>
+    <t>6 9th cross MK road</t>
+  </si>
+  <si>
+    <t>jishna@test.com</t>
+  </si>
+  <si>
+    <t>Editing a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Deleting a customer id with direct link without logging in</t>
+  </si>
+  <si>
+    <t>You are not authorize to get Balance details of this account!!</t>
+  </si>
+  <si>
+    <t>not found page</t>
+  </si>
+  <si>
+    <t>You are not authorize to do fund transfer!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to delete this Account!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to edit this Account!!</t>
+  </si>
+  <si>
+    <t>Blank page</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Change savings to current</t>
+  </si>
+  <si>
+    <t>Change savings to savings</t>
+  </si>
+  <si>
+    <t>Change current to savings</t>
+  </si>
+  <si>
+    <t>Change current to current</t>
+  </si>
+  <si>
+    <t>No Changes made to Account records</t>
+  </si>
+  <si>
+    <t>Account details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Change account type of the account created  by a different manager</t>
+  </si>
+  <si>
+    <t>Last Five Transaction Details for Account No</t>
+  </si>
+  <si>
+    <t>fromdate</t>
+  </si>
+  <si>
+    <t>todate</t>
+  </si>
+  <si>
+    <t>mintransval</t>
+  </si>
+  <si>
+    <t>numoftrans</t>
+  </si>
+  <si>
+    <t>Blank from date</t>
+  </si>
+  <si>
+    <t>Future from date</t>
+  </si>
+  <si>
+    <t>Blank to date</t>
+  </si>
+  <si>
+    <t>Past to date</t>
+  </si>
+  <si>
+    <t>FromDate field should be lower than ToDate field!!</t>
+  </si>
+  <si>
+    <t>From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>To Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank min trans value</t>
+  </si>
+  <si>
+    <t>Only spaces in min trans value</t>
+  </si>
+  <si>
+    <t>Characters in min trans value</t>
+  </si>
+  <si>
+    <t>Special characters in min trans value</t>
+  </si>
+  <si>
+    <t>No Transaction details found !!!</t>
+  </si>
+  <si>
+    <t>Minimum transaction value exceeding the actual transaction values</t>
+  </si>
+  <si>
+    <t>Blank number of trans</t>
+  </si>
+  <si>
+    <t>Only spaces in number of trans</t>
+  </si>
+  <si>
+    <t>Characters in number of trans</t>
+  </si>
+  <si>
+    <t>Special characters in number of trans</t>
+  </si>
+  <si>
+    <t>Number of transactions is zero</t>
+  </si>
+  <si>
+    <t>mngr137461</t>
+  </si>
+  <si>
+    <t>Guru@2018</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/</t>
+  </si>
+  <si>
+    <t>User is not valid</t>
+  </si>
+  <si>
     <t>Pass - Guru99 Bank Manager HomePage</t>
   </si>
   <si>
-    <t>Balance Details for Account</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Pass - Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - Characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass - Special characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass - Account does not exist</t>
-  </si>
-  <si>
-    <t>balBefore</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>currentbal</t>
-  </si>
-  <si>
-    <t>You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>Transaction details of Deposit for Account</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>savings investment</t>
-  </si>
-  <si>
-    <t>current investment</t>
-  </si>
-  <si>
-    <t>Deleting the account created by a different manager id</t>
-  </si>
-  <si>
-    <t>Deleting the customer id created by a different manager id</t>
-  </si>
-  <si>
-    <t>Account created by a different manager id</t>
-  </si>
-  <si>
-    <t>deleted account</t>
-  </si>
-  <si>
-    <t>Unauthorized account</t>
-  </si>
-  <si>
-    <t>blank account</t>
-  </si>
-  <si>
-    <t>only spaces</t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>characters</t>
-  </si>
-  <si>
-    <t>$%^&amp;*</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2700</t>
+    <t>Pass - User is not valid</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Password must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blankPassword must not be blank</t>
   </si>
   <si>
     <t>Pass - You Have Succesfully Logged Out!!</t>
   </si>
   <si>
-    <t>Exisitng account with 500 balance</t>
-  </si>
-  <si>
-    <t>Blank amount</t>
-  </si>
-  <si>
-    <t>Only spaces in amount</t>
-  </si>
-  <si>
-    <t>Characters in amount</t>
-  </si>
-  <si>
-    <t>Special characters in amount</t>
-  </si>
-  <si>
-    <t>Amount field must not be blank</t>
-  </si>
-  <si>
-    <t>Blank description</t>
-  </si>
-  <si>
-    <t>Description can not be blank</t>
-  </si>
-  <si>
-    <t>Only spaces in description</t>
-  </si>
-  <si>
-    <t>Numbers in description</t>
-  </si>
-  <si>
-    <t>Special characters in description</t>
-  </si>
-  <si>
-    <t>%^&amp;*(</t>
-  </si>
-  <si>
-    <t>Description exceeding 10 characters</t>
-  </si>
-  <si>
-    <t>SampleDeposit</t>
-  </si>
-  <si>
-    <t>All three fields blank</t>
-  </si>
-  <si>
-    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
-  </si>
-  <si>
-    <t>Transaction details of Withdrawal for Account</t>
-  </si>
-  <si>
-    <t>You are not authorize to debit money from this account!!</t>
-  </si>
-  <si>
-    <t>HighAmount</t>
-  </si>
-  <si>
-    <t>Transaction Failed. Account Balance Low!!!</t>
-  </si>
-  <si>
-    <t>Amount greater than 999999</t>
-  </si>
-  <si>
-    <t>%^&amp;*</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>Amount greater than balBefore</t>
-  </si>
-  <si>
-    <t>Amount greater than 99999999</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>Add a bank account to a customer id created by a different manager</t>
-  </si>
-  <si>
-    <t>You are not authorize to generate statement of this Account!!</t>
-  </si>
-  <si>
-    <t>Payers account No and Payees account No Must Not be Same!!!</t>
-  </si>
-  <si>
-    <t>payersacctnum</t>
-  </si>
-  <si>
-    <t>payeesacctnum</t>
-  </si>
-  <si>
-    <t>Blank payer's account number</t>
-  </si>
-  <si>
-    <t>Only spaces in payer's account number</t>
-  </si>
-  <si>
-    <t>Characters in payer's account number</t>
-  </si>
-  <si>
-    <t>Special characters inpayer's  account number</t>
-  </si>
-  <si>
-    <t>Deleted payer's account number</t>
-  </si>
-  <si>
-    <t>Payer's account created by a different manager id</t>
-  </si>
-  <si>
-    <t>Blank payee's account number</t>
-  </si>
-  <si>
-    <t>Only spaces in payee's account number</t>
-  </si>
-  <si>
-    <t>Characters in payee's account number</t>
-  </si>
-  <si>
-    <t>Special characters in payee's  account number</t>
-  </si>
-  <si>
-    <t>Deleted payee's account number</t>
-  </si>
-  <si>
-    <t>Payee's account created by a different manager id</t>
-  </si>
-  <si>
-    <t>All four fields blank</t>
-  </si>
-  <si>
-    <t>Same payer's and payee's account number</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>#$%</t>
-  </si>
-  <si>
-    <t>Account 98765does not exist!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>&amp;&amp;^%</t>
-  </si>
-  <si>
-    <t>Account 39946does not exist!!!</t>
-  </si>
-  <si>
-    <t>test desc</t>
-  </si>
-  <si>
-    <t>%^&amp;</t>
-  </si>
-  <si>
-    <t>Amount greater than balance in payer's account</t>
-  </si>
-  <si>
-    <t>Transfer Failed. Account Balance low!!</t>
-  </si>
-  <si>
-    <t>Fund Transfer Details</t>
-  </si>
-  <si>
-    <t>Description exceeding 20 characters</t>
-  </si>
-  <si>
-    <t>Payers Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Payees Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
-  </si>
-  <si>
-    <t>description exceed 20</t>
-  </si>
-  <si>
-    <t>%^^*</t>
-  </si>
-  <si>
-    <t>same accounts</t>
-  </si>
-  <si>
-    <t>Adding a customer with direct link without logging in</t>
-  </si>
-  <si>
-    <t>Jishna</t>
-  </si>
-  <si>
-    <t>6 9th cross MK road</t>
-  </si>
-  <si>
-    <t>jishna@test.com</t>
-  </si>
-  <si>
-    <t>Editing a customer with direct link without logging in</t>
-  </si>
-  <si>
-    <t>Deleting a customer id with direct link without logging in</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/EditCustomer.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/addcustomerpage.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/DeleteCustomerInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/addAccount.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/editAccount.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/deleteAccountInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/DepositInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/WithdrawalInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/FundTransInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/PasswordInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/BalEnqInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/MiniStatementInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/v4/manager/CustomisedStatementInput.php</t>
-  </si>
-  <si>
-    <t>You are not authorize to get Balance details of this account!!</t>
-  </si>
-  <si>
-    <t>not found page</t>
-  </si>
-  <si>
-    <t>You are not authorize to do fund transfer!!</t>
-  </si>
-  <si>
-    <t>You are not authorize to delete this Account!!</t>
-  </si>
-  <si>
-    <t>You are not authorize to edit this Account!!</t>
-  </si>
-  <si>
-    <t>Blank page</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>Change savings to current</t>
-  </si>
-  <si>
-    <t>Change savings to savings</t>
-  </si>
-  <si>
-    <t>Change current to savings</t>
-  </si>
-  <si>
-    <t>Change current to current</t>
-  </si>
-  <si>
-    <t>No Changes made to Account records</t>
-  </si>
-  <si>
-    <t>Account details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t>Change account type of the account created  by a different manager</t>
-  </si>
-  <si>
-    <t>Last Five Transaction Details for Account No</t>
-  </si>
-  <si>
-    <t>fromdate</t>
-  </si>
-  <si>
-    <t>todate</t>
-  </si>
-  <si>
-    <t>mintransval</t>
-  </si>
-  <si>
-    <t>numoftrans</t>
-  </si>
-  <si>
-    <t>Blank from date</t>
-  </si>
-  <si>
-    <t>Future from date</t>
-  </si>
-  <si>
-    <t>Blank to date</t>
-  </si>
-  <si>
-    <t>Past to date</t>
-  </si>
-  <si>
-    <t>FromDate field should be lower than ToDate field!!</t>
-  </si>
-  <si>
-    <t>From Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>To Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>Blank min trans value</t>
-  </si>
-  <si>
-    <t>Only spaces in min trans value</t>
-  </si>
-  <si>
-    <t>Characters in min trans value</t>
-  </si>
-  <si>
-    <t>Special characters in min trans value</t>
-  </si>
-  <si>
-    <t>No Transaction details found !!!</t>
-  </si>
-  <si>
-    <t>Minimum transaction value exceeding the actual transaction values</t>
-  </si>
-  <si>
-    <t>Blank number of trans</t>
-  </si>
-  <si>
-    <t>Only spaces in number of trans</t>
-  </si>
-  <si>
-    <t>Characters in number of trans</t>
-  </si>
-  <si>
-    <t>Special characters in number of trans</t>
-  </si>
-  <si>
-    <t>Number of transactions is zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubYnabe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mngr132457 </t>
+    <t>Pass - Customer Registered Successfully!!!</t>
+  </si>
+  <si>
+    <t>72172</t>
+  </si>
+  <si>
+    <t>Pass - Customer details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Pass - No Changes made to Customer records</t>
+  </si>
+  <si>
+    <t>Pass - Customer ID is required</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to edit this customer!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/addcustomerpage.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/EditCustomer.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/DeleteCustomerInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/addAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/editAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/deleteAccountInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/DepositInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/WithdrawalInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/FundTransInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/PasswordInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/BalEnqInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/MiniStatementInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/CustomisedStatementInput.php</t>
+  </si>
+  <si>
+    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,8 +2016,28 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,8 +2208,163 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="96">
     <border>
       <left/>
       <right/>
@@ -3024,21 +3266,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -3063,12 +3290,507 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -3171,11 +3893,9 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3189,13 +3909,51 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3485,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,152 +4269,152 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="111" t="s">
-        <v>501</v>
+      <c r="H7" s="146" t="s">
+        <v>549</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="111" t="s">
-        <v>500</v>
+      <c r="H8" s="109" t="s">
+        <v>550</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="111" t="s">
-        <v>502</v>
+      <c r="H9" s="109" t="s">
+        <v>551</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="55" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="H11" s="51" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="I11" s="51"/>
-      <c r="J11" s="110" t="s">
-        <v>518</v>
+      <c r="J11" s="108" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="H12" s="51" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="112"/>
+      <c r="B13" s="110"/>
       <c r="H13" s="51" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="H14" s="51" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="112"/>
+      <c r="B15" s="110"/>
       <c r="H15" s="51" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="112"/>
+      <c r="B16" s="110"/>
       <c r="H16" s="51" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="112"/>
+      <c r="B17" s="110"/>
       <c r="H17" s="51" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="112"/>
+      <c r="B18" s="110"/>
       <c r="H18" s="51" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="H19" s="51" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="H20" s="51" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="112"/>
+      <c r="B21" s="110"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3670,98 +4428,88 @@
     <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="H23" s="57" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J23" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="114">
-        <v>37672</v>
+      <c r="H24" s="150">
+        <v>96501</v>
       </c>
       <c r="I24" s="73">
-        <v>39905</v>
+        <v>44363</v>
       </c>
       <c r="J24" s="56"/>
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="73">
-        <v>39906</v>
-      </c>
+      <c r="H25" s="150"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="56"/>
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="1">
-        <v>39946</v>
-      </c>
+      <c r="H26" s="150"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="56"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="78"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="79">
-        <v>39947</v>
-      </c>
+      <c r="H27" s="150"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="56"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="78"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="79">
-        <v>39948</v>
-      </c>
+      <c r="H28" s="150"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="56"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="79">
-        <v>39949</v>
-      </c>
+      <c r="H29" s="150"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="56"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="113"/>
+      <c r="H30" s="149"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="113"/>
+      <c r="H31" s="149"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="113"/>
+      <c r="H32" s="149"/>
       <c r="I32" s="56"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="113"/>
+      <c r="H33" s="149"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="113"/>
+      <c r="H34" s="149"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="113"/>
+      <c r="H35" s="149"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -3828,8 +4576,11 @@
     <mergeCell ref="H24:H29"/>
     <mergeCell ref="H33:H35"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" display="http://demo.guru99.com/v4/manager/addcustomerpage.php" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3858,22 +4609,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -3884,28 +4635,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="80">
         <v>39947</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E2" s="50">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I2" s="93" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3913,28 +4664,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="48">
         <v>39948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3942,28 +4693,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C4" s="48">
         <v>39949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E4" s="50">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3971,7 +4722,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -3981,10 +4732,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
@@ -3994,10 +4745,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -4006,10 +4757,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -4019,10 +4770,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -4031,10 +4782,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H7" s="75"/>
       <c r="I7" s="75"/>
@@ -4044,10 +4795,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -4056,10 +4807,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H8" s="76"/>
       <c r="I8" s="76"/>
@@ -4069,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1">
         <v>39946</v>
@@ -4081,10 +4832,10 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="77"/>
@@ -4094,7 +4845,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C10" s="1">
         <v>39908</v>
@@ -4106,10 +4857,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H10" s="90"/>
       <c r="I10" s="90"/>
@@ -4119,7 +4870,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C11" s="1">
         <v>39947</v>
@@ -4129,10 +4880,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4142,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C12" s="1">
         <v>39947</v>
@@ -4151,13 +4902,13 @@
         <v>990</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4167,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C13" s="1">
         <v>39947</v>
@@ -4176,13 +4927,13 @@
         <v>990</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4192,7 +4943,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C14" s="1">
         <v>39947</v>
@@ -4201,13 +4952,13 @@
         <v>990</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4217,7 +4968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C15" s="91">
         <v>39978</v>
@@ -4229,10 +4980,10 @@
         <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4242,7 +4993,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C16" s="1">
         <v>39947</v>
@@ -4255,7 +5006,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -4265,7 +5016,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C17" s="80">
         <v>39974</v>
@@ -4277,10 +5028,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -4290,7 +5041,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C18" s="80">
         <v>39975</v>
@@ -4305,7 +5056,7 @@
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -4315,7 +5066,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C19" s="80">
         <v>39976</v>
@@ -4327,10 +5078,10 @@
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -4340,7 +5091,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C20" s="80">
         <v>39977</v>
@@ -4352,10 +5103,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -4365,14 +5116,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -4382,7 +5133,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C22" s="1">
         <v>39979</v>
@@ -4394,10 +5145,10 @@
         <v>855</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -4419,11 +5170,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="133.5546875" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="133.5546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4434,19 +5185,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G1" s="102" t="s">
-        <v>17</v>
+        <v>401</v>
+      </c>
+      <c r="G1" s="100" t="s">
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -4457,18 +5208,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
+        <v>383</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G2" s="101" t="s">
-        <v>486</v>
+        <v>476</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>480</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -4477,18 +5228,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
+        <v>384</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>486</v>
+        <v>476</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>480</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -4497,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C4" s="1">
         <v>12345</v>
@@ -4509,10 +5260,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G4" s="103" t="s">
-        <v>459</v>
+        <v>487</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>453</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -4521,7 +5272,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -4529,10 +5280,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" t="s">
         <v>482</v>
-      </c>
-      <c r="G5" t="s">
-        <v>488</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -4541,20 +5292,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D6" s="1">
         <v>12345</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -4563,20 +5314,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D7" s="1">
         <v>12345</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -4585,20 +5336,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D8" s="1">
         <v>12345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -4607,7 +5358,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C9" s="1">
         <v>98765</v>
@@ -4615,10 +5366,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G9" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>472</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -4627,7 +5378,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C10" s="1">
         <v>39946</v>
@@ -4635,10 +5386,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>475</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -4647,7 +5398,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -4655,10 +5406,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G11" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -4667,20 +5418,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C12" s="1">
         <v>12345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -4689,20 +5440,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C13" s="1">
         <v>12345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -4711,20 +5462,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C14" s="1">
         <v>12345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -4733,7 +5484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -4741,10 +5492,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>478</v>
+        <v>476</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>472</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -4753,7 +5504,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -4761,10 +5512,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>475</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4773,7 +5524,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
@@ -4783,10 +5534,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G17" s="104" t="s">
-        <v>432</v>
+        <v>476</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>426</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -4795,7 +5546,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
@@ -4804,13 +5555,13 @@
         <v>12345</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>133</v>
+        <v>476</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>129</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -4819,7 +5570,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
@@ -4828,13 +5579,13 @@
         <v>12345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>133</v>
+        <v>476</v>
+      </c>
+      <c r="G19" s="102" t="s">
+        <v>129</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -4843,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
@@ -4852,13 +5603,13 @@
         <v>12345</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>123</v>
+        <v>476</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>119</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -4867,7 +5618,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4875,10 +5626,10 @@
         <v>99999999</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>485</v>
+        <v>476</v>
+      </c>
+      <c r="G21" s="101" t="s">
+        <v>479</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -4887,7 +5638,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C22" s="1">
         <v>12345</v>
@@ -4899,8 +5650,8 @@
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="104" t="s">
-        <v>434</v>
+      <c r="G22" s="102" t="s">
+        <v>428</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -4909,18 +5660,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>435</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
+        <v>429</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G23" s="103" t="s">
-        <v>486</v>
+        <v>389</v>
+      </c>
+      <c r="G23" s="101" t="s">
+        <v>480</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -4929,18 +5680,18 @@
         <v>23</v>
       </c>
       <c r="B24" s="89" t="s">
-        <v>436</v>
-      </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
+        <v>430</v>
+      </c>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>908</v>
       </c>
-      <c r="G24" s="103" t="s">
-        <v>486</v>
+      <c r="G24" s="101" t="s">
+        <v>480</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -4949,18 +5700,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
+        <v>431</v>
+      </c>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G25" s="103" t="s">
         <v>486</v>
+      </c>
+      <c r="G25" s="101" t="s">
+        <v>480</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -4969,18 +5720,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
+        <v>481</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G26" s="103" t="s">
-        <v>486</v>
+        <v>485</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>480</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -4989,19 +5740,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="89" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="103" t="s">
-        <v>490</v>
+      <c r="G27" s="101" t="s">
+        <v>484</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
+      <c r="A28" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5032,13 +5783,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -5049,19 +5800,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="1">
         <v>39905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -5069,19 +5820,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="1">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -5089,17 +5840,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -5107,19 +5858,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -5127,19 +5878,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -5147,19 +5898,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -5167,19 +5918,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -5187,34 +5938,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S13" s="63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S14" s="63" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -5234,9 +5985,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -5247,10 +5998,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -5261,11 +6012,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -5274,11 +6025,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -5287,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5298,13 +6049,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -5313,13 +6064,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -5328,13 +6079,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -5343,13 +6094,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -5358,13 +6109,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -5383,9 +6134,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5396,22 +6147,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -5422,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5430,7 +6181,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -5439,7 +6190,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5447,7 +6198,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -5456,7 +6207,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5471,17 +6222,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -5490,17 +6241,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -5509,17 +6260,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -5528,7 +6279,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -5538,7 +6289,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -5547,7 +6298,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -5557,7 +6308,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -5566,7 +6317,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5574,7 +6325,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -5583,7 +6334,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5591,7 +6342,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -5600,7 +6351,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5608,7 +6359,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -5617,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5625,7 +6376,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -5634,7 +6385,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5642,7 +6393,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -5651,7 +6402,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -5659,7 +6410,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -5668,7 +6419,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5676,7 +6427,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -5685,7 +6436,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5693,7 +6444,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -5702,7 +6453,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5710,7 +6461,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -5719,7 +6470,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5727,7 +6478,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -5736,7 +6487,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5744,7 +6495,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -5753,7 +6504,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5761,7 +6512,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -5770,7 +6521,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -5778,7 +6529,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -5787,7 +6538,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -5795,7 +6546,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -5810,10 +6561,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5843,7 +6594,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -5857,19 +6608,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>550</v>
+        <v>531</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>396</v>
+        <v>16</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5880,18 +6631,20 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="50"/>
+        <v>534</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -5901,18 +6654,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="50"/>
+        <v>534</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -5922,99 +6677,128 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="50"/>
+        <v>534</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="G6" s="116" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>531</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>533</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="60">
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>380</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>532</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>426</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="112"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="112"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="112"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="112"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3:C5" r:id="rId2" display="http://demo.guru99.com/v4/" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C6:C8" r:id="rId3" display="http://demo.guru99.com/v4/" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6025,7 +6809,7 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -6048,40 +6832,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>5</v>
@@ -6092,25 +6876,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="5">
         <v>29969</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1">
         <v>566721</v>
@@ -6119,41 +6903,45 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+        <v>115</v>
+      </c>
+      <c r="N2" s="120" t="s">
+        <v>542</v>
+      </c>
+      <c r="O2" s="120" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5">
         <v>30715</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1">
         <v>789067</v>
@@ -6162,13 +6950,13 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
@@ -6178,25 +6966,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>28921</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1">
         <v>890789</v>
@@ -6205,13 +6993,13 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
@@ -6221,23 +7009,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5">
         <v>31855</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I5" s="1">
         <v>237876</v>
@@ -6246,13 +7034,13 @@
         <v>9991237890</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
@@ -6262,25 +7050,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5">
         <v>31481</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1">
         <v>667897</v>
@@ -6289,13 +7077,13 @@
         <v>5556789087</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
@@ -6305,25 +7093,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>12334</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5">
         <v>30477</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1">
         <v>788767</v>
@@ -6332,13 +7120,13 @@
         <v>5554567897</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
@@ -6348,25 +7136,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5">
         <v>28690</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
         <v>897654</v>
@@ -6375,13 +7163,13 @@
         <v>4448960786</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
@@ -6391,25 +7179,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>29938</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I9" s="1">
         <v>765897</v>
@@ -6418,13 +7206,13 @@
         <v>4447895432</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
@@ -6434,23 +7222,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="5">
         <v>32527</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
         <v>789123</v>
@@ -6459,13 +7247,13 @@
         <v>7779081234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
@@ -6475,23 +7263,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1">
         <v>678234</v>
@@ -6500,13 +7288,13 @@
         <v>7776892313</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
@@ -6516,25 +7304,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5">
         <v>235197</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
         <v>786889</v>
@@ -6543,13 +7331,13 @@
         <v>7771236789</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
@@ -6559,23 +7347,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5">
         <v>31397</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I13" s="1">
         <v>678543</v>
@@ -6584,13 +7372,13 @@
         <v>2227657890</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
@@ -6600,25 +7388,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5">
         <v>28071</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I14" s="1">
         <v>657545</v>
@@ -6627,13 +7415,13 @@
         <v>90167189172</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
@@ -6643,13 +7431,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5">
         <v>32980</v>
@@ -6658,10 +7446,10 @@
         <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I15" s="1">
         <v>567987</v>
@@ -6670,13 +7458,13 @@
         <v>8786357718</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
@@ -6686,25 +7474,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5">
         <v>33314</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I16" s="1">
         <v>657876</v>
@@ -6713,13 +7501,13 @@
         <v>4417678901</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
@@ -6729,25 +7517,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5">
         <v>35964</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I17" s="1">
         <v>657987</v>
@@ -6756,13 +7544,13 @@
         <v>4417657812</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N17" s="50"/>
       <c r="O17" s="50"/>
@@ -6772,23 +7560,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5">
         <v>34169</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I18" s="1">
         <v>786545</v>
@@ -6797,13 +7585,13 @@
         <v>9997863271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
@@ -6813,25 +7601,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5">
         <v>33667</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I19" s="1">
         <v>879656</v>
@@ -6840,13 +7628,13 @@
         <v>6557891271</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
@@ -6856,25 +7644,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5">
         <v>32238</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G20" s="1">
         <v>56687</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I20" s="1">
         <v>667434</v>
@@ -6883,13 +7671,13 @@
         <v>7779874561</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -6899,25 +7687,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5">
         <v>33773</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1">
         <v>467543</v>
@@ -6926,13 +7714,13 @@
         <v>7779084515</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
@@ -6942,25 +7730,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5">
         <v>33437</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I22" s="1">
         <v>786433</v>
@@ -6969,13 +7757,13 @@
         <v>5557789012</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
@@ -6985,22 +7773,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5">
         <v>35859</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
@@ -7010,13 +7798,13 @@
         <v>1018237829</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -7026,25 +7814,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" s="5">
         <v>34158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I24" s="1">
         <v>775645</v>
@@ -7053,13 +7841,13 @@
         <v>1015677890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
@@ -7069,22 +7857,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5">
         <v>34432</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H25" s="1">
         <v>13345</v>
@@ -7096,13 +7884,13 @@
         <v>1012237893</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -7112,25 +7900,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5">
         <v>35163</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I26" s="1">
         <v>765435</v>
@@ -7139,13 +7927,13 @@
         <v>1016738377</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N26" s="50"/>
       <c r="O26" s="50"/>
@@ -7155,25 +7943,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5">
         <v>32971</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I27" s="1">
         <v>767546</v>
@@ -7182,13 +7970,13 @@
         <v>1239872361</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
@@ -7198,38 +7986,38 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28" s="5">
         <v>32975</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
         <v>4417728910</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -7239,40 +8027,40 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5">
         <v>33733</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J29" s="1">
         <v>5657811232</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
@@ -7282,40 +8070,40 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E30" s="5">
         <v>34095</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J30" s="1">
         <v>6628725671</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -7325,40 +8113,40 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5">
         <v>34888</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J31" s="1">
         <v>5529874561</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
@@ -7368,25 +8156,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E32" s="5">
         <v>36025</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I32" s="1">
         <v>5654325</v>
@@ -7395,13 +8183,13 @@
         <v>5658901234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
@@ -7411,25 +8199,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E33" s="5">
         <v>34128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I33" s="1">
         <v>5664</v>
@@ -7438,13 +8226,13 @@
         <v>9328982123</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -7454,38 +8242,38 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E34" s="5">
         <v>34523</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I34" s="1">
         <v>346765</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
@@ -7495,40 +8283,40 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E35" s="5">
         <v>35162</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I35" s="1">
         <v>457865</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
@@ -7538,40 +8326,40 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E36" s="5">
         <v>35977</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I36" s="1">
         <v>778654</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -7581,40 +8369,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E37" s="5">
         <v>34351</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I37" s="1">
         <v>326787</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
@@ -7624,25 +8412,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E38" s="5">
         <v>35527</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I38" s="1">
         <v>456367</v>
@@ -7651,13 +8439,13 @@
         <v>8806785435</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
@@ -7667,25 +8455,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E39" s="5">
         <v>34127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I39" s="1">
         <v>235789</v>
@@ -7694,13 +8482,13 @@
         <v>2227658912</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
@@ -7710,25 +8498,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E40" s="5">
         <v>34523</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I40" s="1">
         <v>323678</v>
@@ -7738,10 +8526,10 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
@@ -7751,25 +8539,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E41" s="5">
         <v>35965</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I41" s="1">
         <v>234878</v>
@@ -7778,13 +8566,13 @@
         <v>4415427819</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
@@ -7794,25 +8582,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E42" s="5">
         <v>34432</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I42" s="1">
         <v>879453</v>
@@ -7821,13 +8609,13 @@
         <v>4412568916</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
@@ -7837,25 +8625,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E43" s="5">
         <v>32966</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I43" s="1">
         <v>345788</v>
@@ -7864,13 +8652,13 @@
         <v>5557826541</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
@@ -7880,25 +8668,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E44" s="5">
         <v>33333</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I44" s="1">
         <v>653652</v>
@@ -7907,13 +8695,13 @@
         <v>5554237891</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
@@ -7923,25 +8711,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E45" s="5">
         <v>34108</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I45" s="1">
         <v>453245</v>
@@ -7954,10 +8742,10 @@
         <v>jos@guest.com</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N45" s="50"/>
       <c r="O45" s="50"/>
@@ -7967,25 +8755,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46" s="5">
         <v>33376</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I46" s="1">
         <v>456456</v>
@@ -7994,13 +8782,13 @@
         <v>90165328917</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
@@ -8010,25 +8798,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E47" s="5">
         <v>35167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I47" s="1">
         <v>345235</v>
@@ -8037,11 +8825,11 @@
         <v>8783426621</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
@@ -8051,25 +8839,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E48" s="5">
         <v>34096</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I48" s="1">
         <v>765787</v>
@@ -8078,13 +8866,13 @@
         <v>7776528901</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
@@ -8094,25 +8882,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E49" s="5">
         <v>33708</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I49" s="1">
         <v>897654</v>
@@ -8121,13 +8909,13 @@
         <v>9992346781</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
@@ -8137,25 +8925,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E50" s="5">
         <v>31173</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I50" s="1">
         <v>676588</v>
@@ -8164,13 +8952,13 @@
         <v>2226189271</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
@@ -8180,7 +8968,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -8193,33 +8981,33 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="N51" s="106"/>
+        <v>279</v>
+      </c>
+      <c r="N51" s="104"/>
       <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="89"/>
-      <c r="B52" s="108" t="s">
-        <v>494</v>
+      <c r="B52" s="106" t="s">
+        <v>488</v>
       </c>
       <c r="C52" s="89" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D52" s="89" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>30537</v>
       </c>
       <c r="F52" s="89" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G52" s="89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H52" s="89" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I52" s="89">
         <v>667875</v>
@@ -8227,14 +9015,14 @@
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="107" t="s">
-        <v>497</v>
+      <c r="K52" s="105" t="s">
+        <v>491</v>
       </c>
       <c r="L52" s="89" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -8305,8 +9093,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8317,7 +9105,7 @@
     <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="43.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -8328,28 +9116,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
@@ -8360,17 +9148,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1">
         <v>566721</v>
@@ -8379,29 +9169,33 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K2" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K2" s="128" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1">
         <v>566721</v>
@@ -8410,29 +9204,33 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K3" s="121" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="1">
         <v>566721</v>
@@ -8441,29 +9239,33 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K4" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K4" s="122" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1">
         <v>543789</v>
@@ -8472,29 +9274,33 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K5" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K5" s="123" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>566721</v>
@@ -8503,29 +9309,33 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K6" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K6" s="124" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1">
         <v>566721</v>
@@ -8534,29 +9344,33 @@
         <v>7771232345</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K7" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K7" s="125" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>566721</v>
@@ -8565,21 +9379,25 @@
         <v>7771232345</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K8" s="50"/>
+        <v>319</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -8587,16 +9405,18 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K9" s="50"/>
+        <v>321</v>
+      </c>
+      <c r="K9" s="127" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8606,19 +9426,21 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K10" s="50"/>
+        <v>291</v>
+      </c>
+      <c r="K10" s="129" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -8627,19 +9449,21 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="50"/>
+        <v>129</v>
+      </c>
+      <c r="K11" s="130" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -8648,19 +9472,21 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="50"/>
+        <v>129</v>
+      </c>
+      <c r="K12" s="131" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -8669,16 +9495,18 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="50"/>
+        <v>119</v>
+      </c>
+      <c r="K13" s="132" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C14" s="1">
         <v>93069</v>
@@ -8690,16 +9518,18 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K14" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="K14" s="133" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C15" s="1">
         <v>12334</v>
@@ -8711,16 +9541,18 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="K15" s="134" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1">
         <v>1238905672</v>
@@ -8732,20 +9564,22 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K16" s="50"/>
+        <v>324</v>
+      </c>
+      <c r="K16" s="135" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="109" t="s">
-        <v>498</v>
-      </c>
-      <c r="C17" s="98">
+      <c r="A17" s="96"/>
+      <c r="B17" s="107" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="96">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -8764,18 +9598,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="51.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -8787,10 +9621,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -8801,11 +9635,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="48"/>
+        <v>290</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E2" s="50"/>
     </row>
@@ -8814,11 +9647,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E3" s="50"/>
     </row>
@@ -8827,11 +9660,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E4" s="50"/>
     </row>
@@ -8840,11 +9673,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E5" s="50"/>
     </row>
@@ -8853,11 +9686,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E6" s="50"/>
     </row>
@@ -8866,11 +9699,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E7" s="50"/>
     </row>
@@ -8879,11 +9712,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E8" s="50"/>
     </row>
@@ -8892,11 +9725,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E9" s="50"/>
     </row>
@@ -8905,11 +9738,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E10" s="50"/>
     </row>
@@ -8918,11 +9751,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -8931,11 +9764,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -8944,11 +9777,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E13" s="50"/>
     </row>
@@ -8957,11 +9790,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E14" s="50"/>
     </row>
@@ -8970,11 +9803,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E15" s="50"/>
     </row>
@@ -8983,11 +9816,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E16" s="50"/>
     </row>
@@ -8996,11 +9829,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E17" s="50"/>
     </row>
@@ -9009,78 +9842,90 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="48"/>
+        <v>290</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>379</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E18" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="E18" s="137" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E19" s="50"/>
+        <v>291</v>
+      </c>
+      <c r="E19" s="138" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="50"/>
+        <v>129</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="50"/>
+        <v>129</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="50"/>
+        <v>119</v>
+      </c>
+      <c r="E22" s="141" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="49">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C23" s="1">
         <v>93069</v>
@@ -9088,14 +9933,16 @@
       <c r="D23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="142" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1">
         <v>1000201</v>
@@ -9103,14 +9950,16 @@
       <c r="D24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="143" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>24</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C25" s="1">
         <v>10003459012</v>
@@ -9118,47 +9967,51 @@
       <c r="D25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="144" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="60">
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="60">
-        <v>2102</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>363</v>
+      </c>
+      <c r="C26" s="145">
+        <v>96501</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="147" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52">
+      <c r="A27" s="49">
         <v>26</v>
       </c>
-      <c r="B27" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="C27" s="51">
+      <c r="B27" s="136" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="1">
         <v>37672</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="89" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="51"/>
       <c r="B28" s="51" t="s">
-        <v>499</v>
-      </c>
-      <c r="C28" s="110">
+        <v>493</v>
+      </c>
+      <c r="C28" s="108">
         <v>12345</v>
       </c>
       <c r="D28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9168,7 +10021,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9198,19 +10052,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -9221,25 +10075,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C2" s="1">
         <v>2102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -9247,19 +10101,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1">
         <v>2102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9269,19 +10123,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1">
         <v>89280</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9291,19 +10145,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1">
         <v>89280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1">
         <v>4600</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9313,19 +10167,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1">
         <v>2102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E6" s="1">
         <v>1200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -9335,19 +10189,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1">
         <v>2102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1">
         <v>1400</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9357,17 +10211,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E8" s="1">
         <v>1600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -9377,19 +10231,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E9" s="1">
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -9399,19 +10253,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E10" s="1">
         <v>1900</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -9421,19 +10275,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E11" s="1">
         <v>2000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -9443,19 +10297,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C12" s="1">
         <v>1234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E12" s="1">
         <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -9465,7 +10319,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C13" s="1">
         <v>2102</v>
@@ -9475,7 +10329,7 @@
         <v>600</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -9485,17 +10339,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C14" s="1">
         <v>94925</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -9505,19 +10359,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C15" s="1">
         <v>94925</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -9527,19 +10381,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C16" s="1">
         <v>94925</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -9549,19 +10403,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C17" s="1">
         <v>94925</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -9571,19 +10425,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C18" s="1">
         <v>94925</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E18" s="1">
         <v>499</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -9593,19 +10447,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C19" s="1">
         <v>94925</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E19" s="1">
         <v>500</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -9615,19 +10469,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C20" s="1">
         <v>94925</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E20" s="1">
         <v>501</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -9637,19 +10491,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C21" s="1">
         <v>94925</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E21" s="1">
         <v>100000000</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -9659,19 +10513,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C22" s="1">
         <v>89280</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E22" s="1">
         <v>499</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -9681,19 +10535,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C23" s="1">
         <v>89280</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E23" s="1">
         <v>500</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -9703,19 +10557,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C24" s="1">
         <v>89280</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E24" s="1">
         <v>501</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -9725,19 +10579,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C25" s="1">
         <v>89280</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E25" s="1">
         <v>200000000</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -9747,35 +10601,35 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="55"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="98">
+      <c r="A27" s="96">
         <v>26</v>
       </c>
-      <c r="B27" s="99" t="s">
-        <v>457</v>
-      </c>
-      <c r="C27" s="98">
+      <c r="B27" s="97" t="s">
+        <v>451</v>
+      </c>
+      <c r="C27" s="96">
         <v>37672</v>
       </c>
-      <c r="D27" s="98" t="s">
-        <v>519</v>
-      </c>
-      <c r="E27" s="98">
+      <c r="D27" s="96" t="s">
+        <v>500</v>
+      </c>
+      <c r="E27" s="96">
         <v>1000</v>
       </c>
-      <c r="F27" s="98" t="s">
-        <v>293</v>
+      <c r="F27" s="96" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -9794,7 +10648,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -9806,13 +10660,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -9823,14 +10677,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -9839,14 +10693,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -9855,14 +10709,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -9871,14 +10725,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -9887,16 +10741,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -9929,10 +10783,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -9943,16 +10797,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -9960,11 +10814,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E3" s="50"/>
     </row>
@@ -9973,11 +10827,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E4" s="50"/>
     </row>
@@ -9986,11 +10840,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E5" s="50"/>
     </row>
@@ -9999,11 +10853,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E6" s="50"/>
     </row>
@@ -10012,11 +10866,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E7" s="50"/>
     </row>
@@ -10025,11 +10879,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E8" s="50"/>
     </row>
@@ -10038,11 +10892,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E9" s="50"/>
     </row>
@@ -10051,11 +10905,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E10" s="50"/>
     </row>
@@ -10064,11 +10918,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E11" s="50"/>
     </row>
@@ -10077,11 +10931,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -10090,11 +10944,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E13" s="50"/>
     </row>
@@ -10103,11 +10957,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E14" s="50"/>
     </row>
@@ -10116,11 +10970,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E15" s="50"/>
     </row>
@@ -10129,13 +10983,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E16" s="50"/>
     </row>
@@ -10144,13 +10998,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" s="50"/>
     </row>
@@ -10159,13 +11013,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E18" s="50"/>
     </row>
@@ -10174,13 +11028,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C19" s="1">
         <v>39282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E19" s="50"/>
     </row>
@@ -10189,13 +11043,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C20" s="1">
         <v>1239682</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E20" s="50"/>
     </row>
@@ -10204,25 +11058,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C21" s="1">
         <v>45003459012</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="72" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C22" s="1">
         <v>39946</v>
       </c>
       <c r="D22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -10255,22 +11109,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -10281,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C2" s="48">
         <v>39905</v>
@@ -10293,16 +11147,16 @@
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I2" s="81" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -10310,28 +11164,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="48">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -10339,7 +11193,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
@@ -10349,16 +11203,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I4" s="83" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -10366,10 +11220,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>
@@ -10378,16 +11232,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H5" s="84" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -10395,10 +11249,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -10407,16 +11261,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -10424,10 +11278,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -10436,16 +11290,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -10453,7 +11307,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -10465,16 +11319,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -10482,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C9" s="1">
         <v>39908</v>
@@ -10494,16 +11348,16 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H9" s="88" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -10511,14 +11365,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -10528,14 +11382,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -10545,14 +11399,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -10562,14 +11416,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -10579,17 +11433,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="1">
         <v>1000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -10599,14 +11453,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -10616,7 +11470,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C16" s="48">
         <v>39905</v>
@@ -10628,10 +11482,10 @@
         <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -10641,7 +11495,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C17" s="48">
         <v>39906</v>
@@ -10656,7 +11510,7 @@
         <v>123345</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -10666,7 +11520,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C18" s="1">
         <v>39905</v>
@@ -10678,10 +11532,10 @@
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -10691,7 +11545,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C19" s="1">
         <v>39906</v>
@@ -10703,10 +11557,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -10716,14 +11570,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2CFFA-9421-4747-A3C4-186A0AB8960B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B77DBC1B-2DB5-4F4F-871D-70AEB4239DE7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
-    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
-    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
-    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
-    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
-    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
-    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
-    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
-    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
-    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
-    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
-    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
-    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
-    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
+    <sheet name="LoginLogout" r:id="rId2" sheetId="1"/>
+    <sheet name="NewCust" r:id="rId3" sheetId="2"/>
+    <sheet name="EditCust" r:id="rId4" sheetId="3"/>
+    <sheet name="DeleteCust" r:id="rId5" sheetId="7"/>
+    <sheet name="NewAcct" r:id="rId6" sheetId="8"/>
+    <sheet name="EditAcct" r:id="rId7" sheetId="9"/>
+    <sheet name="DeleteAcct" r:id="rId8" sheetId="10"/>
+    <sheet name="Deposit" r:id="rId9" sheetId="18"/>
+    <sheet name="Withdrawal" r:id="rId10" sheetId="12"/>
+    <sheet name="FundTransfer" r:id="rId11" sheetId="13"/>
+    <sheet name="BalEnquiry" r:id="rId12" sheetId="17"/>
+    <sheet name="MiniStat" r:id="rId13" sheetId="15"/>
+    <sheet name="CustStat" r:id="rId14" sheetId="16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$52</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$27</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$A$1:$O$52</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +42,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
+    <comment authorId="0" ref="C26" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,41 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{5314E864-4DAD-48A0-9132-A0FFD5A6ECD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Customer ids needs to be creared before running addnewAcct function (Marked in yellow color)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,13 +138,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -138,13 +172,13 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment authorId="0" ref="F3" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -172,13 +206,13 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -206,13 +240,13 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment authorId="0" ref="D2" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="576">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1371,571 +1405,611 @@
     <t>Account Deleted Sucessfully</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>You Have Succesfully Logged Out!!</t>
+  </si>
+  <si>
+    <t>pop-up &gt; Account does not exist</t>
+  </si>
+  <si>
+    <t>Existing savings account</t>
+  </si>
+  <si>
+    <t>Existing current account</t>
+  </si>
+  <si>
+    <t>Only Spaces in account number</t>
+  </si>
+  <si>
+    <t>Deleted account number</t>
+  </si>
+  <si>
+    <t>Account number exceeding 10 digits</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>#$%%^</t>
+  </si>
+  <si>
+    <t>Balance Details for Account</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Pass - Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Account does not exist</t>
+  </si>
+  <si>
+    <t>balBefore</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>currentbal</t>
+  </si>
+  <si>
+    <t>You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>Transaction details of Deposit for Account</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>savings investment</t>
+  </si>
+  <si>
+    <t>current investment</t>
+  </si>
+  <si>
+    <t>Deleting the account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Deleting the customer id created by a different manager id</t>
+  </si>
+  <si>
+    <t>Account created by a different manager id</t>
+  </si>
+  <si>
+    <t>deleted account</t>
+  </si>
+  <si>
+    <t>Unauthorized account</t>
+  </si>
+  <si>
+    <t>blank account</t>
+  </si>
+  <si>
+    <t>only spaces</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>Exisitng account with 500 balance</t>
+  </si>
+  <si>
+    <t>Blank amount</t>
+  </si>
+  <si>
+    <t>Only spaces in amount</t>
+  </si>
+  <si>
+    <t>Characters in amount</t>
+  </si>
+  <si>
+    <t>Special characters in amount</t>
+  </si>
+  <si>
+    <t>Amount field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank description</t>
+  </si>
+  <si>
+    <t>Description can not be blank</t>
+  </si>
+  <si>
+    <t>Only spaces in description</t>
+  </si>
+  <si>
+    <t>Numbers in description</t>
+  </si>
+  <si>
+    <t>Special characters in description</t>
+  </si>
+  <si>
+    <t>%^&amp;*(</t>
+  </si>
+  <si>
+    <t>Description exceeding 10 characters</t>
+  </si>
+  <si>
+    <t>SampleDeposit</t>
+  </si>
+  <si>
+    <t>All three fields blank</t>
+  </si>
+  <si>
+    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>Transaction details of Withdrawal for Account</t>
+  </si>
+  <si>
+    <t>You are not authorize to debit money from this account!!</t>
+  </si>
+  <si>
+    <t>HighAmount</t>
+  </si>
+  <si>
+    <t>Transaction Failed. Account Balance Low!!!</t>
+  </si>
+  <si>
+    <t>Amount greater than 999999</t>
+  </si>
+  <si>
+    <t>%^&amp;*</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Amount greater than balBefore</t>
+  </si>
+  <si>
+    <t>Amount greater than 99999999</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>Add a bank account to a customer id created by a different manager</t>
+  </si>
+  <si>
+    <t>You are not authorize to generate statement of this Account!!</t>
+  </si>
+  <si>
+    <t>Payers account No and Payees account No Must Not be Same!!!</t>
+  </si>
+  <si>
+    <t>payersacctnum</t>
+  </si>
+  <si>
+    <t>payeesacctnum</t>
+  </si>
+  <si>
+    <t>Blank payer's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payer's account number</t>
+  </si>
+  <si>
+    <t>Characters in payer's account number</t>
+  </si>
+  <si>
+    <t>Special characters inpayer's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payer's account number</t>
+  </si>
+  <si>
+    <t>Payer's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Blank payee's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payee's account number</t>
+  </si>
+  <si>
+    <t>Characters in payee's account number</t>
+  </si>
+  <si>
+    <t>Special characters in payee's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payee's account number</t>
+  </si>
+  <si>
+    <t>Payee's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>All four fields blank</t>
+  </si>
+  <si>
+    <t>Same payer's and payee's account number</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>#$%</t>
+  </si>
+  <si>
+    <t>Account 98765does not exist!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>&amp;&amp;^%</t>
+  </si>
+  <si>
+    <t>Account 39946does not exist!!!</t>
+  </si>
+  <si>
+    <t>test desc</t>
+  </si>
+  <si>
+    <t>%^&amp;</t>
+  </si>
+  <si>
+    <t>Amount greater than balance in payer's account</t>
+  </si>
+  <si>
+    <t>Transfer Failed. Account Balance low!!</t>
+  </si>
+  <si>
+    <t>Fund Transfer Details</t>
+  </si>
+  <si>
+    <t>Description exceeding 20 characters</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payees Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>description exceed 20</t>
+  </si>
+  <si>
+    <t>%^^*</t>
+  </si>
+  <si>
+    <t>same accounts</t>
+  </si>
+  <si>
+    <t>Adding a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Jishna</t>
+  </si>
+  <si>
+    <t>6 9th cross MK road</t>
+  </si>
+  <si>
+    <t>jishna@test.com</t>
+  </si>
+  <si>
+    <t>Editing a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Deleting a customer id with direct link without logging in</t>
+  </si>
+  <si>
+    <t>You are not authorize to get Balance details of this account!!</t>
+  </si>
+  <si>
+    <t>not found page</t>
+  </si>
+  <si>
+    <t>You are not authorize to do fund transfer!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to delete this Account!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to edit this Account!!</t>
+  </si>
+  <si>
+    <t>Blank page</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Change savings to current</t>
+  </si>
+  <si>
+    <t>Change savings to savings</t>
+  </si>
+  <si>
+    <t>Change current to savings</t>
+  </si>
+  <si>
+    <t>Change current to current</t>
+  </si>
+  <si>
+    <t>No Changes made to Account records</t>
+  </si>
+  <si>
+    <t>Account details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Change account type of the account created  by a different manager</t>
+  </si>
+  <si>
+    <t>Last Five Transaction Details for Account No</t>
+  </si>
+  <si>
+    <t>fromdate</t>
+  </si>
+  <si>
+    <t>todate</t>
+  </si>
+  <si>
+    <t>mintransval</t>
+  </si>
+  <si>
+    <t>numoftrans</t>
+  </si>
+  <si>
+    <t>Blank from date</t>
+  </si>
+  <si>
+    <t>Future from date</t>
+  </si>
+  <si>
+    <t>Blank to date</t>
+  </si>
+  <si>
+    <t>Past to date</t>
+  </si>
+  <si>
+    <t>FromDate field should be lower than ToDate field!!</t>
+  </si>
+  <si>
+    <t>From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>To Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank min trans value</t>
+  </si>
+  <si>
+    <t>Only spaces in min trans value</t>
+  </si>
+  <si>
+    <t>Characters in min trans value</t>
+  </si>
+  <si>
+    <t>Special characters in min trans value</t>
+  </si>
+  <si>
+    <t>No Transaction details found !!!</t>
+  </si>
+  <si>
+    <t>Minimum transaction value exceeding the actual transaction values</t>
+  </si>
+  <si>
+    <t>Blank number of trans</t>
+  </si>
+  <si>
+    <t>Only spaces in number of trans</t>
+  </si>
+  <si>
+    <t>Characters in number of trans</t>
+  </si>
+  <si>
+    <t>Special characters in number of trans</t>
+  </si>
+  <si>
+    <t>Number of transactions is zero</t>
+  </si>
+  <si>
+    <t>mngr137461</t>
+  </si>
+  <si>
+    <t>Guru@2018</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/</t>
+  </si>
+  <si>
+    <t>User is not valid</t>
+  </si>
+  <si>
+    <t>Pass - Guru99 Bank Manager HomePage</t>
+  </si>
+  <si>
+    <t>Pass - User is not valid</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Password must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - You Have Succesfully Logged Out!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer Registered Successfully!!!</t>
+  </si>
+  <si>
+    <t>72172</t>
+  </si>
+  <si>
+    <t>Pass - Customer details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Pass - No Changes made to Customer records</t>
+  </si>
+  <si>
+    <t>Pass - Customer ID is required</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to edit this customer!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/addcustomerpage.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/EditCustomer.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/DeleteCustomerInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/addAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/editAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/deleteAccountInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/DepositInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/WithdrawalInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/FundTransInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/PasswordInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/BalEnqInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/MiniStatementInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/CustomisedStatementInput.php</t>
+  </si>
+  <si>
+    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+  </si>
+  <si>
+    <t>You are not authorize to Add Account for this Customer</t>
+  </si>
+  <si>
+    <t>NewAcct Failure messages(old)</t>
+  </si>
+  <si>
     <t>Pass - Account Generated Successfully!!!</t>
   </si>
   <si>
-    <t>39283</t>
-  </si>
-  <si>
-    <t>Pass - Account Deleted Sucessfully</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>You Have Succesfully Logged Out!!</t>
-  </si>
-  <si>
-    <t>pop-up &gt; Account does not exist</t>
-  </si>
-  <si>
-    <t>Existing savings account</t>
-  </si>
-  <si>
-    <t>Existing current account</t>
-  </si>
-  <si>
-    <t>Only Spaces in account number</t>
-  </si>
-  <si>
-    <t>Deleted account number</t>
-  </si>
-  <si>
-    <t>Account number exceeding 10 digits</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>#$%%^</t>
-  </si>
-  <si>
-    <t>Balance Details for Account</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Pass - Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - Characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass - Special characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass - Account does not exist</t>
-  </si>
-  <si>
-    <t>balBefore</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>currentbal</t>
-  </si>
-  <si>
-    <t>You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>Transaction details of Deposit for Account</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>savings investment</t>
-  </si>
-  <si>
-    <t>current investment</t>
-  </si>
-  <si>
-    <t>Deleting the account created by a different manager id</t>
-  </si>
-  <si>
-    <t>Deleting the customer id created by a different manager id</t>
-  </si>
-  <si>
-    <t>Account created by a different manager id</t>
-  </si>
-  <si>
-    <t>deleted account</t>
-  </si>
-  <si>
-    <t>Unauthorized account</t>
-  </si>
-  <si>
-    <t>blank account</t>
-  </si>
-  <si>
-    <t>only spaces</t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>characters</t>
-  </si>
-  <si>
-    <t>$%^&amp;*</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>Exisitng account with 500 balance</t>
-  </si>
-  <si>
-    <t>Blank amount</t>
-  </si>
-  <si>
-    <t>Only spaces in amount</t>
-  </si>
-  <si>
-    <t>Characters in amount</t>
-  </si>
-  <si>
-    <t>Special characters in amount</t>
-  </si>
-  <si>
-    <t>Amount field must not be blank</t>
-  </si>
-  <si>
-    <t>Blank description</t>
-  </si>
-  <si>
-    <t>Description can not be blank</t>
-  </si>
-  <si>
-    <t>Only spaces in description</t>
-  </si>
-  <si>
-    <t>Numbers in description</t>
-  </si>
-  <si>
-    <t>Special characters in description</t>
-  </si>
-  <si>
-    <t>%^&amp;*(</t>
-  </si>
-  <si>
-    <t>Description exceeding 10 characters</t>
-  </si>
-  <si>
-    <t>SampleDeposit</t>
-  </si>
-  <si>
-    <t>All three fields blank</t>
-  </si>
-  <si>
-    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
-  </si>
-  <si>
-    <t>Transaction details of Withdrawal for Account</t>
-  </si>
-  <si>
-    <t>You are not authorize to debit money from this account!!</t>
-  </si>
-  <si>
-    <t>HighAmount</t>
-  </si>
-  <si>
-    <t>Transaction Failed. Account Balance Low!!!</t>
-  </si>
-  <si>
-    <t>Amount greater than 999999</t>
-  </si>
-  <si>
-    <t>%^&amp;*</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>Amount greater than balBefore</t>
-  </si>
-  <si>
-    <t>Amount greater than 99999999</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>Add a bank account to a customer id created by a different manager</t>
-  </si>
-  <si>
-    <t>You are not authorize to generate statement of this Account!!</t>
-  </si>
-  <si>
-    <t>Payers account No and Payees account No Must Not be Same!!!</t>
-  </si>
-  <si>
-    <t>payersacctnum</t>
-  </si>
-  <si>
-    <t>payeesacctnum</t>
-  </si>
-  <si>
-    <t>Blank payer's account number</t>
-  </si>
-  <si>
-    <t>Only spaces in payer's account number</t>
-  </si>
-  <si>
-    <t>Characters in payer's account number</t>
-  </si>
-  <si>
-    <t>Special characters inpayer's  account number</t>
-  </si>
-  <si>
-    <t>Deleted payer's account number</t>
-  </si>
-  <si>
-    <t>Payer's account created by a different manager id</t>
-  </si>
-  <si>
-    <t>Blank payee's account number</t>
-  </si>
-  <si>
-    <t>Only spaces in payee's account number</t>
-  </si>
-  <si>
-    <t>Characters in payee's account number</t>
-  </si>
-  <si>
-    <t>Special characters in payee's  account number</t>
-  </si>
-  <si>
-    <t>Deleted payee's account number</t>
-  </si>
-  <si>
-    <t>Payee's account created by a different manager id</t>
-  </si>
-  <si>
-    <t>All four fields blank</t>
-  </si>
-  <si>
-    <t>Same payer's and payee's account number</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>#$%</t>
-  </si>
-  <si>
-    <t>Account 98765does not exist!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>&amp;&amp;^%</t>
-  </si>
-  <si>
-    <t>Account 39946does not exist!!!</t>
-  </si>
-  <si>
-    <t>test desc</t>
-  </si>
-  <si>
-    <t>%^&amp;</t>
-  </si>
-  <si>
-    <t>Amount greater than balance in payer's account</t>
-  </si>
-  <si>
-    <t>Transfer Failed. Account Balance low!!</t>
-  </si>
-  <si>
-    <t>Fund Transfer Details</t>
-  </si>
-  <si>
-    <t>Description exceeding 20 characters</t>
-  </si>
-  <si>
-    <t>Payers Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Payees Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
-  </si>
-  <si>
-    <t>description exceed 20</t>
-  </si>
-  <si>
-    <t>%^^*</t>
-  </si>
-  <si>
-    <t>same accounts</t>
-  </si>
-  <si>
-    <t>Adding a customer with direct link without logging in</t>
-  </si>
-  <si>
-    <t>Jishna</t>
-  </si>
-  <si>
-    <t>6 9th cross MK road</t>
-  </si>
-  <si>
-    <t>jishna@test.com</t>
-  </si>
-  <si>
-    <t>Editing a customer with direct link without logging in</t>
-  </si>
-  <si>
-    <t>Deleting a customer id with direct link without logging in</t>
-  </si>
-  <si>
-    <t>You are not authorize to get Balance details of this account!!</t>
-  </si>
-  <si>
-    <t>not found page</t>
-  </si>
-  <si>
-    <t>You are not authorize to do fund transfer!!</t>
-  </si>
-  <si>
-    <t>You are not authorize to delete this Account!!</t>
-  </si>
-  <si>
-    <t>You are not authorize to edit this Account!!</t>
-  </si>
-  <si>
-    <t>Blank page</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>Change savings to current</t>
-  </si>
-  <si>
-    <t>Change savings to savings</t>
-  </si>
-  <si>
-    <t>Change current to savings</t>
-  </si>
-  <si>
-    <t>Change current to current</t>
-  </si>
-  <si>
-    <t>No Changes made to Account records</t>
-  </si>
-  <si>
-    <t>Account details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t>Change account type of the account created  by a different manager</t>
-  </si>
-  <si>
-    <t>Last Five Transaction Details for Account No</t>
-  </si>
-  <si>
-    <t>fromdate</t>
-  </si>
-  <si>
-    <t>todate</t>
-  </si>
-  <si>
-    <t>mintransval</t>
-  </si>
-  <si>
-    <t>numoftrans</t>
-  </si>
-  <si>
-    <t>Blank from date</t>
-  </si>
-  <si>
-    <t>Future from date</t>
-  </si>
-  <si>
-    <t>Blank to date</t>
-  </si>
-  <si>
-    <t>Past to date</t>
-  </si>
-  <si>
-    <t>FromDate field should be lower than ToDate field!!</t>
-  </si>
-  <si>
-    <t>From Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>To Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>Blank min trans value</t>
-  </si>
-  <si>
-    <t>Only spaces in min trans value</t>
-  </si>
-  <si>
-    <t>Characters in min trans value</t>
-  </si>
-  <si>
-    <t>Special characters in min trans value</t>
-  </si>
-  <si>
-    <t>No Transaction details found !!!</t>
-  </si>
-  <si>
-    <t>Minimum transaction value exceeding the actual transaction values</t>
-  </si>
-  <si>
-    <t>Blank number of trans</t>
-  </si>
-  <si>
-    <t>Only spaces in number of trans</t>
-  </si>
-  <si>
-    <t>Characters in number of trans</t>
-  </si>
-  <si>
-    <t>Special characters in number of trans</t>
-  </si>
-  <si>
-    <t>Number of transactions is zero</t>
-  </si>
-  <si>
-    <t>mngr137461</t>
-  </si>
-  <si>
-    <t>Guru@2018</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/</t>
-  </si>
-  <si>
-    <t>User is not valid</t>
-  </si>
-  <si>
-    <t>Pass - Guru99 Bank Manager HomePage</t>
-  </si>
-  <si>
-    <t>Pass - User is not valid</t>
-  </si>
-  <si>
-    <t>Pass - User-ID must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - Password must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - User-ID must not be blankPassword must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - You Have Succesfully Logged Out!!</t>
-  </si>
-  <si>
-    <t>Pass - Customer Registered Successfully!!!</t>
-  </si>
-  <si>
-    <t>72172</t>
-  </si>
-  <si>
-    <t>Pass - Customer details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t>Pass - No Changes made to Customer records</t>
-  </si>
-  <si>
-    <t>Pass - Customer ID is required</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to edit this customer!!</t>
-  </si>
-  <si>
-    <t>Pass - Customer deleted Successfully</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to delete this customer!!</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/addcustomerpage.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/EditCustomer.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/DeleteCustomerInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/addAccount.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/editAccount.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/deleteAccountInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/DepositInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/WithdrawalInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/FundTransInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/PasswordInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/BalEnqInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/MiniStatementInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/CustomisedStatementInput.php</t>
-  </si>
-  <si>
-    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+    <t>44420</t>
+  </si>
+  <si>
+    <t>44421</t>
+  </si>
+  <si>
+    <t>44422</t>
+  </si>
+  <si>
+    <t>44423</t>
+  </si>
+  <si>
+    <t>44424</t>
+  </si>
+  <si>
+    <t>44425</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to Add Account for this Customer</t>
+  </si>
+  <si>
+    <t>44426</t>
+  </si>
+  <si>
+    <t>44427</t>
+  </si>
+  <si>
+    <t>44428</t>
+  </si>
+  <si>
+    <t>44429</t>
+  </si>
+  <si>
+    <t>Pass - Intial deposite must be Rs. 500 or more</t>
+  </si>
+  <si>
+    <t>44433</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2037,7 +2111,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="92">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2086,16 +2160,6 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
       </patternFill>
     </fill>
     <fill>
@@ -2363,8 +2427,153 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="96">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -3168,36 +3377,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -3771,6 +3950,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -3785,188 +3973,669 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="177">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="21" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="16" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="20" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="22" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="32" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="53" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="59" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="58" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="69" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="70" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="71" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="72" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="73" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="74" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="75" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="76" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="77" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="78" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="79" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="80" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="81" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="82" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="83" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="84" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="85" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="86" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="87" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="88" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="89" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="90" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="91" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="92" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="94" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="95" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="96" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="97" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="98" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="99" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="100" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="101" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="102" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="97" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="103" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="104" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="105" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="106" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="107" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="108" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="109" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="110" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="111" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="112" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="113" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="114" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="115" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="93" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3983,10 +4652,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4021,7 +4690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4056,7 +4725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4150,21 +4819,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4181,7 +4850,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4233,26 +4902,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.109375" style="23" collapsed="1"/>
-    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="46.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
+    <col min="7" max="7" style="23" width="9.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="46.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -4269,8 +4940,8 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="146" t="s">
-        <v>549</v>
+      <c r="H7" s="143" t="s">
+        <v>546</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>325</v>
@@ -4281,8 +4952,8 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="109" t="s">
-        <v>550</v>
+      <c r="H8" s="106" t="s">
+        <v>547</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>326</v>
@@ -4293,8 +4964,8 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="109" t="s">
-        <v>551</v>
+      <c r="H9" s="106" t="s">
+        <v>548</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>327</v>
@@ -4316,105 +4987,105 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="H11" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I11" s="51"/>
-      <c r="J11" s="108" t="s">
-        <v>499</v>
+      <c r="J11" s="105" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="H12" s="51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+      <c r="B13" s="107"/>
       <c r="H13" s="51" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
+      <c r="B14" s="107"/>
       <c r="H14" s="51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="107"/>
       <c r="H15" s="51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
+      <c r="B16" s="107"/>
       <c r="H16" s="51" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
+      <c r="B17" s="107"/>
       <c r="H17" s="51" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="110"/>
+      <c r="B18" s="107"/>
       <c r="H18" s="51" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="H19" s="51" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="H20" s="51" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+      <c r="B21" s="107"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -4425,7 +5096,7 @@
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="H23" s="57" t="s">
         <v>328</v>
@@ -4437,79 +5108,79 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="150">
+      <c r="H24" s="171">
         <v>96501</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="71">
         <v>44363</v>
       </c>
       <c r="J24" s="56"/>
     </row>
-    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="56"/>
     </row>
-    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
-      <c r="H26" s="150"/>
+      <c r="H26" s="171"/>
       <c r="I26" s="1"/>
       <c r="J26" s="56"/>
     </row>
-    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="78"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="79"/>
+    <row ht="15.6" r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="76"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="56"/>
     </row>
-    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="78"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="79"/>
+    <row ht="15.6" r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="76"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="56"/>
     </row>
-    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="79"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="56"/>
     </row>
-    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="149"/>
+      <c r="H30" s="170"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
     </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="149"/>
+      <c r="H31" s="170"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
-    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="149"/>
+      <c r="H32" s="170"/>
       <c r="I32" s="56"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="149"/>
+      <c r="H33" s="170"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="149"/>
+      <c r="H34" s="170"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="149"/>
+      <c r="H35" s="170"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -4521,72 +5192,135 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
+      <c r="E38" s="172" t="s">
+        <v>561</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="145" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="145" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="145" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="145" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="172"/>
+      <c r="F43" s="145" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="145" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="145" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="145" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="145" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E48" s="172"/>
+      <c r="F48" s="145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="172"/>
+      <c r="F49" s="145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="172"/>
+      <c r="F50" s="145" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E51" s="172"/>
+      <c r="F51" s="146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="42"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="43"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="44"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="45"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="46"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="H24:H29"/>
     <mergeCell ref="H33:H35"/>
+    <mergeCell ref="E38:E51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" display="http://demo.guru99.com/v4/manager/addcustomerpage.php" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
+    <hyperlink display="http://demo.guru99.com/v4/manager/addcustomerpage.php" r:id="rId1" ref="H7" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -4594,11 +5328,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="87.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4612,19 +5346,19 @@
         <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -4635,28 +5369,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="80">
+        <v>380</v>
+      </c>
+      <c r="C2" s="78">
         <v>39947</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E2" s="50">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>393</v>
+        <v>445</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4664,28 +5398,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="48">
         <v>39948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="I3" s="94" t="s">
-        <v>393</v>
+        <v>446</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4693,28 +5427,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C4" s="48">
         <v>39949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E4" s="50">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="I4" s="95" t="s">
-        <v>393</v>
+      <c r="I4" s="93" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4732,13 +5466,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -4757,13 +5491,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -4773,7 +5507,7 @@
         <v>367</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -4782,13 +5516,13 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -4798,7 +5532,7 @@
         <v>368</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -4807,20 +5541,20 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1">
         <v>39946</v>
@@ -4832,20 +5566,20 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C10" s="1">
         <v>39908</v>
@@ -4857,20 +5591,20 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
+        <v>435</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>422</v>
+      <c r="B11" s="87" t="s">
+        <v>419</v>
       </c>
       <c r="C11" s="1">
         <v>39947</v>
@@ -4880,10 +5614,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4892,8 +5626,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>423</v>
+      <c r="B12" s="87" t="s">
+        <v>420</v>
       </c>
       <c r="C12" s="1">
         <v>39947</v>
@@ -4905,7 +5639,7 @@
         <v>302</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>129</v>
@@ -4917,8 +5651,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>424</v>
+      <c r="B13" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="C13" s="1">
         <v>39947</v>
@@ -4927,10 +5661,10 @@
         <v>990</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>129</v>
@@ -4942,8 +5676,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>425</v>
+      <c r="B14" s="87" t="s">
+        <v>422</v>
       </c>
       <c r="C14" s="1">
         <v>39947</v>
@@ -4952,10 +5686,10 @@
         <v>990</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>119</v>
@@ -4967,10 +5701,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="91">
+      <c r="B15" s="87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="89">
         <v>39978</v>
       </c>
       <c r="D15" s="1">
@@ -4980,10 +5714,10 @@
         <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4992,8 +5726,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>427</v>
+      <c r="B16" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="C16" s="1">
         <v>39947</v>
@@ -5006,7 +5740,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5015,10 +5749,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" s="80">
+      <c r="B17" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="78">
         <v>39974</v>
       </c>
       <c r="D17" s="1">
@@ -5031,7 +5765,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5040,10 +5774,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="C18" s="80">
+      <c r="B18" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="78">
         <v>39975</v>
       </c>
       <c r="D18" s="1">
@@ -5056,7 +5790,7 @@
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5065,10 +5799,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="C19" s="80">
+      <c r="B19" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="78">
         <v>39976</v>
       </c>
       <c r="D19" s="1">
@@ -5078,10 +5812,10 @@
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5090,10 +5824,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="80">
+      <c r="B20" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="78">
         <v>39977</v>
       </c>
       <c r="D20" s="1">
@@ -5103,10 +5837,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5115,25 +5849,25 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>435</v>
+      <c r="B21" s="87" t="s">
+        <v>432</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+      <c r="A22" s="87">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>444</v>
+      <c r="B22" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="C22" s="1">
         <v>39979</v>
@@ -5145,24 +5879,24 @@
         <v>855</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -5170,11 +5904,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="133.5546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="99" width="133.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -5185,18 +5919,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G1" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" s="97" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -5208,18 +5942,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+        <v>380</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -5228,18 +5962,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+        <v>381</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -5248,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C4" s="1">
         <v>12345</v>
@@ -5260,10 +5994,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>453</v>
+        <v>484</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>450</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -5272,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -5280,10 +6014,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -5292,17 +6026,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1">
         <v>12345</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G6" t="s">
         <v>129</v>
@@ -5314,17 +6048,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D7" s="1">
         <v>12345</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G7" t="s">
         <v>129</v>
@@ -5336,17 +6070,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D8" s="1">
         <v>12345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G8" t="s">
         <v>119</v>
@@ -5358,7 +6092,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C9" s="1">
         <v>98765</v>
@@ -5366,10 +6100,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>469</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -5378,7 +6112,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C10" s="1">
         <v>39946</v>
@@ -5386,10 +6120,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>472</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -5398,7 +6132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -5406,10 +6140,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -5418,17 +6152,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C12" s="1">
         <v>12345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G12" t="s">
         <v>129</v>
@@ -5440,17 +6174,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C13" s="1">
         <v>12345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G13" t="s">
         <v>129</v>
@@ -5462,17 +6196,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C14" s="1">
         <v>12345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G14" t="s">
         <v>119</v>
@@ -5484,7 +6218,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -5492,10 +6226,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G15" s="101" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>469</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -5504,7 +6238,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -5512,10 +6246,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G16" s="101" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>472</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5523,8 +6257,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>422</v>
+      <c r="B17" s="87" t="s">
+        <v>419</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
@@ -5534,10 +6268,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>426</v>
+        <v>473</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>423</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -5545,8 +6279,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>423</v>
+      <c r="B18" s="87" t="s">
+        <v>420</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
@@ -5555,12 +6289,12 @@
         <v>12345</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="99" t="s">
         <v>129</v>
       </c>
       <c r="H18" s="1"/>
@@ -5569,8 +6303,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>424</v>
+      <c r="B19" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
@@ -5579,12 +6313,12 @@
         <v>12345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G19" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="99" t="s">
         <v>129</v>
       </c>
       <c r="H19" s="1"/>
@@ -5593,8 +6327,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>425</v>
+      <c r="B20" s="87" t="s">
+        <v>422</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
@@ -5603,12 +6337,12 @@
         <v>12345</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G20" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" s="99" t="s">
         <v>119</v>
       </c>
       <c r="H20" s="1"/>
@@ -5617,8 +6351,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>478</v>
+      <c r="B21" s="87" t="s">
+        <v>475</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5626,10 +6360,10 @@
         <v>99999999</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="98" t="s">
         <v>476</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>479</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -5637,8 +6371,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>427</v>
+      <c r="B22" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="C22" s="1">
         <v>12345</v>
@@ -5650,8 +6384,8 @@
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="102" t="s">
-        <v>428</v>
+      <c r="G22" s="99" t="s">
+        <v>425</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -5659,19 +6393,19 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
+      <c r="B23" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G23" s="101" t="s">
-        <v>480</v>
+        <v>386</v>
+      </c>
+      <c r="G23" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -5679,19 +6413,19 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
+      <c r="B24" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>908</v>
       </c>
-      <c r="G24" s="101" t="s">
-        <v>480</v>
+      <c r="G24" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -5699,19 +6433,19 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="B25" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G25" s="101" t="s">
-        <v>480</v>
+        <v>483</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -5719,19 +6453,19 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
+      <c r="B26" s="87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26" s="101" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="G26" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -5739,30 +6473,30 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="89" t="s">
-        <v>468</v>
+      <c r="B27" s="87" t="s">
+        <v>465</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="101" t="s">
-        <v>484</v>
+      <c r="G27" s="98" t="s">
+        <v>481</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="95"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
@@ -5770,9 +6504,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -5789,7 +6523,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -5800,19 +6534,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>39905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>393</v>
+        <v>402</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -5820,19 +6554,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -5847,10 +6581,10 @@
         <v>365</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>395</v>
+        <v>376</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -5858,19 +6592,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -5881,16 +6615,16 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -5901,16 +6635,16 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>397</v>
+        <v>376</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -5918,7 +6652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
@@ -5927,10 +6661,10 @@
         <v>374</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -5938,7 +6672,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
@@ -5947,37 +6681,37 @@
         <v>374</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S13" s="63" t="s">
+      <c r="S13" s="61" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S14" s="63" t="s">
+      <c r="S14" s="61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
@@ -5985,9 +6719,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -6012,11 +6746,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -6025,11 +6759,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -6049,10 +6783,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>129</v>
@@ -6067,7 +6801,7 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>129</v>
@@ -6082,7 +6816,7 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>119</v>
@@ -6094,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -6109,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -6120,13 +6854,13 @@
       <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -6134,9 +6868,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="47.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -6150,16 +6884,16 @@
         <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -6173,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6181,7 +6915,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -6190,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6198,7 +6932,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -6222,10 +6956,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -6244,7 +6978,7 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6263,7 +6997,7 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6279,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -6298,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -6316,8 +7050,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>513</v>
+      <c r="B10" s="87" t="s">
+        <v>510</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6325,7 +7059,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -6333,8 +7067,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>514</v>
+      <c r="B11" s="87" t="s">
+        <v>511</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6342,7 +7076,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -6350,8 +7084,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>515</v>
+      <c r="B12" s="87" t="s">
+        <v>512</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6359,7 +7093,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -6367,8 +7101,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>516</v>
+      <c r="B13" s="87" t="s">
+        <v>513</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6376,7 +7110,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -6384,8 +7118,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>520</v>
+      <c r="B14" s="87" t="s">
+        <v>517</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6393,7 +7127,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -6401,8 +7135,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>521</v>
+      <c r="B15" s="87" t="s">
+        <v>518</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6418,8 +7152,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>522</v>
+      <c r="B16" s="87" t="s">
+        <v>519</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6435,8 +7169,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>523</v>
+      <c r="B17" s="87" t="s">
+        <v>520</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -6452,8 +7186,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>525</v>
+      <c r="B18" s="87" t="s">
+        <v>522</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -6461,7 +7195,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -6469,8 +7203,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>526</v>
+      <c r="B19" s="87" t="s">
+        <v>523</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -6478,7 +7212,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -6486,8 +7220,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>527</v>
+      <c r="B20" s="87" t="s">
+        <v>524</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -6503,8 +7237,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>528</v>
+      <c r="B21" s="87" t="s">
+        <v>525</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -6520,8 +7254,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>529</v>
+      <c r="B22" s="87" t="s">
+        <v>526</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6537,8 +7271,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>530</v>
+      <c r="B23" s="87" t="s">
+        <v>527</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -6546,35 +7280,35 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6608,19 +7342,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="148" t="s">
-        <v>535</v>
+      <c r="G2" s="175" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6631,7 +7365,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -6640,10 +7374,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6654,19 +7388,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G4" s="114" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6677,7 +7411,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -6686,10 +7420,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6700,7 +7434,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -6709,8 +7443,8 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="116" t="s">
-        <v>537</v>
+      <c r="G6" s="113" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6721,17 +7455,17 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="117" t="s">
-        <v>538</v>
+      <c r="G7" s="114" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6742,15 +7476,15 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="118" t="s">
-        <v>539</v>
+      <c r="G8" s="115" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6758,70 +7492,70 @@
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>540</v>
+        <v>378</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="112"/>
+      <c r="C10" s="109"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="112"/>
+      <c r="C11" s="109"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="112"/>
+      <c r="C12" s="109"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="112"/>
+      <c r="C13" s="109"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
+    <hyperlink r:id="rId2" ref="E9" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -6911,11 +7645,11 @@
       <c r="M2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="O2" s="120" t="s">
-        <v>541</v>
+      <c r="N2" s="117" t="s">
+        <v>539</v>
+      </c>
+      <c r="O2" s="117" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -8983,42 +9717,42 @@
       <c r="M51" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N51" s="104"/>
+      <c r="N51" s="101"/>
       <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="106" t="s">
-        <v>488</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>489</v>
-      </c>
-      <c r="D52" s="89" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="103" t="s">
+        <v>485</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>486</v>
+      </c>
+      <c r="D52" s="87" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>30537</v>
       </c>
-      <c r="F52" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="G52" s="89" t="s">
+      <c r="F52" s="87" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="89" t="s">
+      <c r="H52" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="89">
+      <c r="I52" s="87">
         <v>667875</v>
       </c>
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="105" t="s">
-        <v>491</v>
-      </c>
-      <c r="L52" s="89" t="s">
+      <c r="K52" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="L52" s="87" t="s">
         <v>113</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -9030,82 +9764,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="L48" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="K19" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="K20" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="K21" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="K22" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="K23" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="K24" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="K25" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="K26" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="K27" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="K28" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="K29" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="K30" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="K31" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="K32" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="K33" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="K34" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="K35" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="K36" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="K37" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="K38" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="K39" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="K42" r:id="rId40" display="roo@test.com" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="K43" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="K44" r:id="rId42" display="dar@test.com" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="K46" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="K47" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="K48" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="K49" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="K50" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="K45" r:id="rId48" display="kei@test.com" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="K12" r:id="rId49" display="simran@test.com" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="K52" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink r:id="rId1" ref="K2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="K3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId3" ref="K4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink r:id="rId4" ref="K5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="K6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="K7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId7" ref="K8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink r:id="rId8" ref="K9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink r:id="rId9" ref="K10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink r:id="rId10" ref="K11" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink r:id="rId11" ref="K12" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="K13" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="K14" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="K15" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="K16" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="K17" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="K18" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink r:id="rId18" ref="L48" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink r:id="rId19" ref="K19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink r:id="rId20" ref="K20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink r:id="rId21" ref="K21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink r:id="rId22" ref="K22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink r:id="rId23" ref="K23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink r:id="rId24" ref="K24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink r:id="rId25" ref="K25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink r:id="rId26" ref="K26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink r:id="rId27" ref="K27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="K28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="K29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="K30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="K31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="K32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="K33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink r:id="rId34" ref="K34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink r:id="rId35" ref="K35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink r:id="rId36" ref="K36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink r:id="rId37" ref="K37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink r:id="rId38" ref="K38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink r:id="rId39" ref="K39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink display="roo@test.com" r:id="rId40" ref="K42" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink r:id="rId41" ref="K43" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink display="dar@test.com" r:id="rId42" ref="K44" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink r:id="rId43" ref="K46" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="K47" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="K48" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="K49" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="K50" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink display="kei@test.com" r:id="rId48" ref="K45" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink display="simran@test.com" r:id="rId49" ref="K12" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink r:id="rId50" ref="K52" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId51"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="43.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="43.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9151,7 +9885,7 @@
         <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>312</v>
@@ -9174,8 +9908,8 @@
       <c r="J2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K2" s="128" t="s">
-        <v>543</v>
+      <c r="K2" s="125" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9186,7 +9920,7 @@
         <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -9209,8 +9943,8 @@
       <c r="J3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="121" t="s">
-        <v>543</v>
+      <c r="K3" s="118" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9221,7 +9955,7 @@
         <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -9244,8 +9978,8 @@
       <c r="J4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K4" s="122" t="s">
-        <v>543</v>
+      <c r="K4" s="119" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -9256,7 +9990,7 @@
         <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>313</v>
@@ -9279,8 +10013,8 @@
       <c r="J5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K5" s="123" t="s">
-        <v>543</v>
+      <c r="K5" s="120" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -9291,7 +10025,7 @@
         <v>308</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>314</v>
@@ -9314,8 +10048,8 @@
       <c r="J6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="124" t="s">
-        <v>543</v>
+      <c r="K6" s="121" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -9326,7 +10060,7 @@
         <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>315</v>
@@ -9349,8 +10083,8 @@
       <c r="J7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K7" s="125" t="s">
-        <v>543</v>
+      <c r="K7" s="122" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -9361,7 +10095,7 @@
         <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>315</v>
@@ -9384,11 +10118,11 @@
       <c r="J8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="126" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="123" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9396,7 +10130,7 @@
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -9407,8 +10141,8 @@
       <c r="J9" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K9" s="127" t="s">
-        <v>543</v>
+      <c r="K9" s="124" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -9428,8 +10162,8 @@
       <c r="J10" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K10" s="129" t="s">
-        <v>545</v>
+      <c r="K10" s="126" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -9451,8 +10185,8 @@
       <c r="J11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="130" t="s">
-        <v>396</v>
+      <c r="K11" s="127" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -9474,8 +10208,8 @@
       <c r="J12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="131" t="s">
-        <v>396</v>
+      <c r="K12" s="128" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -9497,8 +10231,8 @@
       <c r="J13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="132" t="s">
-        <v>397</v>
+      <c r="K13" s="129" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -9520,8 +10254,8 @@
       <c r="J14" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K14" s="133" t="s">
-        <v>546</v>
+      <c r="K14" s="130" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -9543,11 +10277,11 @@
       <c r="J15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="134" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="K15" s="131" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row ht="72" r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9566,16 +10300,16 @@
       <c r="J16" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K16" s="135" t="s">
-        <v>546</v>
+      <c r="K16" s="132" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="107" t="s">
-        <v>492</v>
-      </c>
-      <c r="C17" s="96">
+      <c r="A17" s="94"/>
+      <c r="B17" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="94">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
@@ -9584,33 +10318,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="I3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="I4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="I5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="I6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="I7" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId7" ref="I8" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9845,13 +10582,13 @@
         <v>290</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E18" s="137" t="s">
-        <v>547</v>
+      <c r="E18" s="134" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9865,8 +10602,8 @@
       <c r="D19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="138" t="s">
-        <v>545</v>
+      <c r="E19" s="135" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9882,8 +10619,8 @@
       <c r="D20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="139" t="s">
-        <v>396</v>
+      <c r="E20" s="136" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -9899,8 +10636,8 @@
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="140" t="s">
-        <v>396</v>
+      <c r="E21" s="137" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -9916,8 +10653,8 @@
       <c r="D22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="141" t="s">
-        <v>397</v>
+      <c r="E22" s="138" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9933,8 +10670,8 @@
       <c r="D23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="142" t="s">
-        <v>548</v>
+      <c r="E23" s="139" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9950,11 +10687,11 @@
       <c r="D24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E24" s="143" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E24" s="140" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row ht="43.2" r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>24</v>
       </c>
@@ -9967,81 +10704,83 @@
       <c r="D25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="144" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E25" s="141" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row ht="43.2" r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="60">
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="145">
+      <c r="C26" s="142">
         <v>96501</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="147" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="144" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="49">
         <v>26</v>
       </c>
-      <c r="B27" s="136" t="s">
-        <v>409</v>
+      <c r="B27" s="133" t="s">
+        <v>406</v>
       </c>
       <c r="C27" s="1">
         <v>37672</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="87" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+    <row customHeight="1" ht="15" r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="94"/>
       <c r="B28" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="108">
+        <v>490</v>
+      </c>
+      <c r="C28" s="105">
         <v>12345</v>
       </c>
       <c r="D28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10077,8 +10816,8 @@
       <c r="B2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="1">
-        <v>2102</v>
+      <c r="C2" s="100">
+        <v>73735</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>351</v>
@@ -10089,11 +10828,11 @@
       <c r="F2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>376</v>
+      <c r="G2" s="147" t="s">
+        <v>563</v>
+      </c>
+      <c r="H2" s="147" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -10103,8 +10842,8 @@
       <c r="B3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="1">
-        <v>2102</v>
+      <c r="C3" s="100">
+        <v>73735</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>352</v>
@@ -10115,8 +10854,12 @@
       <c r="F3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="156">
+        <v>44421</v>
+      </c>
+      <c r="H3" s="148" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -10125,8 +10868,8 @@
       <c r="B4" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="1">
-        <v>89280</v>
+      <c r="C4" s="100">
+        <v>37705</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>351</v>
@@ -10137,8 +10880,12 @@
       <c r="F4" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="149" t="s">
+        <v>565</v>
+      </c>
+      <c r="H4" s="149" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -10147,8 +10894,8 @@
       <c r="B5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="1">
-        <v>89280</v>
+      <c r="C5" s="100">
+        <v>37705</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>352</v>
@@ -10159,8 +10906,12 @@
       <c r="F5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="150" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="150" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -10169,8 +10920,8 @@
       <c r="B6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="1">
-        <v>2102</v>
+      <c r="C6" s="100">
+        <v>73735</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>351</v>
@@ -10181,8 +10932,12 @@
       <c r="F6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="151" t="s">
+        <v>567</v>
+      </c>
+      <c r="H6" s="151" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -10191,8 +10946,8 @@
       <c r="B7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="1">
-        <v>2102</v>
+      <c r="C7" s="100">
+        <v>73735</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>352</v>
@@ -10203,8 +10958,12 @@
       <c r="F7" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="152" t="s">
+        <v>568</v>
+      </c>
+      <c r="H7" s="152" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -10221,10 +10980,14 @@
         <v>1600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -10243,10 +11006,14 @@
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G9" s="158" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="158" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -10265,10 +11032,14 @@
         <v>1900</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G10" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="159" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -10287,10 +11058,14 @@
         <v>2000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G11" s="160" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="160" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -10309,10 +11084,14 @@
         <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G12" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="161" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -10321,8 +11100,8 @@
       <c r="B13" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="1">
-        <v>2102</v>
+      <c r="C13" s="100">
+        <v>73735</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -10331,8 +11110,12 @@
       <c r="F13" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="153" t="s">
+        <v>570</v>
+      </c>
+      <c r="H13" s="153" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -10341,18 +11124,22 @@
       <c r="B14" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C14" s="1">
-        <v>94925</v>
+      <c r="C14" s="100">
+        <v>98487</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G14" s="162" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="162" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -10361,8 +11148,8 @@
       <c r="B15" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="1">
-        <v>94925</v>
+      <c r="C15" s="100">
+        <v>98487</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>351</v>
@@ -10371,10 +11158,14 @@
         <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G15" s="163" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="163" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -10383,8 +11174,8 @@
       <c r="B16" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C16" s="1">
-        <v>94925</v>
+      <c r="C16" s="100">
+        <v>98487</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>351</v>
@@ -10393,10 +11184,14 @@
         <v>353</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -10405,8 +11200,8 @@
       <c r="B17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="1">
-        <v>94925</v>
+      <c r="C17" s="100">
+        <v>98487</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>351</v>
@@ -10415,10 +11210,14 @@
         <v>354</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G17" s="165" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -10427,8 +11226,8 @@
       <c r="B18" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="1">
-        <v>94925</v>
+      <c r="C18" s="100">
+        <v>98487</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>351</v>
@@ -10439,8 +11238,12 @@
       <c r="F18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="166" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="166" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -10449,8 +11252,8 @@
       <c r="B19" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="1">
-        <v>94925</v>
+      <c r="C19" s="100">
+        <v>98487</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>351</v>
@@ -10461,8 +11264,12 @@
       <c r="F19" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="154" t="s">
+        <v>571</v>
+      </c>
+      <c r="H19" s="154" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -10471,8 +11278,8 @@
       <c r="B20" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="1">
-        <v>94925</v>
+      <c r="C20" s="100">
+        <v>98487</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>351</v>
@@ -10483,8 +11290,12 @@
       <c r="F20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="155" t="s">
+        <v>572</v>
+      </c>
+      <c r="H20" s="155" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -10493,8 +11304,8 @@
       <c r="B21" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="1">
-        <v>94925</v>
+      <c r="C21" s="100">
+        <v>98487</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>351</v>
@@ -10505,8 +11316,12 @@
       <c r="F21" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="169" t="s">
+        <v>575</v>
+      </c>
+      <c r="H21" s="169" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -10515,8 +11330,8 @@
       <c r="B22" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="1">
-        <v>89280</v>
+      <c r="C22" s="100">
+        <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>352</v>
@@ -10527,8 +11342,12 @@
       <c r="F22" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22" s="167" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -10537,8 +11356,8 @@
       <c r="B23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="1">
-        <v>89280</v>
+      <c r="C23" s="100">
+        <v>37705</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>352</v>
@@ -10559,8 +11378,8 @@
       <c r="B24" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="1">
-        <v>89280</v>
+      <c r="C24" s="100">
+        <v>37705</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>352</v>
@@ -10581,8 +11400,8 @@
       <c r="B25" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C25" s="1">
-        <v>89280</v>
+      <c r="C25" s="100">
+        <v>37705</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>352</v>
@@ -10607,40 +11426,43 @@
       <c r="D26" s="55"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>359</v>
+        <v>560</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="96">
+      <c r="A27" s="87">
         <v>26</v>
       </c>
-      <c r="B27" s="97" t="s">
-        <v>451</v>
-      </c>
-      <c r="C27" s="96">
+      <c r="B27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="87">
         <v>37672</v>
       </c>
-      <c r="D27" s="96" t="s">
-        <v>500</v>
-      </c>
-      <c r="E27" s="96">
+      <c r="D27" s="87" t="s">
+        <v>497</v>
+      </c>
+      <c r="E27" s="87">
         <v>1000</v>
       </c>
-      <c r="F27" s="96" t="s">
-        <v>289</v>
-      </c>
+      <c r="F27" s="87" t="s">
+        <v>560</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -10648,8 +11470,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10677,14 +11499,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10693,14 +11515,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -10709,14 +11531,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -10725,14 +11547,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -10741,7 +11563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
@@ -10755,24 +11577,27 @@
       <c r="F6" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10800,14 +11625,12 @@
         <v>361</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>378</v>
-      </c>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -10816,7 +11639,9 @@
       <c r="B3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>564</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>375</v>
       </c>
@@ -10829,7 +11654,9 @@
       <c r="B4" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="48" t="s">
+        <v>565</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>375</v>
       </c>
@@ -10842,7 +11669,9 @@
       <c r="B5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="48" t="s">
+        <v>566</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>375</v>
       </c>
@@ -10855,7 +11684,9 @@
       <c r="B6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="48" t="s">
+        <v>567</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>375</v>
       </c>
@@ -10868,7 +11699,9 @@
       <c r="B7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="48" t="s">
+        <v>568</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>375</v>
       </c>
@@ -10881,7 +11714,9 @@
       <c r="B8" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="48" t="s">
+        <v>570</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>375</v>
       </c>
@@ -10894,7 +11729,9 @@
       <c r="B9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="48" t="s">
+        <v>571</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>375</v>
       </c>
@@ -10907,7 +11744,9 @@
       <c r="B10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="48" t="s">
+        <v>572</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>375</v>
       </c>
@@ -10920,7 +11759,9 @@
       <c r="B11" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="48" t="s">
+        <v>573</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>375</v>
       </c>
@@ -10933,7 +11774,9 @@
       <c r="B12" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="48" t="s">
+        <v>575</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>375</v>
       </c>
@@ -11053,7 +11896,7 @@
       </c>
       <c r="E20" s="50"/>
     </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11069,8 +11912,8 @@
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
-        <v>408</v>
+      <c r="B22" s="70" t="s">
+        <v>405</v>
       </c>
       <c r="C22" s="1">
         <v>39946</v>
@@ -11080,14 +11923,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -11095,10 +11938,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="51.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -11112,19 +11955,19 @@
         <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -11135,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="48">
         <v>39905</v>
@@ -11147,16 +11990,16 @@
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11164,28 +12007,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="48">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11203,16 +12046,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H4" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>395</v>
+      <c r="H4" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -11232,16 +12075,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="84" t="s">
-        <v>396</v>
+      <c r="H5" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11252,7 +12095,7 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -11261,16 +12104,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>396</v>
+      <c r="H6" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -11281,7 +12124,7 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -11290,16 +12133,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="I7" s="86" t="s">
-        <v>397</v>
+      <c r="H7" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -11307,7 +12150,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -11319,16 +12162,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H8" s="87" t="s">
-        <v>379</v>
-      </c>
-      <c r="I8" s="87" t="s">
-        <v>398</v>
+      <c r="H8" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11336,7 +12179,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C9" s="1">
         <v>39908</v>
@@ -11348,31 +12191,31 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>379</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>418</v>
+        <v>400</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>422</v>
+      <c r="B10" s="87" t="s">
+        <v>419</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -11381,8 +12224,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>423</v>
+      <c r="B11" s="87" t="s">
+        <v>420</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -11398,8 +12241,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>424</v>
+      <c r="B12" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -11415,8 +12258,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>425</v>
+      <c r="B13" s="87" t="s">
+        <v>422</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -11432,18 +12275,18 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>441</v>
+      <c r="B14" s="87" t="s">
+        <v>438</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="1">
         <v>1000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -11452,15 +12295,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>427</v>
+      <c r="B15" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -11469,8 +12312,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>429</v>
+      <c r="B16" s="87" t="s">
+        <v>426</v>
       </c>
       <c r="C16" s="48">
         <v>39905</v>
@@ -11485,7 +12328,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -11494,8 +12337,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>430</v>
+      <c r="B17" s="87" t="s">
+        <v>427</v>
       </c>
       <c r="C17" s="48">
         <v>39906</v>
@@ -11510,7 +12353,7 @@
         <v>123345</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -11519,8 +12362,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>431</v>
+      <c r="B18" s="87" t="s">
+        <v>428</v>
       </c>
       <c r="C18" s="1">
         <v>39905</v>
@@ -11532,10 +12375,10 @@
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -11544,8 +12387,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>433</v>
+      <c r="B19" s="87" t="s">
+        <v>430</v>
       </c>
       <c r="C19" s="1">
         <v>39906</v>
@@ -11557,10 +12400,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -11569,21 +12412,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>435</v>
+      <c r="B20" s="87" t="s">
+        <v>432</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{B77DBC1B-2DB5-4F4F-871D-70AEB4239DE7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9715BB1D-141D-464D-A827-EF6A548A4927}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="1" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$27</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$A$1:$O$52</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$M$1:$M$54</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="583">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1963,46 +1963,67 @@
     <t>NewAcct Failure messages(old)</t>
   </si>
   <si>
+    <t>Pass - Account Deleted Sucessfully</t>
+  </si>
+  <si>
+    <t>$%^&amp;&amp;</t>
+  </si>
+  <si>
     <t>Pass - Account Generated Successfully!!!</t>
   </si>
   <si>
-    <t>44420</t>
-  </si>
-  <si>
-    <t>44421</t>
-  </si>
-  <si>
-    <t>44422</t>
-  </si>
-  <si>
-    <t>44423</t>
-  </si>
-  <si>
-    <t>44424</t>
-  </si>
-  <si>
-    <t>44425</t>
+    <t>39282</t>
+  </si>
+  <si>
+    <t>1239682</t>
+  </si>
+  <si>
+    <t>45003459012</t>
+  </si>
+  <si>
+    <t>44553</t>
+  </si>
+  <si>
+    <t>44554</t>
+  </si>
+  <si>
+    <t>44555</t>
+  </si>
+  <si>
+    <t>44556</t>
+  </si>
+  <si>
+    <t>44557</t>
+  </si>
+  <si>
+    <t>44558</t>
+  </si>
+  <si>
+    <t>44559</t>
+  </si>
+  <si>
+    <t>44560</t>
+  </si>
+  <si>
+    <t>44561</t>
+  </si>
+  <si>
+    <t>44562</t>
+  </si>
+  <si>
+    <t>44563</t>
+  </si>
+  <si>
+    <t>44564</t>
+  </si>
+  <si>
+    <t>44565</t>
   </si>
   <si>
     <t>Pass - You are not authorize to Add Account for this Customer</t>
   </si>
   <si>
-    <t>44426</t>
-  </si>
-  <si>
-    <t>44427</t>
-  </si>
-  <si>
-    <t>44428</t>
-  </si>
-  <si>
-    <t>44429</t>
-  </si>
-  <si>
     <t>Pass - Intial deposite must be Rs. 500 or more</t>
-  </si>
-  <si>
-    <t>44433</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="92">
+  <fills count="129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2533,6 +2554,191 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="57"/>
       </patternFill>
@@ -2573,7 +2779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="132">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -4287,6 +4493,585 @@
         <color indexed="8"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <bottom style="thin"/>
@@ -4429,7 +5214,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
@@ -4600,9 +5385,6 @@
     <xf applyBorder="1" applyFill="1" borderId="100" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="101" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="102" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="97" fillId="65" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyBorder="1" applyFill="1" borderId="103" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="104" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="105" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
@@ -4616,6 +5398,31 @@
     <xf applyBorder="1" applyFill="1" borderId="113" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="114" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="115" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="116" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="117" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="118" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="119" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="120" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="121" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="122" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="123" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="124" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="125" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="126" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="127" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="128" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="129" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="130" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="131" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="132" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="133" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="134" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="135" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="136" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="137" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="138" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="139" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="140" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4625,10 +5432,16 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="93" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="123" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="123" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="180" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="180" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4912,8 +5725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F51"/>
+    <sheetView topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5110,7 +5923,7 @@
     </row>
     <row ht="15.6" r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="171">
+      <c r="H24" s="195">
         <v>96501</v>
       </c>
       <c r="I24" s="71">
@@ -5120,67 +5933,69 @@
     </row>
     <row ht="15.6" r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="71"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="71">
+        <v>44566</v>
+      </c>
       <c r="J25" s="56"/>
     </row>
     <row ht="15.6" r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
-      <c r="H26" s="171"/>
+      <c r="H26" s="195"/>
       <c r="I26" s="1"/>
       <c r="J26" s="56"/>
     </row>
     <row ht="15.6" r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="76"/>
-      <c r="H27" s="171"/>
+      <c r="H27" s="195"/>
       <c r="I27" s="77"/>
       <c r="J27" s="56"/>
     </row>
     <row ht="15.6" r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="76"/>
-      <c r="H28" s="171"/>
+      <c r="H28" s="195"/>
       <c r="I28" s="77"/>
       <c r="J28" s="56"/>
     </row>
     <row ht="15.6" r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
-      <c r="H29" s="171"/>
+      <c r="H29" s="195"/>
       <c r="I29" s="77"/>
       <c r="J29" s="56"/>
     </row>
     <row ht="15.6" r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="170"/>
+      <c r="H30" s="194"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
     </row>
     <row ht="15.6" r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="170"/>
+      <c r="H31" s="194"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
     <row ht="15.6" r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="170"/>
+      <c r="H32" s="194"/>
       <c r="I32" s="56"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="170"/>
+      <c r="H33" s="194"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="170"/>
+      <c r="H34" s="194"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="170"/>
+      <c r="H35" s="194"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -5192,95 +6007,95 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="172" t="s">
+      <c r="E38" s="196" t="s">
         <v>561</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="172"/>
+      <c r="E39" s="196"/>
       <c r="F39" s="145" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="172"/>
+      <c r="E40" s="196"/>
       <c r="F40" s="145" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="172"/>
+      <c r="E41" s="196"/>
       <c r="F41" s="145" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="172"/>
+      <c r="E42" s="196"/>
       <c r="F42" s="145" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="172"/>
+      <c r="E43" s="196"/>
       <c r="F43" s="145" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="172"/>
+      <c r="E44" s="196"/>
       <c r="F44" s="145" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="172"/>
+      <c r="E45" s="196"/>
       <c r="F45" s="145" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="172"/>
+      <c r="E46" s="196"/>
       <c r="F46" s="145" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="172"/>
+      <c r="E47" s="196"/>
       <c r="F47" s="145" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="172"/>
+      <c r="E48" s="196"/>
       <c r="F48" s="145" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="172"/>
+      <c r="E49" s="196"/>
       <c r="F49" s="145" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="172"/>
+      <c r="E50" s="196"/>
       <c r="F50" s="145" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="172"/>
+      <c r="E51" s="196"/>
       <c r="F51" s="146" t="s">
         <v>289</v>
       </c>
@@ -7353,7 +8168,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="205" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7543,8 +8358,8 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7743,38 +8558,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5">
-        <v>31855</v>
+        <v>29938</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
-        <v>237876</v>
+        <v>765897</v>
       </c>
       <c r="J5" s="1">
-        <v>9991237890</v>
+        <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
@@ -7784,40 +8601,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="5">
-        <v>31481</v>
+        <v>32527</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
-        <v>667897</v>
+        <v>789123</v>
       </c>
       <c r="J6" s="1">
-        <v>5556789087</v>
+        <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
@@ -7827,40 +8642,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12334</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
-        <v>30477</v>
+        <v>235197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1">
-        <v>788767</v>
+        <v>786889</v>
       </c>
       <c r="J7" s="1">
-        <v>5554567897</v>
+        <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
@@ -7870,40 +8685,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="5">
-        <v>28690</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>32980</v>
+      </c>
+      <c r="F8" s="1">
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="I8" s="1">
-        <v>897654</v>
+        <v>567987</v>
       </c>
       <c r="J8" s="1">
-        <v>4448960786</v>
+        <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
@@ -7913,34 +8728,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="5">
-        <v>29938</v>
+        <v>35964</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="I9" s="1">
-        <v>765897</v>
+        <v>657987</v>
       </c>
       <c r="J9" s="1">
-        <v>4447895432</v>
+        <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>113</v>
@@ -7956,32 +8771,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="5">
-        <v>32527</v>
+        <v>33437</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1">
-        <v>789123</v>
+        <v>786433</v>
       </c>
       <c r="J10" s="1">
-        <v>7779081234</v>
+        <v>5557789012</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>113</v>
@@ -7997,38 +8814,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>32971</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="I11" s="1">
-        <v>678234</v>
+        <v>767546</v>
       </c>
       <c r="J11" s="1">
-        <v>7776892313</v>
+        <v>1239872361</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
@@ -8038,34 +8857,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="5">
-        <v>235197</v>
+        <v>36025</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="I12" s="1">
-        <v>786889</v>
+        <v>5654325</v>
       </c>
       <c r="J12" s="1">
-        <v>7771236789</v>
+        <v>5658901234</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>113</v>
@@ -8081,38 +8900,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
-        <v>31397</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>35527</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="I13" s="1">
-        <v>678543</v>
+        <v>456367</v>
       </c>
       <c r="J13" s="1">
-        <v>2227657890</v>
+        <v>8806785435</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
@@ -8122,40 +8943,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="5">
-        <v>28071</v>
+        <v>34127</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1">
-        <v>657545</v>
+        <v>235789</v>
       </c>
       <c r="J14" s="1">
-        <v>90167189172</v>
+        <v>2227658912</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
@@ -8165,37 +8986,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5">
-        <v>32980</v>
-      </c>
-      <c r="F15" s="1">
-        <v>122</v>
+        <v>34096</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1">
-        <v>567987</v>
+        <v>765787</v>
       </c>
       <c r="J15" s="1">
-        <v>8786357718</v>
+        <v>7776528901</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>203</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>115</v>
@@ -8208,40 +9029,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5">
-        <v>33314</v>
+        <v>33376</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I16" s="1">
-        <v>657876</v>
+        <v>456456</v>
       </c>
       <c r="J16" s="1">
-        <v>4417678901</v>
+        <v>90165328917</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
@@ -8251,37 +9072,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="5">
-        <v>35964</v>
+        <v>33708</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1">
-        <v>657987</v>
+        <v>897654</v>
       </c>
       <c r="J17" s="1">
-        <v>4417657812</v>
+        <v>9992346781</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>115</v>
@@ -8294,38 +9115,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5">
-        <v>34169</v>
+        <v>31173</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I18" s="1">
-        <v>786545</v>
+        <v>676588</v>
       </c>
       <c r="J18" s="1">
-        <v>9997863271</v>
+        <v>2226189271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
@@ -8335,40 +9158,38 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5">
-        <v>33667</v>
+        <v>31855</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1">
-        <v>879656</v>
+        <v>237876</v>
       </c>
       <c r="J19" s="1">
-        <v>6557891271</v>
+        <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
@@ -8378,40 +9199,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5">
-        <v>32238</v>
+        <v>31481</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="1">
-        <v>56687</v>
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1">
-        <v>667434</v>
+        <v>667897</v>
       </c>
       <c r="J20" s="1">
-        <v>7779874561</v>
+        <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -8421,40 +9242,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12334</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="5">
-        <v>33773</v>
+        <v>30477</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1">
-        <v>467543</v>
+        <v>788767</v>
       </c>
       <c r="J21" s="1">
-        <v>7779084515</v>
+        <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
@@ -8464,40 +9285,40 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="5">
-        <v>33437</v>
+        <v>28690</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I22" s="1">
-        <v>786433</v>
+        <v>897654</v>
       </c>
       <c r="J22" s="1">
-        <v>5557789012</v>
+        <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
@@ -8507,38 +9328,38 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5">
-        <v>35859</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="I23" s="1">
-        <v>764367</v>
+        <v>678234</v>
       </c>
       <c r="J23" s="1">
-        <v>1018237829</v>
+        <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -8548,40 +9369,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="5">
-        <v>34158</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>31397</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="I24" s="1">
-        <v>775645</v>
+        <v>678543</v>
       </c>
       <c r="J24" s="1">
-        <v>1015677890</v>
+        <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
@@ -8591,40 +9410,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5">
-        <v>34432</v>
+        <v>28071</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H25" s="1">
-        <v>13345</v>
+        <v>138</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I25" s="1">
-        <v>665745</v>
+        <v>657545</v>
       </c>
       <c r="J25" s="1">
-        <v>1012237893</v>
+        <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -8634,34 +9453,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="5">
-        <v>35163</v>
+        <v>33314</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="I26" s="1">
-        <v>765435</v>
+        <v>657876</v>
       </c>
       <c r="J26" s="1">
-        <v>1016738377</v>
+        <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>113</v>
@@ -8677,40 +9496,38 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5">
-        <v>32971</v>
+        <v>34169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I27" s="1">
-        <v>767546</v>
+        <v>786545</v>
       </c>
       <c r="J27" s="1">
-        <v>1239872361</v>
+        <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
@@ -8720,38 +9537,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="5">
-        <v>32975</v>
+        <v>33667</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="I28" s="1">
+        <v>879656</v>
+      </c>
       <c r="J28" s="1">
-        <v>4417728910</v>
+        <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -8761,40 +9580,40 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5">
-        <v>33733</v>
+        <v>32238</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>223</v>
+        <v>244</v>
+      </c>
+      <c r="G29" s="1">
+        <v>56687</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>235</v>
+        <v>41</v>
+      </c>
+      <c r="I29" s="1">
+        <v>667434</v>
       </c>
       <c r="J29" s="1">
-        <v>5657811232</v>
+        <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
@@ -8804,40 +9623,40 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="5">
-        <v>34095</v>
+        <v>33773</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>240</v>
+        <v>41</v>
+      </c>
+      <c r="I30" s="1">
+        <v>467543</v>
       </c>
       <c r="J30" s="1">
-        <v>6628725671</v>
+        <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -8847,40 +9666,38 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5">
-        <v>34888</v>
+        <v>35859</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>764367</v>
       </c>
       <c r="J31" s="1">
-        <v>5529874561</v>
+        <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
@@ -8890,40 +9707,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="5">
-        <v>36025</v>
+        <v>34158</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I32" s="1">
-        <v>5654325</v>
+        <v>775645</v>
       </c>
       <c r="J32" s="1">
-        <v>5658901234</v>
+        <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
@@ -8933,40 +9750,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="5">
-        <v>34128</v>
+        <v>34432</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
+      </c>
+      <c r="H33" s="1">
+        <v>13345</v>
       </c>
       <c r="I33" s="1">
-        <v>5664</v>
+        <v>665745</v>
       </c>
       <c r="J33" s="1">
-        <v>9328982123</v>
+        <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -8976,38 +9793,40 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="5">
-        <v>34523</v>
+        <v>35163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="I34" s="1">
-        <v>346765</v>
-      </c>
-      <c r="J34" s="1"/>
+        <v>765435</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1016738377</v>
+      </c>
       <c r="K34" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
@@ -9017,40 +9836,38 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="5">
-        <v>35162</v>
+        <v>32975</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="1">
-        <v>457865</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
@@ -9060,40 +9877,40 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="5">
-        <v>35977</v>
+        <v>33733</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="1">
-        <v>778654</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -9103,40 +9920,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="5">
-        <v>34351</v>
+        <v>34095</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I37" s="1">
-        <v>326787</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>284</v>
+        <v>226</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
@@ -9146,40 +9963,40 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="5">
-        <v>35527</v>
+        <v>34888</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="1">
-        <v>456367</v>
+        <v>221</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="J38" s="1">
-        <v>8806785435</v>
+        <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
@@ -9189,40 +10006,40 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5">
-        <v>34127</v>
+        <v>34128</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I39" s="1">
-        <v>235789</v>
+        <v>5664</v>
       </c>
       <c r="J39" s="1">
-        <v>2227658912</v>
+        <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
@@ -9232,38 +10049,38 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5">
         <v>34523</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="I40" s="1">
-        <v>323678</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2225678901</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>346765</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="L40" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
@@ -9273,34 +10090,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5">
-        <v>35965</v>
+        <v>35162</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I41" s="1">
-        <v>234878</v>
-      </c>
-      <c r="J41" s="1">
-        <v>4415427819</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>280</v>
+        <v>457865</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>113</v>
@@ -9316,40 +10133,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="5">
-        <v>34432</v>
+        <v>35977</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I42" s="1">
-        <v>879453</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4412568916</v>
+        <v>778654</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
@@ -9359,40 +10176,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="5">
-        <v>32966</v>
+        <v>34351</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="I43" s="1">
-        <v>345788</v>
-      </c>
-      <c r="J43" s="1">
-        <v>5557826541</v>
+        <v>326787</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
@@ -9402,40 +10219,38 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="5">
-        <v>33333</v>
+        <v>34523</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I44" s="1">
-        <v>653652</v>
+        <v>323678</v>
       </c>
       <c r="J44" s="1">
-        <v>5554237891</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>2225678901</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
@@ -9445,41 +10260,40 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5">
-        <v>34108</v>
+        <v>35965</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I45" s="1">
-        <v>453245</v>
+        <v>234878</v>
       </c>
       <c r="J45" s="1">
-        <v>2227893421</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f>K2</f>
-        <v>jos@guest.com</v>
+        <v>4415427819</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="N45" s="50"/>
       <c r="O45" s="50"/>
@@ -9489,40 +10303,40 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" s="5">
-        <v>33376</v>
+        <v>34432</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I46" s="1">
-        <v>456456</v>
+        <v>879453</v>
       </c>
       <c r="J46" s="1">
-        <v>90165328917</v>
+        <v>4412568916</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
@@ -9532,38 +10346,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="5">
-        <v>35167</v>
+        <v>32966</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="I47" s="1">
-        <v>345235</v>
+        <v>345788</v>
       </c>
       <c r="J47" s="1">
-        <v>8783426621</v>
+        <v>5557826541</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L47" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="M47" s="1" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
@@ -9573,40 +10389,40 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="5">
-        <v>34096</v>
+        <v>33333</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I48" s="1">
-        <v>765787</v>
+        <v>653652</v>
       </c>
       <c r="J48" s="1">
-        <v>7776528901</v>
+        <v>5554237891</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>181</v>
+        <v>283</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
@@ -9616,40 +10432,41 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="5">
-        <v>33708</v>
+        <v>34108</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I49" s="1">
-        <v>897654</v>
+        <v>453245</v>
       </c>
       <c r="J49" s="1">
-        <v>9992346781</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>204</v>
+        <v>2227893421</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f>K2</f>
+        <v>jos@guest.com</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
@@ -9659,40 +10476,38 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E50" s="5">
-        <v>31173</v>
+        <v>35167</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="I50" s="1">
-        <v>676588</v>
+        <v>345235</v>
       </c>
       <c r="J50" s="1">
-        <v>2226189271</v>
+        <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
@@ -9763,56 +10578,57 @@
       <c r="B53" s="54"/>
     </row>
   </sheetData>
+  <autoFilter ref="M1:M54" xr:uid="{2E414AA0-C410-4901-848C-351179CBD742}"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink r:id="rId2" ref="K3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink r:id="rId3" ref="K4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId4" ref="K5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId5" ref="K6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId6" ref="K7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink r:id="rId7" ref="K8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink r:id="rId8" ref="K9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink r:id="rId9" ref="K10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink r:id="rId10" ref="K11" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink r:id="rId11" ref="K12" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink r:id="rId12" ref="K13" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink r:id="rId13" ref="K14" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink r:id="rId14" ref="K15" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink r:id="rId15" ref="K16" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink r:id="rId16" ref="K17" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink r:id="rId17" ref="K18" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink r:id="rId18" ref="L48" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink r:id="rId19" ref="K19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink r:id="rId20" ref="K20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink r:id="rId21" ref="K21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink r:id="rId22" ref="K22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink r:id="rId23" ref="K23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink r:id="rId24" ref="K24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink r:id="rId25" ref="K25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink r:id="rId26" ref="K26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink r:id="rId27" ref="K27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink r:id="rId28" ref="K28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink r:id="rId29" ref="K29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink r:id="rId30" ref="K30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink r:id="rId31" ref="K31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink r:id="rId32" ref="K32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink r:id="rId33" ref="K33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink r:id="rId34" ref="K34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink r:id="rId35" ref="K35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink r:id="rId36" ref="K36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink r:id="rId37" ref="K37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink r:id="rId38" ref="K38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink r:id="rId39" ref="K39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink display="roo@test.com" r:id="rId40" ref="K42" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink r:id="rId41" ref="K43" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink display="dar@test.com" r:id="rId42" ref="K44" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink r:id="rId43" ref="K46" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink r:id="rId44" ref="K47" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink r:id="rId45" ref="K48" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink r:id="rId46" ref="K49" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink r:id="rId47" ref="K50" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink display="kei@test.com" r:id="rId48" ref="K45" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink display="simran@test.com" r:id="rId49" ref="K12" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink r:id="rId4" ref="K19" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="K20" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="K21" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId7" ref="K22" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink r:id="rId8" ref="K5" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink r:id="rId9" ref="K6" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink r:id="rId10" ref="K23" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink r:id="rId11" ref="K7" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="K24" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="K25" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="K8" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="K26" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="K9" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="K27" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink r:id="rId18" ref="L15" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink r:id="rId19" ref="K28" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink r:id="rId20" ref="K29" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink r:id="rId21" ref="K30" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink r:id="rId22" ref="K10" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink r:id="rId23" ref="K31" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink r:id="rId24" ref="K32" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink r:id="rId25" ref="K33" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink r:id="rId26" ref="K34" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink r:id="rId27" ref="K11" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="K35" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="K36" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="K37" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="K38" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="K12" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="K39" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink r:id="rId34" ref="K40" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink r:id="rId35" ref="K41" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink r:id="rId36" ref="K42" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink r:id="rId37" ref="K43" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink r:id="rId38" ref="K13" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink r:id="rId39" ref="K14" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink display="roo@test.com" r:id="rId40" ref="K46" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink r:id="rId41" ref="K47" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink display="dar@test.com" r:id="rId42" ref="K48" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink r:id="rId43" ref="K16" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="K50" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="K15" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="K17" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="K18" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink display="kei@test.com" r:id="rId48" ref="K49" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink display="simran@test.com" r:id="rId49" ref="K7" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
     <hyperlink r:id="rId50" ref="K52" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9827,8 +10643,8 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="F8" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10338,8 +11154,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10765,10 +11581,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10829,10 +11648,10 @@
         <v>356</v>
       </c>
       <c r="G2" s="147" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -10843,10 +11662,10 @@
         <v>337</v>
       </c>
       <c r="C3" s="100">
-        <v>73735</v>
+        <v>37705</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
@@ -10854,11 +11673,11 @@
       <c r="F3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="156">
-        <v>44421</v>
+      <c r="G3" s="148" t="s">
+        <v>569</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -10869,10 +11688,10 @@
         <v>338</v>
       </c>
       <c r="C4" s="100">
-        <v>37705</v>
+        <v>73735</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
@@ -10881,10 +11700,10 @@
         <v>356</v>
       </c>
       <c r="G4" s="149" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H4" s="149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -10907,10 +11726,10 @@
         <v>356</v>
       </c>
       <c r="G5" s="150" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H5" s="150" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10933,10 +11752,10 @@
         <v>356</v>
       </c>
       <c r="G6" s="151" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H6" s="151" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -10959,10 +11778,10 @@
         <v>356</v>
       </c>
       <c r="G7" s="152" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H7" s="152" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10970,23 +11789,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C8" s="100">
+        <v>73735</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G8" s="157" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G8" s="153" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" s="153" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -10994,25 +11813,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="C9" s="100">
+        <v>98487</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G9" s="158" t="s">
-        <v>376</v>
-      </c>
-      <c r="H9" s="158" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G9" s="154" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" s="154" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -11020,25 +11839,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>347</v>
+      </c>
+      <c r="C10" s="100">
+        <v>98487</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E10" s="1">
-        <v>1900</v>
+        <v>501</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G10" s="159" t="s">
-        <v>376</v>
-      </c>
-      <c r="H10" s="159" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G10" s="155" t="s">
+        <v>576</v>
+      </c>
+      <c r="H10" s="155" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -11046,25 +11865,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
+      </c>
+      <c r="C11" s="100">
+        <v>98487</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="1">
-        <v>2000</v>
+        <v>100000000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G11" s="160" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="160" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="H11" s="156" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -11072,25 +11891,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="C12" s="100">
+        <v>37705</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>352</v>
       </c>
       <c r="E12" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G12" s="161" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="161" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G12" s="157" t="s">
+        <v>578</v>
+      </c>
+      <c r="H12" s="157" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -11098,23 +11917,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C13" s="100">
-        <v>73735</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>37705</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>352</v>
+      </c>
       <c r="E13" s="1">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="153" t="s">
-        <v>570</v>
-      </c>
-      <c r="H13" s="153" t="s">
-        <v>562</v>
+      <c r="G13" s="158" t="s">
+        <v>579</v>
+      </c>
+      <c r="H13" s="158" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -11122,23 +11943,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C14" s="100">
-        <v>98487</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>37705</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200000000</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="162" t="s">
-        <v>376</v>
-      </c>
-      <c r="H14" s="162" t="s">
-        <v>574</v>
+        <v>356</v>
+      </c>
+      <c r="G14" s="159" t="s">
+        <v>580</v>
+      </c>
+      <c r="H14" s="159" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -11146,25 +11969,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="100">
-        <v>98487</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>91</v>
+      <c r="E15" s="1">
+        <v>1600</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="163" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15" s="160" t="s">
         <v>376</v>
       </c>
-      <c r="H15" s="163" t="s">
-        <v>574</v>
+      <c r="H15" s="160" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -11172,25 +11993,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C16" s="100">
-        <v>98487</v>
+        <v>294</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>353</v>
+      <c r="E16" s="1">
+        <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="161" t="s">
         <v>376</v>
       </c>
-      <c r="H16" s="164" t="s">
-        <v>574</v>
+      <c r="H16" s="161" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -11198,25 +12019,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" s="100">
-        <v>98487</v>
+        <v>295</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>354</v>
+      <c r="E17" s="1">
+        <v>1900</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G17" s="165" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="162" t="s">
         <v>376</v>
       </c>
-      <c r="H17" s="165" t="s">
-        <v>574</v>
+      <c r="H17" s="162" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -11224,25 +12045,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="100">
-        <v>98487</v>
+        <v>339</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E18" s="1">
-        <v>499</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G18" s="166" t="s">
+        <v>560</v>
+      </c>
+      <c r="G18" s="163" t="s">
         <v>376</v>
       </c>
-      <c r="H18" s="166" t="s">
-        <v>574</v>
+      <c r="H18" s="163" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -11250,25 +12071,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="100">
-        <v>98487</v>
+        <v>340</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1234</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E19" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G19" s="154" t="s">
-        <v>571</v>
-      </c>
-      <c r="H19" s="154" t="s">
-        <v>562</v>
+        <v>560</v>
+      </c>
+      <c r="G19" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="164" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -11276,7 +12097,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C20" s="100">
         <v>98487</v>
@@ -11284,17 +12105,15 @@
       <c r="D20" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E20" s="1">
-        <v>501</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G20" s="155" t="s">
-        <v>572</v>
-      </c>
-      <c r="H20" s="155" t="s">
-        <v>562</v>
+        <v>358</v>
+      </c>
+      <c r="G20" s="165" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="165" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -11302,7 +12121,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C21" s="100">
         <v>98487</v>
@@ -11310,17 +12129,17 @@
       <c r="D21" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E21" s="1">
-        <v>100000000</v>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G21" s="169" t="s">
-        <v>575</v>
-      </c>
-      <c r="H21" s="169" t="s">
-        <v>562</v>
+        <v>358</v>
+      </c>
+      <c r="G21" s="166" t="s">
+        <v>376</v>
+      </c>
+      <c r="H21" s="166" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -11328,16 +12147,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C22" s="100">
         <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="1">
-        <v>499</v>
+        <v>351</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>358</v>
@@ -11346,7 +12165,7 @@
         <v>376</v>
       </c>
       <c r="H22" s="167" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -11354,66 +12173,78 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C23" s="100">
-        <v>37705</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="1">
-        <v>500</v>
+        <v>98487</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G23" s="168" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="168" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C24" s="100">
-        <v>37705</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>352</v>
+        <v>98487</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="E24" s="1">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G24" s="169" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="169" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C25" s="100">
-        <v>37705</v>
-      </c>
-      <c r="D25" s="55" t="s">
+        <v>98487</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E25" s="1">
-        <v>200000000</v>
+        <v>499</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G25" s="170" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="170" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -11428,11 +12259,15 @@
       <c r="F26" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="171" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="171" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="87">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -11450,8 +12285,12 @@
       <c r="F27" s="87" t="s">
         <v>560</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="172" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="172" t="s">
+        <v>581</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11462,15 +12301,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="62.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -11494,14 +12334,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="56">
+        <v>44363</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
@@ -11517,7 +12359,9 @@
       <c r="B3" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>44363</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>351</v>
       </c>
@@ -11533,7 +12377,9 @@
       <c r="B4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>44566</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>351</v>
       </c>
@@ -11549,7 +12395,9 @@
       <c r="B5" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>44566</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>352</v>
       </c>
@@ -11576,20 +12424,131 @@
       </c>
       <c r="F6" s="1"/>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="78">
+        <v>44435</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row ht="28.8" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12345678901</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11625,12 +12584,14 @@
         <v>361</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>563</v>
+        <v>376</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="173" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -11640,12 +12601,14 @@
         <v>361</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>564</v>
+        <v>376</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="174" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -11655,12 +12618,14 @@
         <v>361</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>565</v>
+        <v>376</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="175" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -11670,12 +12635,14 @@
         <v>361</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>566</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="176" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -11685,12 +12652,14 @@
         <v>361</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>567</v>
+        <v>376</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="177" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -11700,12 +12669,14 @@
         <v>361</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="178" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -11715,12 +12686,14 @@
         <v>361</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>570</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="179" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -11730,12 +12703,14 @@
         <v>361</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>571</v>
+        <v>376</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="180" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -11745,12 +12720,14 @@
         <v>361</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>572</v>
+        <v>376</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="181" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -11760,12 +12737,14 @@
         <v>361</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>573</v>
+        <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="182" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -11775,12 +12754,14 @@
         <v>361</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>575</v>
+        <v>376</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="183" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -11789,11 +12770,15 @@
       <c r="B13" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="184" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -11802,11 +12787,15 @@
       <c r="B14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="185" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -11815,11 +12804,15 @@
       <c r="B15" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="186" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -11834,7 +12827,9 @@
       <c r="D16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="187" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -11849,7 +12844,9 @@
       <c r="D17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="50"/>
+      <c r="E17" s="188" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -11864,7 +12861,9 @@
       <c r="D18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="189" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -11873,13 +12872,15 @@
       <c r="B19" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="1">
-        <v>39282</v>
+      <c r="C19" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="190" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -11888,13 +12889,15 @@
       <c r="B20" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="1">
-        <v>1239682</v>
+      <c r="C20" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="191" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row ht="72" r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -11903,13 +12906,15 @@
       <c r="B21" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="1">
-        <v>45003459012</v>
+      <c r="C21" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="192" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="70" t="s">

--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{8BFC7396-AB87-4D52-B24E-7FD7D002E97F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5441AD-8745-4A45-A256-BEAF8AF0D3A3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="2" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
-    <sheet name="LoginLogout" r:id="rId2" sheetId="1"/>
-    <sheet name="NewCust" r:id="rId3" sheetId="2"/>
-    <sheet name="EditCust" r:id="rId4" sheetId="3"/>
-    <sheet name="DeleteCust" r:id="rId5" sheetId="7"/>
-    <sheet name="NewAcct" r:id="rId6" sheetId="8"/>
-    <sheet name="EditAcct" r:id="rId7" sheetId="9"/>
-    <sheet name="DeleteAcct" r:id="rId8" sheetId="10"/>
-    <sheet name="Deposit" r:id="rId9" sheetId="18"/>
-    <sheet name="Withdrawal" r:id="rId10" sheetId="12"/>
-    <sheet name="FundTransfer" r:id="rId11" sheetId="13"/>
-    <sheet name="BalEnquiry" r:id="rId12" sheetId="17"/>
-    <sheet name="MiniStat" r:id="rId13" sheetId="15"/>
-    <sheet name="CustStat" r:id="rId14" sheetId="16"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
+    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
+    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
+    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
+    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
+    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
+    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
+    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
+    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
+    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
+    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
+    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$27</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$M$1:$M$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$54</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +42,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C24" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{5314E864-4DAD-48A0-9132-A0FFD5A6ECD7}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5314E864-4DAD-48A0-9132-A0FFD5A6ECD7}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F3" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D2" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="617">
   <si>
     <t>testcaseID</t>
   </si>
@@ -2054,9 +2054,6 @@
   </si>
   <si>
     <t>34355</t>
-  </si>
-  <si>
-    <t>Fail - Customer could not be added !!</t>
   </si>
   <si>
     <t>59449</t>
@@ -2135,7 +2132,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2243,7 +2239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="184">
+  <fills count="160">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3036,136 +3032,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="240">
+  <borders count="192">
     <border>
       <left/>
       <right/>
@@ -6020,711 +5896,291 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="21" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="16" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="20" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="22" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="32" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="252">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="41" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="42" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="43" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="44" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="45" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="46" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="47" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="48" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="49" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="50" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="51" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="52" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="53" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="54" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="55" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="56" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="57" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="59" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="58" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="60" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="61" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="62" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="63" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="64" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="65" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="66" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="67" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="68" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="69" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="70" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="71" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="72" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="73" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="74" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="75" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="76" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="77" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="78" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="79" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="80" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="81" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="83" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="84" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="85" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="86" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="87" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="88" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="89" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="90" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="91" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="92" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="93" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="94" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="95" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="96" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="97" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="98" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="99" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="100" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="101" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="102" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="103" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="104" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="105" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="106" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="107" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="108" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="109" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="110" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="111" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="112" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="113" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="114" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="115" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="116" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="117" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="118" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="119" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="120" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="121" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="122" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="123" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="124" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="125" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="126" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="127" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="128" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="129" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="130" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="131" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="132" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="133" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="134" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="135" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="136" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="137" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="138" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="139" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="140" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="140" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="140" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="140" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="141" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="142" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="143" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="144" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="145" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="146" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="147" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="148" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="149" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="150" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="151" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="152" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="153" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="154" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="155" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="156" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="157" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="158" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="159" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="160" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="161" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="162" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="163" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="164" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="165" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="166" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="167" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="168" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="169" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="170" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="171" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="172" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="173" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="174" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="175" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="176" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="177" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="178" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="179" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="180" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="181" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="182" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="183" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="184" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="185" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="186" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="187" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="188" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="189" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="190" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="191" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="82" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="199" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="199" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="207" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="207" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="239" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="239" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6741,10 +6197,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6779,7 +6235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6814,7 +6270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6908,21 +6364,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6939,7 +6395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -6991,15 +6447,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:J62"/>
   <sheetViews>
     <sheetView topLeftCell="H16" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
@@ -7007,12 +6463,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
-    <col min="7" max="7" style="23" width="9.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="46.88671875" collapsed="true"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.109375" style="23" collapsed="1"/>
+    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="46.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -7185,7 +6641,7 @@
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
     </row>
-    <row ht="15.6" r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="H23" s="56" t="s">
         <v>289</v>
@@ -7197,7 +6653,7 @@
         <v>539</v>
       </c>
     </row>
-    <row ht="15.6" r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="H24" s="250">
         <v>96501</v>
@@ -7207,7 +6663,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row ht="15.6" r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
       <c r="H25" s="250"/>
       <c r="I25" s="70">
@@ -7215,7 +6671,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row ht="15.6" r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
       <c r="H26" s="250"/>
       <c r="I26" s="180">
@@ -7223,37 +6679,37 @@
       </c>
       <c r="J26" s="55"/>
     </row>
-    <row ht="15.6" r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="75"/>
       <c r="H27" s="250"/>
       <c r="I27" s="76"/>
       <c r="J27" s="55"/>
     </row>
-    <row ht="15.6" r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="75"/>
       <c r="H28" s="250"/>
       <c r="I28" s="76"/>
       <c r="J28" s="55"/>
     </row>
-    <row ht="15.6" r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
       <c r="H29" s="250"/>
       <c r="I29" s="76"/>
       <c r="J29" s="55"/>
     </row>
-    <row ht="15.6" r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
       <c r="H30" s="249"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
-    <row ht="15.6" r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="H31" s="249"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
-    <row ht="15.6" r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="H32" s="249"/>
       <c r="I32" s="55"/>
@@ -7404,16 +6860,16 @@
     <mergeCell ref="E38:E51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="http://demo.guru99.com/v4/manager/addcustomerpage.php" r:id="rId1" ref="H7" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
+    <hyperlink ref="H7" r:id="rId1" display="http://demo.guru99.com/v4/manager/addcustomerpage.php" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -7421,11 +6877,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="87.88671875" collapsed="true"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -7981,15 +7437,15 @@
       <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -7997,11 +7453,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="98" width="133.5546875" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="133.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -8582,14 +8038,14 @@
       <c r="A28" s="94"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
@@ -8597,9 +8053,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8796,15 +8252,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
@@ -8812,9 +8268,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -8947,13 +8403,13 @@
       <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -8961,9 +8417,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -9378,17 +8834,17 @@
       <c r="I23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -9396,12 +8852,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="51.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5546875" collapsed="true"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -9446,7 +8902,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="258" t="s">
+      <c r="G2" s="246" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9621,34 +9077,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
-    <hyperlink r:id="rId2" ref="E9" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+    <sheetView topLeftCell="J4" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -10066,7 +9522,7 @@
         <v>112</v>
       </c>
       <c r="N9" s="245" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O9" s="245" t="s">
         <v>545</v>
@@ -10113,7 +9569,7 @@
         <v>112</v>
       </c>
       <c r="N10" s="205" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O10" s="205" t="s">
         <v>545</v>
@@ -10160,7 +9616,7 @@
         <v>112</v>
       </c>
       <c r="N11" s="206" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O11" s="206" t="s">
         <v>545</v>
@@ -10207,7 +9663,7 @@
         <v>112</v>
       </c>
       <c r="N12" s="207" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O12" s="207" t="s">
         <v>545</v>
@@ -10254,7 +9710,7 @@
         <v>112</v>
       </c>
       <c r="N13" s="208" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O13" s="208" t="s">
         <v>545</v>
@@ -10301,7 +9757,7 @@
         <v>112</v>
       </c>
       <c r="N14" s="209" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O14" s="209" t="s">
         <v>545</v>
@@ -10348,7 +9804,7 @@
         <v>112</v>
       </c>
       <c r="N15" s="210" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O15" s="210" t="s">
         <v>545</v>
@@ -10395,7 +9851,7 @@
         <v>112</v>
       </c>
       <c r="N16" s="211" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O16" s="211" t="s">
         <v>545</v>
@@ -10439,13 +9895,13 @@
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N17" s="247" t="s">
+        <v>336</v>
+      </c>
+      <c r="O17" s="247" t="s">
         <v>616</v>
-      </c>
-      <c r="N17" s="260" t="s">
-        <v>336</v>
-      </c>
-      <c r="O17" s="260" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -10486,13 +9942,13 @@
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N18" s="248" t="s">
+        <v>336</v>
+      </c>
+      <c r="O18" s="248" t="s">
         <v>616</v>
-      </c>
-      <c r="N18" s="262" t="s">
-        <v>336</v>
-      </c>
-      <c r="O18" s="262" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -10537,7 +9993,7 @@
         <v>336</v>
       </c>
       <c r="O19" s="212" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -10584,7 +10040,7 @@
         <v>336</v>
       </c>
       <c r="O20" s="213" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -10631,7 +10087,7 @@
         <v>336</v>
       </c>
       <c r="O21" s="214" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10723,7 +10179,7 @@
         <v>336</v>
       </c>
       <c r="O23" s="216" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10768,7 +10224,7 @@
         <v>336</v>
       </c>
       <c r="O24" s="217" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10815,7 +10271,7 @@
         <v>336</v>
       </c>
       <c r="O25" s="218" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10907,7 +10363,7 @@
         <v>336</v>
       </c>
       <c r="O27" s="220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10954,7 +10410,7 @@
         <v>336</v>
       </c>
       <c r="O28" s="221" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -11001,7 +10457,7 @@
         <v>336</v>
       </c>
       <c r="O29" s="222" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -11093,7 +10549,7 @@
         <v>336</v>
       </c>
       <c r="O31" s="224" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -11140,7 +10596,7 @@
         <v>336</v>
       </c>
       <c r="O32" s="225" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -11187,7 +10643,7 @@
         <v>336</v>
       </c>
       <c r="O33" s="226" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -11279,7 +10735,7 @@
         <v>336</v>
       </c>
       <c r="O35" s="228" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -11326,7 +10782,7 @@
         <v>336</v>
       </c>
       <c r="O36" s="229" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -11467,7 +10923,7 @@
         <v>336</v>
       </c>
       <c r="O39" s="232" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -11512,7 +10968,7 @@
         <v>336</v>
       </c>
       <c r="O40" s="233" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -11559,7 +11015,7 @@
         <v>336</v>
       </c>
       <c r="O41" s="234" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -11698,7 +11154,7 @@
         <v>336</v>
       </c>
       <c r="O44" s="237" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -11745,7 +11201,7 @@
         <v>336</v>
       </c>
       <c r="O45" s="238" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -11792,7 +11248,7 @@
         <v>336</v>
       </c>
       <c r="O46" s="239" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -11839,7 +11295,7 @@
         <v>336</v>
       </c>
       <c r="O47" s="240" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -11886,7 +11342,7 @@
         <v>336</v>
       </c>
       <c r="O48" s="241" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -11934,7 +11390,7 @@
         <v>336</v>
       </c>
       <c r="O49" s="242" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -12006,7 +11462,7 @@
         <v>336</v>
       </c>
       <c r="O51" s="244" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -12054,82 +11510,82 @@
   </sheetData>
   <autoFilter ref="M1:M54" xr:uid="{2E414AA0-C410-4901-848C-351179CBD742}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink r:id="rId2" ref="K4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId3" ref="K19" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId4" ref="K20" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId5" ref="K21" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink r:id="rId6" ref="K22" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink r:id="rId7" ref="K5" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink r:id="rId8" ref="K6" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink r:id="rId9" ref="K23" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink display="keya@test.com" r:id="rId10" ref="K7" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink r:id="rId11" ref="K24" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink r:id="rId12" ref="K25" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink r:id="rId13" ref="K8" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink r:id="rId14" ref="K26" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink r:id="rId15" ref="K9" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink r:id="rId16" ref="K27" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink r:id="rId17" ref="L13" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink r:id="rId18" ref="K28" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink r:id="rId19" ref="K29" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink r:id="rId20" ref="K30" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink r:id="rId21" ref="K17" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink r:id="rId22" ref="K31" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink r:id="rId23" ref="K32" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink r:id="rId24" ref="K33" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink r:id="rId25" ref="K34" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink r:id="rId26" ref="K18" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink r:id="rId27" ref="K35" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink r:id="rId28" ref="K36" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink r:id="rId29" ref="K37" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink r:id="rId30" ref="K38" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink r:id="rId31" ref="K10" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink r:id="rId32" ref="K39" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink r:id="rId33" ref="K40" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink r:id="rId34" ref="K41" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink r:id="rId35" ref="K42" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink r:id="rId36" ref="K43" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink r:id="rId37" ref="K11" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink r:id="rId38" ref="K12" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink display="roo@test.com" r:id="rId39" ref="K46" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink r:id="rId40" ref="K47" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink display="dar@test.com" r:id="rId41" ref="K48" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink r:id="rId42" ref="K14" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink r:id="rId43" ref="K50" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink r:id="rId44" ref="K13" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink r:id="rId45" ref="K15" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink r:id="rId46" ref="K16" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink display="kei@test.com" r:id="rId47" ref="K49" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink r:id="rId48" ref="K7" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink r:id="rId49" ref="K52" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink display="jos@guest.com" r:id="rId50" ref="K2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K19" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="K20" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="K21" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="K22" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K23" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="K7" r:id="rId10" display="keya@test.com" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="K24" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="K25" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="K8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K9" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K27" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="L13" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="K28" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="K29" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="K30" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="K17" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="K31" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="K32" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="K33" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="K34" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="K18" r:id="rId26" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="K35" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="K36" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="K37" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="K38" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="K10" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="K39" r:id="rId32" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="K40" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="K41" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="K42" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="K43" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="K11" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="K12" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="K46" r:id="rId39" display="roo@test.com" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="K47" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="K48" r:id="rId41" display="dar@test.com" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="K14" r:id="rId42" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K50" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="K13" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="K15" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K16" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="K49" r:id="rId47" display="kei@test.com" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="K7" r:id="rId48" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="K52" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="K2" r:id="rId50" display="jos@guest.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId51"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="43.109375" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="43.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -12412,7 +11868,7 @@
         <v>498</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -12571,7 +12027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row ht="72" r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12608,36 +12064,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink r:id="rId2" ref="I5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink r:id="rId3" ref="I6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink r:id="rId4" ref="I7" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink r:id="rId5" ref="I8" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink r:id="rId6" ref="I3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink r:id="rId7" ref="I2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -12770,7 +12226,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>250</v>
@@ -12785,7 +12241,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>250</v>
@@ -12800,7 +12256,7 @@
         <v>252</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>250</v>
@@ -12815,7 +12271,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>250</v>
@@ -12830,7 +12286,7 @@
         <v>252</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>250</v>
@@ -12845,7 +12301,7 @@
         <v>252</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>250</v>
@@ -12860,7 +12316,7 @@
         <v>252</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>250</v>
@@ -12875,7 +12331,7 @@
         <v>252</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>250</v>
@@ -12970,7 +12426,7 @@
       </c>
       <c r="E22" s="49"/>
     </row>
-    <row ht="43.2" r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12978,14 +12434,14 @@
         <v>261</v>
       </c>
       <c r="C23" s="1">
-        <v>10003459012</v>
+        <v>10003459054</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E23" s="49"/>
     </row>
-    <row ht="43.2" r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -13000,7 +12456,7 @@
       </c>
       <c r="E24" s="49"/>
     </row>
-    <row customHeight="1" ht="15" r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -13015,7 +12471,7 @@
       </c>
       <c r="E25" s="194"/>
     </row>
-    <row customHeight="1" ht="15" r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
       <c r="B26" s="196" t="s">
         <v>449</v>
@@ -13028,7 +12484,7 @@
       </c>
       <c r="E26" s="195"/>
     </row>
-    <row customHeight="1" ht="15" r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
@@ -13036,18 +12492,18 @@
       <c r="E27" s="195"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
@@ -13055,14 +12511,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -13756,18 +13212,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
@@ -13775,9 +13231,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="62.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13800,7 +13256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13836,7 +13292,7 @@
         <v>537</v>
       </c>
     </row>
-    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -13998,7 +13454,7 @@
         <v>538</v>
       </c>
     </row>
-    <row ht="28.8" r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14017,17 +13473,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -14035,10 +13491,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -14381,7 +13837,7 @@
         <v>355</v>
       </c>
     </row>
-    <row ht="72" r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14410,14 +13866,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -14425,10 +13881,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="51.88671875" collapsed="true"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -14913,7 +14369,7 @@
       <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/src/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5441AD-8745-4A45-A256-BEAF8AF0D3A3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC67D945-847B-4783-B639-0DD5115D3D49}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="622">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1843,21 +1843,6 @@
     <t>45003459012</t>
   </si>
   <si>
-    <t>44553</t>
-  </si>
-  <si>
-    <t>44554</t>
-  </si>
-  <si>
-    <t>44555</t>
-  </si>
-  <si>
-    <t>44556</t>
-  </si>
-  <si>
-    <t>44557</t>
-  </si>
-  <si>
     <t>44558</t>
   </si>
   <si>
@@ -2126,6 +2111,41 @@
   </si>
   <si>
     <t>Pass - Customer could not be added !!</t>
+  </si>
+  <si>
+    <t>Pass - Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+  </si>
+  <si>
+    <t>44680</t>
+  </si>
+  <si>
+    <t>44681</t>
+  </si>
+  <si>
+    <t>44682</t>
+  </si>
+  <si>
+    <t>44683</t>
+  </si>
+  <si>
+    <t>44684</t>
+  </si>
+  <si>
+    <t>Fail - org.openqa.selenium.TimeoutException: Expected condition failed: waiting for alert to be present (tried for 15 second(s) with 500 milliseconds interval)
+Build info: version: '3.12.0', revision: '7c6e0b3', time: '2018-05-08T15:15:08.936Z'
+System info: host: 'VINSCORPION', ip: '192.168.1.6', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '10.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.38.552522 (437e6fbedfa876..., userDataDir: C:\Users\vinay\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.87, webStorageEnabled: true}
+Session ID: 664fd41720c3120226d9cdd2f3345dd8</t>
+  </si>
+  <si>
+    <t>Fail - Message mismatch..No Changes made to Account records</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2259,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="160">
+  <fills count="185">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3040,8 +3060,133 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="192">
+  <borders count="217">
     <border>
       <left/>
       <right/>
@@ -5015,111 +5160,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -5129,6 +5169,486 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5901,7 +6421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -6091,29 +6611,28 @@
     <xf numFmtId="0" fontId="0" fillId="90" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="91" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="92" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="93" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="94" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="95" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="96" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="97" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="98" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="99" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="100" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="101" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="109" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="110" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="111" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6165,6 +6684,31 @@
     <xf numFmtId="0" fontId="0" fillId="157" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="158" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="159" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="194" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="195" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="196" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="197" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="198" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6650,12 +7194,12 @@
         <v>290</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="250">
+      <c r="H24" s="274">
         <v>96501</v>
       </c>
       <c r="I24" s="70">
@@ -6665,7 +7209,7 @@
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
-      <c r="H25" s="250"/>
+      <c r="H25" s="274"/>
       <c r="I25" s="70">
         <v>44566</v>
       </c>
@@ -6673,63 +7217,63 @@
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="180">
+      <c r="H26" s="274"/>
+      <c r="I26" s="175">
         <v>44604</v>
       </c>
       <c r="J26" s="55"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="75"/>
-      <c r="H27" s="250"/>
+      <c r="H27" s="274"/>
       <c r="I27" s="76"/>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="75"/>
-      <c r="H28" s="250"/>
+      <c r="H28" s="274"/>
       <c r="I28" s="76"/>
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
-      <c r="H29" s="250"/>
+      <c r="H29" s="274"/>
       <c r="I29" s="76"/>
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="249"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="249"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="249"/>
+      <c r="H32" s="273"/>
       <c r="I32" s="55"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="249"/>
+      <c r="H33" s="273"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="249"/>
+      <c r="H34" s="273"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="249"/>
+      <c r="H35" s="273"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -6741,95 +7285,95 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="251" t="s">
+      <c r="E38" s="275" t="s">
         <v>515</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="251"/>
+      <c r="E39" s="275"/>
       <c r="F39" s="132" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="251"/>
+      <c r="E40" s="275"/>
       <c r="F40" s="132" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="251"/>
+      <c r="E41" s="275"/>
       <c r="F41" s="132" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="251"/>
+      <c r="E42" s="275"/>
       <c r="F42" s="132" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="251"/>
+      <c r="E43" s="275"/>
       <c r="F43" s="132" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="251"/>
+      <c r="E44" s="275"/>
       <c r="F44" s="132" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="251"/>
+      <c r="E45" s="275"/>
       <c r="F45" s="132" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="251"/>
+      <c r="E46" s="275"/>
       <c r="F46" s="132" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="251"/>
+      <c r="E47" s="275"/>
       <c r="F47" s="132" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="251"/>
+      <c r="E48" s="275"/>
       <c r="F48" s="132" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="251"/>
+      <c r="E49" s="275"/>
       <c r="F49" s="132" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="251"/>
+      <c r="E50" s="275"/>
       <c r="F50" s="132" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="251"/>
+      <c r="E51" s="275"/>
       <c r="F51" s="133" t="s">
         <v>251</v>
       </c>
@@ -8902,7 +9446,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="269" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9092,7 +9636,7 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -9186,7 +9730,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>110</v>
@@ -9194,11 +9738,11 @@
       <c r="M2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="198" t="s">
-        <v>546</v>
-      </c>
-      <c r="O2" s="198" t="s">
-        <v>545</v>
+      <c r="N2" s="190" t="s">
+        <v>541</v>
+      </c>
+      <c r="O2" s="190" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -9233,7 +9777,7 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
@@ -9241,11 +9785,11 @@
       <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="199" t="s">
-        <v>587</v>
-      </c>
-      <c r="O3" s="199" t="s">
-        <v>545</v>
+      <c r="N3" s="191" t="s">
+        <v>582</v>
+      </c>
+      <c r="O3" s="191" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9280,7 +9824,7 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -9288,11 +9832,11 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="O4" s="200" t="s">
-        <v>545</v>
+      <c r="N4" s="192" t="s">
+        <v>583</v>
+      </c>
+      <c r="O4" s="192" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -9327,7 +9871,7 @@
         <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>110</v>
@@ -9335,11 +9879,11 @@
       <c r="M5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="201" t="s">
-        <v>589</v>
-      </c>
-      <c r="O5" s="201" t="s">
-        <v>545</v>
+      <c r="N5" s="193" t="s">
+        <v>584</v>
+      </c>
+      <c r="O5" s="193" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -9372,7 +9916,7 @@
         <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>110</v>
@@ -9380,11 +9924,11 @@
       <c r="M6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="202" t="s">
-        <v>590</v>
-      </c>
-      <c r="O6" s="202" t="s">
-        <v>545</v>
+      <c r="N6" s="194" t="s">
+        <v>585</v>
+      </c>
+      <c r="O6" s="194" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -9419,7 +9963,7 @@
         <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>110</v>
@@ -9427,11 +9971,11 @@
       <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="203" t="s">
-        <v>591</v>
-      </c>
-      <c r="O7" s="203" t="s">
-        <v>545</v>
+      <c r="N7" s="195" t="s">
+        <v>586</v>
+      </c>
+      <c r="O7" s="195" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -9466,7 +10010,7 @@
         <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>110</v>
@@ -9474,11 +10018,11 @@
       <c r="M8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="204" t="s">
-        <v>592</v>
-      </c>
-      <c r="O8" s="204" t="s">
-        <v>545</v>
+      <c r="N8" s="196" t="s">
+        <v>587</v>
+      </c>
+      <c r="O8" s="196" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9513,7 +10057,7 @@
         <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>110</v>
@@ -9521,11 +10065,11 @@
       <c r="M9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="245" t="s">
-        <v>614</v>
-      </c>
-      <c r="O9" s="245" t="s">
-        <v>545</v>
+      <c r="N9" s="237" t="s">
+        <v>609</v>
+      </c>
+      <c r="O9" s="237" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9560,7 +10104,7 @@
         <v>5658901234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>110</v>
@@ -9568,11 +10112,11 @@
       <c r="M10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="205" t="s">
-        <v>593</v>
-      </c>
-      <c r="O10" s="205" t="s">
-        <v>545</v>
+      <c r="N10" s="197" t="s">
+        <v>588</v>
+      </c>
+      <c r="O10" s="197" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9607,7 +10151,7 @@
         <v>8806785435</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>110</v>
@@ -9615,11 +10159,11 @@
       <c r="M11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="206" t="s">
-        <v>594</v>
-      </c>
-      <c r="O11" s="206" t="s">
-        <v>545</v>
+      <c r="N11" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="O11" s="198" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9654,7 +10198,7 @@
         <v>2227658912</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>110</v>
@@ -9662,11 +10206,11 @@
       <c r="M12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="207" t="s">
-        <v>595</v>
-      </c>
-      <c r="O12" s="207" t="s">
-        <v>545</v>
+      <c r="N12" s="199" t="s">
+        <v>590</v>
+      </c>
+      <c r="O12" s="199" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9701,7 +10245,7 @@
         <v>7776528901</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>177</v>
@@ -9709,11 +10253,11 @@
       <c r="M13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="208" t="s">
-        <v>596</v>
-      </c>
-      <c r="O13" s="208" t="s">
-        <v>545</v>
+      <c r="N13" s="200" t="s">
+        <v>591</v>
+      </c>
+      <c r="O13" s="200" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9748,7 +10292,7 @@
         <v>90165328917</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>110</v>
@@ -9756,11 +10300,11 @@
       <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="209" t="s">
-        <v>597</v>
-      </c>
-      <c r="O14" s="209" t="s">
-        <v>545</v>
+      <c r="N14" s="201" t="s">
+        <v>592</v>
+      </c>
+      <c r="O14" s="201" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -9795,7 +10339,7 @@
         <v>9992346781</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>178</v>
@@ -9803,11 +10347,11 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="210" t="s">
-        <v>598</v>
-      </c>
-      <c r="O15" s="210" t="s">
-        <v>545</v>
+      <c r="N15" s="202" t="s">
+        <v>593</v>
+      </c>
+      <c r="O15" s="202" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -9842,7 +10386,7 @@
         <v>2226189271</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>179</v>
@@ -9850,11 +10394,11 @@
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="211" t="s">
-        <v>599</v>
-      </c>
-      <c r="O16" s="211" t="s">
-        <v>545</v>
+      <c r="N16" s="203" t="s">
+        <v>594</v>
+      </c>
+      <c r="O16" s="203" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -9889,19 +10433,19 @@
         <v>5557789012</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N17" s="247" t="s">
+        <v>610</v>
+      </c>
+      <c r="N17" s="238" t="s">
         <v>336</v>
       </c>
-      <c r="O17" s="247" t="s">
-        <v>616</v>
+      <c r="O17" s="238" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -9936,19 +10480,19 @@
         <v>1239872361</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N18" s="248" t="s">
+        <v>610</v>
+      </c>
+      <c r="N18" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="O18" s="248" t="s">
-        <v>616</v>
+      <c r="O18" s="239" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -9981,7 +10525,7 @@
         <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>110</v>
@@ -9989,11 +10533,11 @@
       <c r="M19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="212" t="s">
+      <c r="N19" s="204" t="s">
         <v>336</v>
       </c>
-      <c r="O19" s="212" t="s">
-        <v>600</v>
+      <c r="O19" s="204" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -10028,7 +10572,7 @@
         <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>110</v>
@@ -10036,11 +10580,11 @@
       <c r="M20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="213" t="s">
+      <c r="N20" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="O20" s="213" t="s">
-        <v>601</v>
+      <c r="O20" s="205" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -10075,7 +10619,7 @@
         <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>110</v>
@@ -10083,11 +10627,11 @@
       <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="214" t="s">
+      <c r="N21" s="206" t="s">
         <v>336</v>
       </c>
-      <c r="O21" s="214" t="s">
-        <v>602</v>
+      <c r="O21" s="206" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10122,7 +10666,7 @@
         <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>110</v>
@@ -10130,10 +10674,10 @@
       <c r="M22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="215" t="s">
+      <c r="N22" s="207" t="s">
         <v>336</v>
       </c>
-      <c r="O22" s="215" t="s">
+      <c r="O22" s="207" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10167,7 +10711,7 @@
         <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>110</v>
@@ -10175,11 +10719,11 @@
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="216" t="s">
+      <c r="N23" s="208" t="s">
         <v>336</v>
       </c>
-      <c r="O23" s="216" t="s">
-        <v>603</v>
+      <c r="O23" s="208" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10212,7 +10756,7 @@
         <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>110</v>
@@ -10220,11 +10764,11 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="217" t="s">
+      <c r="N24" s="209" t="s">
         <v>336</v>
       </c>
-      <c r="O24" s="217" t="s">
-        <v>604</v>
+      <c r="O24" s="209" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10259,7 +10803,7 @@
         <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>110</v>
@@ -10267,11 +10811,11 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="218" t="s">
+      <c r="N25" s="210" t="s">
         <v>336</v>
       </c>
-      <c r="O25" s="218" t="s">
-        <v>601</v>
+      <c r="O25" s="210" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10306,7 +10850,7 @@
         <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>110</v>
@@ -10314,10 +10858,10 @@
       <c r="M26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="219" t="s">
+      <c r="N26" s="211" t="s">
         <v>336</v>
       </c>
-      <c r="O26" s="219" t="s">
+      <c r="O26" s="211" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10351,7 +10895,7 @@
         <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>110</v>
@@ -10359,11 +10903,11 @@
       <c r="M27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="220" t="s">
+      <c r="N27" s="212" t="s">
         <v>336</v>
       </c>
-      <c r="O27" s="220" t="s">
-        <v>605</v>
+      <c r="O27" s="212" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10398,7 +10942,7 @@
         <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>110</v>
@@ -10406,11 +10950,11 @@
       <c r="M28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="221" t="s">
+      <c r="N28" s="213" t="s">
         <v>336</v>
       </c>
-      <c r="O28" s="221" t="s">
-        <v>601</v>
+      <c r="O28" s="213" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10445,7 +10989,7 @@
         <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>110</v>
@@ -10453,11 +10997,11 @@
       <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="222" t="s">
+      <c r="N29" s="214" t="s">
         <v>336</v>
       </c>
-      <c r="O29" s="222" t="s">
-        <v>602</v>
+      <c r="O29" s="214" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -10492,7 +11036,7 @@
         <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>110</v>
@@ -10500,10 +11044,10 @@
       <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="223" t="s">
+      <c r="N30" s="215" t="s">
         <v>336</v>
       </c>
-      <c r="O30" s="223" t="s">
+      <c r="O30" s="215" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10537,7 +11081,7 @@
         <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>110</v>
@@ -10545,11 +11089,11 @@
       <c r="M31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="224" t="s">
+      <c r="N31" s="216" t="s">
         <v>336</v>
       </c>
-      <c r="O31" s="224" t="s">
-        <v>606</v>
+      <c r="O31" s="216" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -10584,7 +11128,7 @@
         <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>110</v>
@@ -10592,11 +11136,11 @@
       <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="225" t="s">
+      <c r="N32" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="O32" s="225" t="s">
-        <v>601</v>
+      <c r="O32" s="217" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -10631,7 +11175,7 @@
         <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>110</v>
@@ -10639,11 +11183,11 @@
       <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="226" t="s">
+      <c r="N33" s="218" t="s">
         <v>336</v>
       </c>
-      <c r="O33" s="226" t="s">
-        <v>602</v>
+      <c r="O33" s="218" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -10678,7 +11222,7 @@
         <v>1016738377</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -10686,10 +11230,10 @@
       <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="227" t="s">
+      <c r="N34" s="219" t="s">
         <v>336</v>
       </c>
-      <c r="O34" s="227" t="s">
+      <c r="O34" s="219" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10723,7 +11267,7 @@
         <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>110</v>
@@ -10731,11 +11275,11 @@
       <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="228" t="s">
+      <c r="N35" s="220" t="s">
         <v>336</v>
       </c>
-      <c r="O35" s="228" t="s">
-        <v>607</v>
+      <c r="O35" s="220" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -10770,7 +11314,7 @@
         <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>110</v>
@@ -10778,11 +11322,11 @@
       <c r="M36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="229" t="s">
+      <c r="N36" s="221" t="s">
         <v>336</v>
       </c>
-      <c r="O36" s="229" t="s">
-        <v>601</v>
+      <c r="O36" s="221" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -10817,7 +11361,7 @@
         <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>110</v>
@@ -10825,10 +11369,10 @@
       <c r="M37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="230" t="s">
+      <c r="N37" s="222" t="s">
         <v>336</v>
       </c>
-      <c r="O37" s="230" t="s">
+      <c r="O37" s="222" t="s">
         <v>353</v>
       </c>
     </row>
@@ -10864,7 +11408,7 @@
         <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>110</v>
@@ -10872,10 +11416,10 @@
       <c r="M38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="231" t="s">
+      <c r="N38" s="223" t="s">
         <v>336</v>
       </c>
-      <c r="O38" s="231" t="s">
+      <c r="O38" s="223" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10911,7 +11455,7 @@
         <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>110</v>
@@ -10919,11 +11463,11 @@
       <c r="M39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="232" t="s">
+      <c r="N39" s="224" t="s">
         <v>336</v>
       </c>
-      <c r="O39" s="232" t="s">
-        <v>608</v>
+      <c r="O39" s="224" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10956,7 +11500,7 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>110</v>
@@ -10964,11 +11508,11 @@
       <c r="M40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="233" t="s">
+      <c r="N40" s="225" t="s">
         <v>336</v>
       </c>
-      <c r="O40" s="233" t="s">
-        <v>609</v>
+      <c r="O40" s="225" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -11003,7 +11547,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>110</v>
@@ -11011,11 +11555,11 @@
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="234" t="s">
+      <c r="N41" s="226" t="s">
         <v>336</v>
       </c>
-      <c r="O41" s="234" t="s">
-        <v>601</v>
+      <c r="O41" s="226" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -11050,7 +11594,7 @@
         <v>238</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>110</v>
@@ -11058,10 +11602,10 @@
       <c r="M42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="235" t="s">
+      <c r="N42" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="O42" s="235" t="s">
+      <c r="O42" s="227" t="s">
         <v>353</v>
       </c>
     </row>
@@ -11097,7 +11641,7 @@
         <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>110</v>
@@ -11105,10 +11649,10 @@
       <c r="M43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="236" t="s">
+      <c r="N43" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="O43" s="236" t="s">
+      <c r="O43" s="228" t="s">
         <v>354</v>
       </c>
     </row>
@@ -11150,11 +11694,11 @@
       <c r="M44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="237" t="s">
+      <c r="N44" s="229" t="s">
         <v>336</v>
       </c>
-      <c r="O44" s="237" t="s">
-        <v>610</v>
+      <c r="O44" s="229" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -11197,11 +11741,11 @@
       <c r="M45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="238" t="s">
+      <c r="N45" s="230" t="s">
         <v>336</v>
       </c>
-      <c r="O45" s="238" t="s">
-        <v>601</v>
+      <c r="O45" s="230" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -11244,11 +11788,11 @@
       <c r="M46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="239" t="s">
+      <c r="N46" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="O46" s="239" t="s">
-        <v>611</v>
+      <c r="O46" s="231" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -11291,11 +11835,11 @@
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="240" t="s">
+      <c r="N47" s="232" t="s">
         <v>336</v>
       </c>
-      <c r="O47" s="240" t="s">
-        <v>611</v>
+      <c r="O47" s="232" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -11338,11 +11882,11 @@
       <c r="M48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N48" s="241" t="s">
+      <c r="N48" s="233" t="s">
         <v>336</v>
       </c>
-      <c r="O48" s="241" t="s">
-        <v>611</v>
+      <c r="O48" s="233" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -11386,11 +11930,11 @@
       <c r="M49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N49" s="242" t="s">
+      <c r="N49" s="234" t="s">
         <v>336</v>
       </c>
-      <c r="O49" s="242" t="s">
-        <v>612</v>
+      <c r="O49" s="234" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -11425,16 +11969,16 @@
         <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="243" t="s">
+      <c r="N50" s="235" t="s">
         <v>336</v>
       </c>
-      <c r="O50" s="243" t="s">
+      <c r="O50" s="235" t="s">
         <v>494</v>
       </c>
     </row>
@@ -11458,11 +12002,11 @@
       <c r="M51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="244" t="s">
+      <c r="N51" s="236" t="s">
         <v>336</v>
       </c>
-      <c r="O51" s="244" t="s">
-        <v>613</v>
+      <c r="O51" s="236" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -11495,7 +12039,7 @@
         <v>9996278123</v>
       </c>
       <c r="K52" s="100" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L52" s="86" t="s">
         <v>110</v>
@@ -11569,7 +12113,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -11631,7 +12175,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>274</v>
@@ -11649,7 +12193,7 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>283</v>
@@ -11666,7 +12210,7 @@
         <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -11684,7 +12228,7 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>283</v>
@@ -11701,7 +12245,7 @@
         <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -11719,7 +12263,7 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>283</v>
@@ -11736,7 +12280,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>275</v>
@@ -11754,7 +12298,7 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>283</v>
@@ -11771,7 +12315,7 @@
         <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>276</v>
@@ -11789,7 +12333,7 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>283</v>
@@ -11806,7 +12350,7 @@
         <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>277</v>
@@ -11841,7 +12385,7 @@
         <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>277</v>
@@ -11876,7 +12420,7 @@
         <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -12080,12 +12624,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12121,12 +12665,14 @@
         <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>546</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="240" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -12136,12 +12682,14 @@
         <v>252</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>587</v>
+        <v>336</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="241" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -12151,12 +12699,14 @@
         <v>252</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>588</v>
+        <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="242" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -12166,12 +12716,14 @@
         <v>252</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>589</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="243" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -12181,12 +12733,14 @@
         <v>252</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>590</v>
+        <v>336</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="244" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -12196,12 +12750,14 @@
         <v>252</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>591</v>
+        <v>336</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="245" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -12211,12 +12767,14 @@
         <v>252</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>592</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="246" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -12226,12 +12784,14 @@
         <v>252</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>593</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="247" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -12241,12 +12801,14 @@
         <v>252</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="248" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -12256,12 +12818,14 @@
         <v>252</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>595</v>
+        <v>336</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="249" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -12271,12 +12835,14 @@
         <v>252</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="250" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -12286,12 +12852,14 @@
         <v>252</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="251" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -12301,12 +12869,14 @@
         <v>252</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>598</v>
+        <v>336</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="252" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -12316,12 +12886,14 @@
         <v>252</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>599</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="253" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -12331,12 +12903,14 @@
         <v>252</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>614</v>
+        <v>336</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="254" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -12349,7 +12923,9 @@
       <c r="D17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="255" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -12364,7 +12940,9 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="256" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -12379,7 +12957,9 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="257" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -12394,7 +12974,9 @@
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="258" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -12409,7 +12991,9 @@
       <c r="D21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="259" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -12424,7 +13008,9 @@
       <c r="D22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="260" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -12439,7 +13025,9 @@
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="261" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -12454,26 +13042,30 @@
       <c r="D24" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="262" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="185">
         <v>37672</v>
       </c>
-      <c r="D25" s="193" t="s">
+      <c r="D25" s="186" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="194"/>
+      <c r="E25" s="263" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="188" t="s">
         <v>449</v>
       </c>
       <c r="C26" s="103">
@@ -12482,14 +13074,14 @@
       <c r="D26" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="195"/>
+      <c r="E26" s="187"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="195"/>
+      <c r="E27" s="187"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12506,7 +13098,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12566,10 +13158,10 @@
       <c r="F2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="H2" s="134" t="s">
+      <c r="G2" s="264" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="264" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12592,10 +13184,10 @@
       <c r="F3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="135" t="s">
-        <v>523</v>
-      </c>
-      <c r="H3" s="135" t="s">
+      <c r="G3" s="265" t="s">
+        <v>616</v>
+      </c>
+      <c r="H3" s="265" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12618,10 +13210,10 @@
       <c r="F4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="136" t="s">
-        <v>524</v>
-      </c>
-      <c r="H4" s="136" t="s">
+      <c r="G4" s="266" t="s">
+        <v>617</v>
+      </c>
+      <c r="H4" s="266" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12644,10 +13236,10 @@
       <c r="F5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G5" s="137" t="s">
-        <v>525</v>
-      </c>
-      <c r="H5" s="137" t="s">
+      <c r="G5" s="267" t="s">
+        <v>618</v>
+      </c>
+      <c r="H5" s="267" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12670,10 +13262,10 @@
       <c r="F6" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="H6" s="138" t="s">
+      <c r="G6" s="268" t="s">
+        <v>619</v>
+      </c>
+      <c r="H6" s="268" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12696,10 +13288,10 @@
       <c r="F7" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="139" t="s">
-        <v>527</v>
-      </c>
-      <c r="H7" s="139" t="s">
+      <c r="G7" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="134" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12720,10 +13312,10 @@
       <c r="F8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G8" s="140" t="s">
-        <v>528</v>
-      </c>
-      <c r="H8" s="140" t="s">
+      <c r="G8" s="135" t="s">
+        <v>523</v>
+      </c>
+      <c r="H8" s="135" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12746,10 +13338,10 @@
       <c r="F9" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G9" s="141" t="s">
-        <v>529</v>
-      </c>
-      <c r="H9" s="141" t="s">
+      <c r="G9" s="136" t="s">
+        <v>524</v>
+      </c>
+      <c